--- a/database/industries/methanol/zagros/product/monthly_seprated.xlsx
+++ b/database/industries/methanol/zagros/product/monthly_seprated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\methanol\zagros\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9041375F-2D5D-481A-B7AE-BD176B1870B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B3D866-FF2D-47CD-B2CE-3E0207028547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="85">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,12 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>ماه 6 منتهی به 1397/06</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
-  </si>
-  <si>
     <t>ماه 8 منتهی به 1397/08</t>
   </si>
   <si>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 7 منتهی به 1401/07</t>
+  </si>
+  <si>
+    <t>ماه 8 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 9 منتهی به 1401/09</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -1492,95 +1492,95 @@
       <c r="X11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z11" s="11" t="s">
-        <v>58</v>
+      <c r="Y11" s="11">
+        <v>567528</v>
+      </c>
+      <c r="Z11" s="11">
+        <v>550076</v>
       </c>
       <c r="AA11" s="11">
-        <v>567528</v>
+        <v>514391</v>
       </c>
       <c r="AB11" s="11">
-        <v>550076</v>
+        <v>545342</v>
       </c>
       <c r="AC11" s="11">
-        <v>514391</v>
+        <v>546755</v>
       </c>
       <c r="AD11" s="11">
-        <v>545342</v>
+        <v>550227</v>
       </c>
       <c r="AE11" s="11">
-        <v>546755</v>
+        <v>350481</v>
       </c>
       <c r="AF11" s="11">
-        <v>550227</v>
+        <v>486620</v>
       </c>
       <c r="AG11" s="11">
-        <v>350481</v>
+        <v>550730</v>
       </c>
       <c r="AH11" s="11">
-        <v>486620</v>
+        <v>578202</v>
       </c>
       <c r="AI11" s="11">
-        <v>550730</v>
+        <v>563356</v>
       </c>
       <c r="AJ11" s="11">
-        <v>578202</v>
+        <v>570158</v>
       </c>
       <c r="AK11" s="11">
-        <v>563356</v>
+        <v>545105</v>
       </c>
       <c r="AL11" s="11">
-        <v>570158</v>
+        <v>568657</v>
       </c>
       <c r="AM11" s="11">
-        <v>545105</v>
+        <v>366499</v>
       </c>
       <c r="AN11" s="11">
-        <v>568657</v>
+        <v>437716</v>
       </c>
       <c r="AO11" s="11">
-        <v>366499</v>
+        <v>271712</v>
       </c>
       <c r="AP11" s="11">
-        <v>437716</v>
+        <v>332706</v>
       </c>
       <c r="AQ11" s="11">
-        <v>271712</v>
+        <v>294402</v>
       </c>
       <c r="AR11" s="11">
-        <v>332706</v>
+        <v>372733</v>
       </c>
       <c r="AS11" s="11">
-        <v>294402</v>
+        <v>573014</v>
       </c>
       <c r="AT11" s="11">
-        <v>372733</v>
+        <v>482842</v>
       </c>
       <c r="AU11" s="11">
-        <v>573014</v>
+        <v>490496</v>
       </c>
       <c r="AV11" s="11">
-        <v>482842</v>
+        <v>665450</v>
       </c>
       <c r="AW11" s="11">
-        <v>490496</v>
+        <v>532153</v>
       </c>
       <c r="AX11" s="11">
-        <v>665450</v>
+        <v>490972</v>
       </c>
       <c r="AY11" s="11">
-        <v>532153</v>
+        <v>451689</v>
       </c>
       <c r="AZ11" s="11">
-        <v>490972</v>
+        <v>510445</v>
       </c>
       <c r="BA11" s="11">
-        <v>451689</v>
+        <v>508885</v>
       </c>
       <c r="BB11" s="11">
-        <v>510445</v>
+        <v>406829</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.3">
@@ -1651,95 +1651,95 @@
       <c r="X12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z12" s="13" t="s">
-        <v>58</v>
+      <c r="Y12" s="13">
+        <v>11448</v>
+      </c>
+      <c r="Z12" s="13">
+        <v>12731</v>
       </c>
       <c r="AA12" s="13">
-        <v>11448</v>
+        <v>14222</v>
       </c>
       <c r="AB12" s="13">
-        <v>12731</v>
+        <v>15391</v>
       </c>
       <c r="AC12" s="13">
-        <v>14222</v>
+        <v>16021</v>
       </c>
       <c r="AD12" s="13">
-        <v>15391</v>
+        <v>17859</v>
       </c>
       <c r="AE12" s="13">
-        <v>16021</v>
+        <v>17398</v>
       </c>
       <c r="AF12" s="13">
-        <v>17859</v>
+        <v>15426</v>
       </c>
       <c r="AG12" s="13">
-        <v>17398</v>
+        <v>20216</v>
       </c>
       <c r="AH12" s="13">
-        <v>15426</v>
+        <v>16656</v>
       </c>
       <c r="AI12" s="13">
-        <v>20216</v>
+        <v>21020</v>
       </c>
       <c r="AJ12" s="13">
-        <v>16656</v>
+        <v>16318</v>
       </c>
       <c r="AK12" s="13">
-        <v>21020</v>
+        <v>17672</v>
       </c>
       <c r="AL12" s="13">
-        <v>16318</v>
+        <v>13411</v>
       </c>
       <c r="AM12" s="13">
-        <v>17672</v>
+        <v>15175</v>
       </c>
       <c r="AN12" s="13">
-        <v>13411</v>
+        <v>16222</v>
       </c>
       <c r="AO12" s="13">
-        <v>15175</v>
+        <v>17586</v>
       </c>
       <c r="AP12" s="13">
-        <v>16222</v>
+        <v>20169</v>
       </c>
       <c r="AQ12" s="13">
-        <v>17586</v>
+        <v>18755</v>
       </c>
       <c r="AR12" s="13">
-        <v>20169</v>
+        <v>16409</v>
       </c>
       <c r="AS12" s="13">
-        <v>18755</v>
+        <v>15506</v>
       </c>
       <c r="AT12" s="13">
-        <v>16409</v>
+        <v>9094</v>
       </c>
       <c r="AU12" s="13">
-        <v>15506</v>
+        <v>16249</v>
       </c>
       <c r="AV12" s="13">
-        <v>9094</v>
+        <v>18486</v>
       </c>
       <c r="AW12" s="13">
-        <v>16249</v>
+        <v>17977</v>
       </c>
       <c r="AX12" s="13">
-        <v>18486</v>
+        <v>12437</v>
       </c>
       <c r="AY12" s="13">
-        <v>17977</v>
+        <v>14613</v>
       </c>
       <c r="AZ12" s="13">
-        <v>16125</v>
+        <v>11331</v>
       </c>
       <c r="BA12" s="13">
-        <v>14613</v>
+        <v>14224</v>
       </c>
       <c r="BB12" s="13">
-        <v>11331</v>
+        <v>17419</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1809,94 +1809,94 @@
         <v>0</v>
       </c>
       <c r="Y13" s="15">
-        <v>0</v>
+        <v>578976</v>
       </c>
       <c r="Z13" s="15">
-        <v>0</v>
+        <v>562807</v>
       </c>
       <c r="AA13" s="15">
-        <v>578976</v>
+        <v>528613</v>
       </c>
       <c r="AB13" s="15">
-        <v>562807</v>
+        <v>560733</v>
       </c>
       <c r="AC13" s="15">
-        <v>528613</v>
+        <v>562776</v>
       </c>
       <c r="AD13" s="15">
-        <v>560733</v>
+        <v>568086</v>
       </c>
       <c r="AE13" s="15">
-        <v>562776</v>
+        <v>367879</v>
       </c>
       <c r="AF13" s="15">
-        <v>568086</v>
+        <v>502046</v>
       </c>
       <c r="AG13" s="15">
-        <v>367879</v>
+        <v>570946</v>
       </c>
       <c r="AH13" s="15">
-        <v>502046</v>
+        <v>594858</v>
       </c>
       <c r="AI13" s="15">
-        <v>570946</v>
+        <v>584376</v>
       </c>
       <c r="AJ13" s="15">
-        <v>594858</v>
+        <v>586476</v>
       </c>
       <c r="AK13" s="15">
-        <v>584376</v>
+        <v>562777</v>
       </c>
       <c r="AL13" s="15">
-        <v>586476</v>
+        <v>582068</v>
       </c>
       <c r="AM13" s="15">
-        <v>562777</v>
+        <v>381674</v>
       </c>
       <c r="AN13" s="15">
-        <v>582068</v>
+        <v>453938</v>
       </c>
       <c r="AO13" s="15">
-        <v>381674</v>
+        <v>289298</v>
       </c>
       <c r="AP13" s="15">
-        <v>453938</v>
+        <v>352875</v>
       </c>
       <c r="AQ13" s="15">
-        <v>289298</v>
+        <v>313157</v>
       </c>
       <c r="AR13" s="15">
-        <v>352875</v>
+        <v>389142</v>
       </c>
       <c r="AS13" s="15">
-        <v>313157</v>
+        <v>588520</v>
       </c>
       <c r="AT13" s="15">
-        <v>389142</v>
+        <v>491936</v>
       </c>
       <c r="AU13" s="15">
-        <v>588520</v>
+        <v>506745</v>
       </c>
       <c r="AV13" s="15">
-        <v>491936</v>
+        <v>683936</v>
       </c>
       <c r="AW13" s="15">
-        <v>506745</v>
+        <v>550130</v>
       </c>
       <c r="AX13" s="15">
-        <v>683936</v>
+        <v>503409</v>
       </c>
       <c r="AY13" s="15">
-        <v>550130</v>
+        <v>466302</v>
       </c>
       <c r="AZ13" s="15">
-        <v>507097</v>
+        <v>521776</v>
       </c>
       <c r="BA13" s="15">
-        <v>466302</v>
+        <v>523109</v>
       </c>
       <c r="BB13" s="15">
-        <v>521776</v>
+        <v>424248</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -2024,95 +2024,95 @@
       <c r="X15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z15" s="11" t="s">
-        <v>58</v>
+      <c r="Y15" s="11">
+        <v>219479</v>
+      </c>
+      <c r="Z15" s="11">
+        <v>253831</v>
       </c>
       <c r="AA15" s="11">
-        <v>219479</v>
+        <v>234396</v>
       </c>
       <c r="AB15" s="11">
-        <v>253831</v>
+        <v>241552</v>
       </c>
       <c r="AC15" s="11">
-        <v>234396</v>
+        <v>234747</v>
       </c>
       <c r="AD15" s="11">
-        <v>241552</v>
+        <v>239436</v>
       </c>
       <c r="AE15" s="11">
-        <v>234747</v>
+        <v>146875</v>
       </c>
       <c r="AF15" s="11">
-        <v>239436</v>
+        <v>208438</v>
       </c>
       <c r="AG15" s="11">
-        <v>146875</v>
+        <v>239067</v>
       </c>
       <c r="AH15" s="11">
-        <v>208438</v>
+        <v>253409</v>
       </c>
       <c r="AI15" s="11">
-        <v>239067</v>
+        <v>239457</v>
       </c>
       <c r="AJ15" s="11">
-        <v>253409</v>
+        <v>240628</v>
       </c>
       <c r="AK15" s="11">
-        <v>239457</v>
+        <v>227517</v>
       </c>
       <c r="AL15" s="11">
-        <v>240628</v>
+        <v>244909</v>
       </c>
       <c r="AM15" s="11">
-        <v>227517</v>
+        <v>159548</v>
       </c>
       <c r="AN15" s="11">
-        <v>244909</v>
+        <v>188312</v>
       </c>
       <c r="AO15" s="11">
-        <v>159548</v>
+        <v>112181</v>
       </c>
       <c r="AP15" s="11">
-        <v>188312</v>
+        <v>129517</v>
       </c>
       <c r="AQ15" s="11">
-        <v>112181</v>
+        <v>108879</v>
       </c>
       <c r="AR15" s="11">
-        <v>129517</v>
+        <v>158038</v>
       </c>
       <c r="AS15" s="11">
-        <v>108879</v>
+        <v>246795</v>
       </c>
       <c r="AT15" s="11">
-        <v>158038</v>
+        <v>212602</v>
       </c>
       <c r="AU15" s="11">
-        <v>246795</v>
+        <v>209784</v>
       </c>
       <c r="AV15" s="11">
-        <v>212602</v>
+        <v>287922</v>
       </c>
       <c r="AW15" s="11">
-        <v>209784</v>
+        <v>223509</v>
       </c>
       <c r="AX15" s="11">
-        <v>287922</v>
+        <v>214609</v>
       </c>
       <c r="AY15" s="11">
-        <v>223509</v>
+        <v>196897</v>
       </c>
       <c r="AZ15" s="11">
-        <v>210921</v>
+        <v>229177</v>
       </c>
       <c r="BA15" s="11">
-        <v>196897</v>
+        <v>226208</v>
       </c>
       <c r="BB15" s="11">
-        <v>229177</v>
+        <v>174284</v>
       </c>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.3">
@@ -2182,94 +2182,94 @@
         <v>0</v>
       </c>
       <c r="Y16" s="17">
-        <v>0</v>
+        <v>219479</v>
       </c>
       <c r="Z16" s="17">
-        <v>0</v>
+        <v>253831</v>
       </c>
       <c r="AA16" s="17">
-        <v>219479</v>
+        <v>234396</v>
       </c>
       <c r="AB16" s="17">
-        <v>253831</v>
+        <v>241552</v>
       </c>
       <c r="AC16" s="17">
-        <v>234396</v>
+        <v>234747</v>
       </c>
       <c r="AD16" s="17">
-        <v>241552</v>
+        <v>239436</v>
       </c>
       <c r="AE16" s="17">
-        <v>234747</v>
+        <v>146875</v>
       </c>
       <c r="AF16" s="17">
-        <v>239436</v>
+        <v>208438</v>
       </c>
       <c r="AG16" s="17">
-        <v>146875</v>
+        <v>239067</v>
       </c>
       <c r="AH16" s="17">
-        <v>208438</v>
+        <v>253409</v>
       </c>
       <c r="AI16" s="17">
-        <v>239067</v>
+        <v>239457</v>
       </c>
       <c r="AJ16" s="17">
-        <v>253409</v>
+        <v>240628</v>
       </c>
       <c r="AK16" s="17">
-        <v>239457</v>
+        <v>227517</v>
       </c>
       <c r="AL16" s="17">
-        <v>240628</v>
+        <v>244909</v>
       </c>
       <c r="AM16" s="17">
-        <v>227517</v>
+        <v>159548</v>
       </c>
       <c r="AN16" s="17">
-        <v>244909</v>
+        <v>188312</v>
       </c>
       <c r="AO16" s="17">
-        <v>159548</v>
+        <v>112181</v>
       </c>
       <c r="AP16" s="17">
-        <v>188312</v>
+        <v>129517</v>
       </c>
       <c r="AQ16" s="17">
-        <v>112181</v>
+        <v>108879</v>
       </c>
       <c r="AR16" s="17">
-        <v>129517</v>
+        <v>158038</v>
       </c>
       <c r="AS16" s="17">
-        <v>108879</v>
+        <v>246795</v>
       </c>
       <c r="AT16" s="17">
-        <v>158038</v>
+        <v>212602</v>
       </c>
       <c r="AU16" s="17">
-        <v>246795</v>
+        <v>209784</v>
       </c>
       <c r="AV16" s="17">
-        <v>212602</v>
+        <v>287922</v>
       </c>
       <c r="AW16" s="17">
-        <v>209784</v>
+        <v>223509</v>
       </c>
       <c r="AX16" s="17">
-        <v>287922</v>
+        <v>214609</v>
       </c>
       <c r="AY16" s="17">
-        <v>223509</v>
+        <v>196897</v>
       </c>
       <c r="AZ16" s="17">
-        <v>210921</v>
+        <v>229177</v>
       </c>
       <c r="BA16" s="17">
-        <v>196897</v>
+        <v>226208</v>
       </c>
       <c r="BB16" s="17">
-        <v>229177</v>
+        <v>174284</v>
       </c>
     </row>
     <row r="17" spans="2:54" x14ac:dyDescent="0.3">
@@ -2395,11 +2395,11 @@
       <c r="X18" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y18" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z18" s="15" t="s">
-        <v>58</v>
+      <c r="Y18" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="15">
+        <v>0</v>
       </c>
       <c r="AA18" s="15">
         <v>0</v>
@@ -2553,94 +2553,94 @@
         <v>0</v>
       </c>
       <c r="Y19" s="17">
-        <v>0</v>
+        <v>798455</v>
       </c>
       <c r="Z19" s="17">
-        <v>0</v>
+        <v>816638</v>
       </c>
       <c r="AA19" s="17">
-        <v>798455</v>
+        <v>763009</v>
       </c>
       <c r="AB19" s="17">
-        <v>816638</v>
+        <v>802285</v>
       </c>
       <c r="AC19" s="17">
-        <v>763009</v>
+        <v>797523</v>
       </c>
       <c r="AD19" s="17">
-        <v>802285</v>
+        <v>807522</v>
       </c>
       <c r="AE19" s="17">
-        <v>797523</v>
+        <v>514754</v>
       </c>
       <c r="AF19" s="17">
-        <v>807522</v>
+        <v>710484</v>
       </c>
       <c r="AG19" s="17">
-        <v>514754</v>
+        <v>810013</v>
       </c>
       <c r="AH19" s="17">
-        <v>710484</v>
+        <v>848267</v>
       </c>
       <c r="AI19" s="17">
-        <v>810013</v>
+        <v>823833</v>
       </c>
       <c r="AJ19" s="17">
-        <v>848267</v>
+        <v>827104</v>
       </c>
       <c r="AK19" s="17">
-        <v>823833</v>
+        <v>790294</v>
       </c>
       <c r="AL19" s="17">
-        <v>827104</v>
+        <v>826977</v>
       </c>
       <c r="AM19" s="17">
-        <v>790294</v>
+        <v>541222</v>
       </c>
       <c r="AN19" s="17">
-        <v>826977</v>
+        <v>642250</v>
       </c>
       <c r="AO19" s="17">
-        <v>541222</v>
+        <v>401479</v>
       </c>
       <c r="AP19" s="17">
-        <v>642250</v>
+        <v>482392</v>
       </c>
       <c r="AQ19" s="17">
-        <v>401479</v>
+        <v>422036</v>
       </c>
       <c r="AR19" s="17">
-        <v>482392</v>
+        <v>547180</v>
       </c>
       <c r="AS19" s="17">
-        <v>422036</v>
+        <v>835315</v>
       </c>
       <c r="AT19" s="17">
-        <v>547180</v>
+        <v>704538</v>
       </c>
       <c r="AU19" s="17">
-        <v>835315</v>
+        <v>716529</v>
       </c>
       <c r="AV19" s="17">
-        <v>704538</v>
+        <v>971858</v>
       </c>
       <c r="AW19" s="17">
-        <v>716529</v>
+        <v>773639</v>
       </c>
       <c r="AX19" s="17">
-        <v>971858</v>
+        <v>718017</v>
       </c>
       <c r="AY19" s="17">
-        <v>773639</v>
+        <v>663199</v>
       </c>
       <c r="AZ19" s="17">
-        <v>718018</v>
+        <v>750953</v>
       </c>
       <c r="BA19" s="17">
-        <v>663199</v>
+        <v>749317</v>
       </c>
       <c r="BB19" s="17">
-        <v>750953</v>
+        <v>598532</v>
       </c>
     </row>
     <row r="20" spans="2:54" x14ac:dyDescent="0.3">
@@ -3145,95 +3145,95 @@
       <c r="X26" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y26" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z26" s="11" t="s">
-        <v>58</v>
+      <c r="Y26" s="11">
+        <v>92945</v>
+      </c>
+      <c r="Z26" s="11">
+        <v>118112</v>
       </c>
       <c r="AA26" s="11">
-        <v>92945</v>
+        <v>113097</v>
       </c>
       <c r="AB26" s="11">
-        <v>118112</v>
+        <v>120048</v>
       </c>
       <c r="AC26" s="11">
-        <v>113097</v>
+        <v>112161</v>
       </c>
       <c r="AD26" s="11">
-        <v>120048</v>
+        <v>93674</v>
       </c>
       <c r="AE26" s="11">
-        <v>112161</v>
+        <v>55487</v>
       </c>
       <c r="AF26" s="11">
-        <v>93674</v>
+        <v>74384</v>
       </c>
       <c r="AG26" s="11">
-        <v>55487</v>
+        <v>96352</v>
       </c>
       <c r="AH26" s="11">
-        <v>74384</v>
+        <v>114608</v>
       </c>
       <c r="AI26" s="11">
-        <v>96352</v>
+        <v>110556</v>
       </c>
       <c r="AJ26" s="11">
-        <v>114608</v>
+        <v>107639</v>
       </c>
       <c r="AK26" s="11">
-        <v>110556</v>
+        <v>101988</v>
       </c>
       <c r="AL26" s="11">
-        <v>107639</v>
+        <v>121193</v>
       </c>
       <c r="AM26" s="11">
-        <v>101988</v>
+        <v>63766</v>
       </c>
       <c r="AN26" s="11">
-        <v>121193</v>
+        <v>71881</v>
       </c>
       <c r="AO26" s="11">
-        <v>63766</v>
+        <v>39231</v>
       </c>
       <c r="AP26" s="11">
-        <v>71881</v>
+        <v>46986</v>
       </c>
       <c r="AQ26" s="11">
-        <v>39231</v>
+        <v>49585</v>
       </c>
       <c r="AR26" s="11">
-        <v>46986</v>
+        <v>65562</v>
       </c>
       <c r="AS26" s="11">
-        <v>49585</v>
+        <v>97676</v>
       </c>
       <c r="AT26" s="11">
-        <v>66039</v>
+        <v>82520</v>
       </c>
       <c r="AU26" s="11">
-        <v>97676</v>
+        <v>89625</v>
       </c>
       <c r="AV26" s="11">
-        <v>82520</v>
+        <v>134805</v>
       </c>
       <c r="AW26" s="11">
-        <v>89625</v>
+        <v>93397</v>
       </c>
       <c r="AX26" s="11">
-        <v>134805</v>
+        <v>88193</v>
       </c>
       <c r="AY26" s="11">
-        <v>93397</v>
+        <v>64618</v>
       </c>
       <c r="AZ26" s="11">
-        <v>88193</v>
+        <v>69257</v>
       </c>
       <c r="BA26" s="11">
-        <v>64618</v>
+        <v>71617</v>
       </c>
       <c r="BB26" s="11">
-        <v>69257</v>
+        <v>71905</v>
       </c>
     </row>
     <row r="27" spans="2:54" x14ac:dyDescent="0.3">
@@ -3304,95 +3304,95 @@
       <c r="X27" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y27" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z27" s="13" t="s">
-        <v>58</v>
+      <c r="Y27" s="13">
+        <v>11448</v>
+      </c>
+      <c r="Z27" s="13">
+        <v>12731</v>
       </c>
       <c r="AA27" s="13">
-        <v>11448</v>
+        <v>14222</v>
       </c>
       <c r="AB27" s="13">
-        <v>12731</v>
+        <v>15391</v>
       </c>
       <c r="AC27" s="13">
-        <v>14222</v>
+        <v>16021</v>
       </c>
       <c r="AD27" s="13">
-        <v>15391</v>
+        <v>17859</v>
       </c>
       <c r="AE27" s="13">
-        <v>16021</v>
+        <v>17398</v>
       </c>
       <c r="AF27" s="13">
-        <v>17859</v>
+        <v>15426</v>
       </c>
       <c r="AG27" s="13">
-        <v>17398</v>
+        <v>20216</v>
       </c>
       <c r="AH27" s="13">
-        <v>15426</v>
+        <v>16656</v>
       </c>
       <c r="AI27" s="13">
-        <v>20216</v>
+        <v>21020</v>
       </c>
       <c r="AJ27" s="13">
-        <v>16656</v>
+        <v>16318</v>
       </c>
       <c r="AK27" s="13">
-        <v>21020</v>
+        <v>17672</v>
       </c>
       <c r="AL27" s="13">
-        <v>16318</v>
+        <v>13411</v>
       </c>
       <c r="AM27" s="13">
-        <v>17672</v>
+        <v>15175</v>
       </c>
       <c r="AN27" s="13">
-        <v>13411</v>
+        <v>16222</v>
       </c>
       <c r="AO27" s="13">
-        <v>15175</v>
+        <v>16787</v>
       </c>
       <c r="AP27" s="13">
-        <v>16222</v>
+        <v>20169</v>
       </c>
       <c r="AQ27" s="13">
-        <v>16787</v>
+        <v>18755</v>
       </c>
       <c r="AR27" s="13">
-        <v>20169</v>
+        <v>16409</v>
       </c>
       <c r="AS27" s="13">
-        <v>18755</v>
+        <v>15506</v>
       </c>
       <c r="AT27" s="13">
-        <v>16409</v>
+        <v>9094</v>
       </c>
       <c r="AU27" s="13">
-        <v>15506</v>
+        <v>16249</v>
       </c>
       <c r="AV27" s="13">
-        <v>9094</v>
+        <v>18486</v>
       </c>
       <c r="AW27" s="13">
-        <v>16249</v>
+        <v>17977</v>
       </c>
       <c r="AX27" s="13">
-        <v>18486</v>
+        <v>12437</v>
       </c>
       <c r="AY27" s="13">
-        <v>17977</v>
+        <v>14613</v>
       </c>
       <c r="AZ27" s="13">
-        <v>16125</v>
+        <v>11331</v>
       </c>
       <c r="BA27" s="13">
-        <v>14613</v>
+        <v>14224</v>
       </c>
       <c r="BB27" s="13">
-        <v>11331</v>
+        <v>17419</v>
       </c>
     </row>
     <row r="28" spans="2:54" x14ac:dyDescent="0.3">
@@ -3462,94 +3462,94 @@
         <v>0</v>
       </c>
       <c r="Y28" s="15">
-        <v>0</v>
+        <v>104393</v>
       </c>
       <c r="Z28" s="15">
-        <v>0</v>
+        <v>130843</v>
       </c>
       <c r="AA28" s="15">
-        <v>104393</v>
+        <v>127319</v>
       </c>
       <c r="AB28" s="15">
-        <v>130843</v>
+        <v>135439</v>
       </c>
       <c r="AC28" s="15">
-        <v>127319</v>
+        <v>128182</v>
       </c>
       <c r="AD28" s="15">
-        <v>135439</v>
+        <v>111533</v>
       </c>
       <c r="AE28" s="15">
-        <v>128182</v>
+        <v>72885</v>
       </c>
       <c r="AF28" s="15">
-        <v>111533</v>
+        <v>89810</v>
       </c>
       <c r="AG28" s="15">
-        <v>72885</v>
+        <v>116568</v>
       </c>
       <c r="AH28" s="15">
-        <v>89810</v>
+        <v>131264</v>
       </c>
       <c r="AI28" s="15">
-        <v>116568</v>
+        <v>131576</v>
       </c>
       <c r="AJ28" s="15">
-        <v>131264</v>
+        <v>123957</v>
       </c>
       <c r="AK28" s="15">
-        <v>131576</v>
+        <v>119660</v>
       </c>
       <c r="AL28" s="15">
-        <v>123957</v>
+        <v>134604</v>
       </c>
       <c r="AM28" s="15">
-        <v>119660</v>
+        <v>78941</v>
       </c>
       <c r="AN28" s="15">
-        <v>134604</v>
+        <v>88103</v>
       </c>
       <c r="AO28" s="15">
-        <v>78941</v>
+        <v>56018</v>
       </c>
       <c r="AP28" s="15">
-        <v>88103</v>
+        <v>67155</v>
       </c>
       <c r="AQ28" s="15">
-        <v>56018</v>
+        <v>68340</v>
       </c>
       <c r="AR28" s="15">
-        <v>67155</v>
+        <v>81971</v>
       </c>
       <c r="AS28" s="15">
-        <v>68340</v>
+        <v>113182</v>
       </c>
       <c r="AT28" s="15">
-        <v>82448</v>
+        <v>91614</v>
       </c>
       <c r="AU28" s="15">
-        <v>113182</v>
+        <v>105874</v>
       </c>
       <c r="AV28" s="15">
-        <v>91614</v>
+        <v>153291</v>
       </c>
       <c r="AW28" s="15">
-        <v>105874</v>
+        <v>111374</v>
       </c>
       <c r="AX28" s="15">
-        <v>153291</v>
+        <v>100630</v>
       </c>
       <c r="AY28" s="15">
-        <v>111374</v>
+        <v>79231</v>
       </c>
       <c r="AZ28" s="15">
-        <v>104318</v>
+        <v>80588</v>
       </c>
       <c r="BA28" s="15">
-        <v>79231</v>
+        <v>85841</v>
       </c>
       <c r="BB28" s="15">
-        <v>80588</v>
+        <v>89324</v>
       </c>
     </row>
     <row r="29" spans="2:54" x14ac:dyDescent="0.3">
@@ -3677,95 +3677,95 @@
       <c r="X30" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y30" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z30" s="11" t="s">
-        <v>58</v>
+      <c r="Y30" s="11">
+        <v>271600</v>
+      </c>
+      <c r="Z30" s="11">
+        <v>236760</v>
       </c>
       <c r="AA30" s="11">
-        <v>271600</v>
+        <v>186678</v>
       </c>
       <c r="AB30" s="11">
-        <v>236760</v>
+        <v>335297</v>
       </c>
       <c r="AC30" s="11">
-        <v>186678</v>
+        <v>271374</v>
       </c>
       <c r="AD30" s="11">
-        <v>335297</v>
+        <v>270416</v>
       </c>
       <c r="AE30" s="11">
-        <v>271374</v>
+        <v>141269</v>
       </c>
       <c r="AF30" s="11">
-        <v>270416</v>
+        <v>120513</v>
       </c>
       <c r="AG30" s="11">
-        <v>141269</v>
+        <v>240864</v>
       </c>
       <c r="AH30" s="11">
-        <v>120513</v>
+        <v>277817</v>
       </c>
       <c r="AI30" s="11">
-        <v>240864</v>
+        <v>284022</v>
       </c>
       <c r="AJ30" s="11">
-        <v>277817</v>
+        <v>210931</v>
       </c>
       <c r="AK30" s="11">
-        <v>284022</v>
+        <v>213586</v>
       </c>
       <c r="AL30" s="11">
-        <v>210931</v>
+        <v>280098</v>
       </c>
       <c r="AM30" s="11">
-        <v>213586</v>
+        <v>173294</v>
       </c>
       <c r="AN30" s="11">
-        <v>280098</v>
+        <v>202592</v>
       </c>
       <c r="AO30" s="11">
-        <v>173294</v>
+        <v>86351</v>
       </c>
       <c r="AP30" s="11">
-        <v>202592</v>
+        <v>134014</v>
       </c>
       <c r="AQ30" s="11">
-        <v>86351</v>
+        <v>53662</v>
       </c>
       <c r="AR30" s="11">
-        <v>134014</v>
+        <v>79535</v>
       </c>
       <c r="AS30" s="11">
-        <v>53662</v>
+        <v>247159</v>
       </c>
       <c r="AT30" s="11">
-        <v>79535</v>
+        <v>202127</v>
       </c>
       <c r="AU30" s="11">
-        <v>247159</v>
+        <v>240809</v>
       </c>
       <c r="AV30" s="11">
-        <v>202127</v>
+        <v>296901</v>
       </c>
       <c r="AW30" s="11">
-        <v>240809</v>
+        <v>289166</v>
       </c>
       <c r="AX30" s="11">
-        <v>296901</v>
+        <v>133789</v>
       </c>
       <c r="AY30" s="11">
-        <v>289166</v>
+        <v>274326</v>
       </c>
       <c r="AZ30" s="11">
-        <v>133789</v>
+        <v>188430</v>
       </c>
       <c r="BA30" s="11">
-        <v>274326</v>
+        <v>176410</v>
       </c>
       <c r="BB30" s="11">
-        <v>188430</v>
+        <v>136235</v>
       </c>
     </row>
     <row r="31" spans="2:54" x14ac:dyDescent="0.3">
@@ -3835,94 +3835,94 @@
         <v>0</v>
       </c>
       <c r="Y31" s="17">
-        <v>0</v>
+        <v>271600</v>
       </c>
       <c r="Z31" s="17">
-        <v>0</v>
+        <v>236760</v>
       </c>
       <c r="AA31" s="17">
-        <v>271600</v>
+        <v>186678</v>
       </c>
       <c r="AB31" s="17">
-        <v>236760</v>
+        <v>335297</v>
       </c>
       <c r="AC31" s="17">
-        <v>186678</v>
+        <v>271374</v>
       </c>
       <c r="AD31" s="17">
-        <v>335297</v>
+        <v>270416</v>
       </c>
       <c r="AE31" s="17">
-        <v>271374</v>
+        <v>141269</v>
       </c>
       <c r="AF31" s="17">
-        <v>270416</v>
+        <v>120513</v>
       </c>
       <c r="AG31" s="17">
-        <v>141269</v>
+        <v>240864</v>
       </c>
       <c r="AH31" s="17">
-        <v>120513</v>
+        <v>277817</v>
       </c>
       <c r="AI31" s="17">
-        <v>240864</v>
+        <v>284022</v>
       </c>
       <c r="AJ31" s="17">
-        <v>277817</v>
+        <v>210931</v>
       </c>
       <c r="AK31" s="17">
-        <v>284022</v>
+        <v>213586</v>
       </c>
       <c r="AL31" s="17">
-        <v>210931</v>
+        <v>280098</v>
       </c>
       <c r="AM31" s="17">
-        <v>213586</v>
+        <v>173294</v>
       </c>
       <c r="AN31" s="17">
-        <v>280098</v>
+        <v>202592</v>
       </c>
       <c r="AO31" s="17">
-        <v>173294</v>
+        <v>86351</v>
       </c>
       <c r="AP31" s="17">
-        <v>202592</v>
+        <v>134014</v>
       </c>
       <c r="AQ31" s="17">
-        <v>86351</v>
+        <v>53662</v>
       </c>
       <c r="AR31" s="17">
-        <v>134014</v>
+        <v>79535</v>
       </c>
       <c r="AS31" s="17">
-        <v>53662</v>
+        <v>247159</v>
       </c>
       <c r="AT31" s="17">
-        <v>79535</v>
+        <v>202127</v>
       </c>
       <c r="AU31" s="17">
-        <v>247159</v>
+        <v>240809</v>
       </c>
       <c r="AV31" s="17">
-        <v>202127</v>
+        <v>296901</v>
       </c>
       <c r="AW31" s="17">
-        <v>240809</v>
+        <v>289166</v>
       </c>
       <c r="AX31" s="17">
-        <v>296901</v>
+        <v>133789</v>
       </c>
       <c r="AY31" s="17">
-        <v>289166</v>
+        <v>274326</v>
       </c>
       <c r="AZ31" s="17">
-        <v>133789</v>
+        <v>188430</v>
       </c>
       <c r="BA31" s="17">
-        <v>274326</v>
+        <v>176410</v>
       </c>
       <c r="BB31" s="17">
-        <v>188430</v>
+        <v>136235</v>
       </c>
     </row>
     <row r="32" spans="2:54" x14ac:dyDescent="0.3">
@@ -4048,11 +4048,11 @@
       <c r="X33" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y33" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z33" s="15" t="s">
-        <v>58</v>
+      <c r="Y33" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="15">
+        <v>0</v>
       </c>
       <c r="AA33" s="15">
         <v>0</v>
@@ -4262,11 +4262,11 @@
       <c r="X35" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y35" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z35" s="15" t="s">
-        <v>58</v>
+      <c r="Y35" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="15">
+        <v>0</v>
       </c>
       <c r="AA35" s="15">
         <v>0</v>
@@ -4420,94 +4420,94 @@
         <v>0</v>
       </c>
       <c r="Y36" s="17">
-        <v>0</v>
+        <v>375994</v>
       </c>
       <c r="Z36" s="17">
-        <v>0</v>
+        <v>367602</v>
       </c>
       <c r="AA36" s="17">
-        <v>375994</v>
+        <v>313997</v>
       </c>
       <c r="AB36" s="17">
-        <v>367602</v>
+        <v>470736</v>
       </c>
       <c r="AC36" s="17">
-        <v>313997</v>
+        <v>399556</v>
       </c>
       <c r="AD36" s="17">
-        <v>470736</v>
+        <v>381949</v>
       </c>
       <c r="AE36" s="17">
-        <v>399556</v>
+        <v>214154</v>
       </c>
       <c r="AF36" s="17">
-        <v>381949</v>
+        <v>210323</v>
       </c>
       <c r="AG36" s="17">
-        <v>214154</v>
+        <v>357432</v>
       </c>
       <c r="AH36" s="17">
-        <v>210323</v>
+        <v>409081</v>
       </c>
       <c r="AI36" s="17">
-        <v>357432</v>
+        <v>415598</v>
       </c>
       <c r="AJ36" s="17">
-        <v>409081</v>
+        <v>334888</v>
       </c>
       <c r="AK36" s="17">
-        <v>415598</v>
+        <v>333246</v>
       </c>
       <c r="AL36" s="17">
-        <v>334888</v>
+        <v>414702</v>
       </c>
       <c r="AM36" s="17">
-        <v>333246</v>
+        <v>252235</v>
       </c>
       <c r="AN36" s="17">
-        <v>414702</v>
+        <v>290695</v>
       </c>
       <c r="AO36" s="17">
-        <v>252235</v>
+        <v>142369</v>
       </c>
       <c r="AP36" s="17">
-        <v>290695</v>
+        <v>201169</v>
       </c>
       <c r="AQ36" s="17">
-        <v>142369</v>
+        <v>122002</v>
       </c>
       <c r="AR36" s="17">
-        <v>201169</v>
+        <v>161506</v>
       </c>
       <c r="AS36" s="17">
-        <v>122002</v>
+        <v>360340</v>
       </c>
       <c r="AT36" s="17">
-        <v>161983</v>
+        <v>293741</v>
       </c>
       <c r="AU36" s="17">
-        <v>360340</v>
+        <v>346683</v>
       </c>
       <c r="AV36" s="17">
-        <v>293741</v>
+        <v>450192</v>
       </c>
       <c r="AW36" s="17">
-        <v>346683</v>
+        <v>400540</v>
       </c>
       <c r="AX36" s="17">
-        <v>450192</v>
+        <v>234418</v>
       </c>
       <c r="AY36" s="17">
-        <v>400540</v>
+        <v>353557</v>
       </c>
       <c r="AZ36" s="17">
-        <v>238106</v>
+        <v>269018</v>
       </c>
       <c r="BA36" s="17">
-        <v>353557</v>
+        <v>262251</v>
       </c>
       <c r="BB36" s="17">
-        <v>269018</v>
+        <v>225559</v>
       </c>
     </row>
     <row r="37" spans="2:54" x14ac:dyDescent="0.3">
@@ -5012,95 +5012,95 @@
       <c r="X43" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y43" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z43" s="11" t="s">
-        <v>58</v>
+      <c r="Y43" s="11">
+        <v>62471</v>
+      </c>
+      <c r="Z43" s="11">
+        <v>79387</v>
       </c>
       <c r="AA43" s="11">
-        <v>62471</v>
+        <v>76015</v>
       </c>
       <c r="AB43" s="11">
-        <v>79387</v>
+        <v>80688</v>
       </c>
       <c r="AC43" s="11">
-        <v>76015</v>
+        <v>75387</v>
       </c>
       <c r="AD43" s="11">
-        <v>80688</v>
+        <v>62961</v>
       </c>
       <c r="AE43" s="11">
-        <v>75387</v>
+        <v>37295</v>
       </c>
       <c r="AF43" s="11">
-        <v>62961</v>
+        <v>49995</v>
       </c>
       <c r="AG43" s="11">
-        <v>37295</v>
+        <v>64762</v>
       </c>
       <c r="AH43" s="11">
-        <v>49995</v>
+        <v>91826</v>
       </c>
       <c r="AI43" s="11">
-        <v>64762</v>
+        <v>88580</v>
       </c>
       <c r="AJ43" s="11">
-        <v>91826</v>
+        <v>86243</v>
       </c>
       <c r="AK43" s="11">
-        <v>88580</v>
+        <v>81715</v>
       </c>
       <c r="AL43" s="11">
-        <v>86243</v>
+        <v>97103</v>
       </c>
       <c r="AM43" s="11">
-        <v>81715</v>
+        <v>51091</v>
       </c>
       <c r="AN43" s="11">
-        <v>97103</v>
+        <v>57592</v>
       </c>
       <c r="AO43" s="11">
-        <v>51091</v>
+        <v>31433</v>
       </c>
       <c r="AP43" s="11">
-        <v>57592</v>
+        <v>37646</v>
       </c>
       <c r="AQ43" s="11">
-        <v>31433</v>
+        <v>39732</v>
       </c>
       <c r="AR43" s="11">
-        <v>37646</v>
+        <v>52526</v>
       </c>
       <c r="AS43" s="11">
-        <v>39732</v>
+        <v>78260</v>
       </c>
       <c r="AT43" s="11">
-        <v>52912</v>
+        <v>145457</v>
       </c>
       <c r="AU43" s="11">
-        <v>78260</v>
+        <v>164877</v>
       </c>
       <c r="AV43" s="11">
-        <v>66116</v>
+        <v>243020</v>
       </c>
       <c r="AW43" s="11">
-        <v>157981</v>
+        <v>168371</v>
       </c>
       <c r="AX43" s="11">
-        <v>243020</v>
+        <v>158990</v>
       </c>
       <c r="AY43" s="11">
-        <v>168371</v>
+        <v>116490</v>
       </c>
       <c r="AZ43" s="11">
-        <v>158990</v>
+        <v>124853</v>
       </c>
       <c r="BA43" s="11">
-        <v>116490</v>
+        <v>129107</v>
       </c>
       <c r="BB43" s="11">
-        <v>124853</v>
+        <v>129627</v>
       </c>
     </row>
     <row r="44" spans="2:54" x14ac:dyDescent="0.3">
@@ -5171,95 +5171,95 @@
       <c r="X44" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y44" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z44" s="13" t="s">
-        <v>58</v>
+      <c r="Y44" s="13">
+        <v>179605</v>
+      </c>
+      <c r="Z44" s="13">
+        <v>233842</v>
       </c>
       <c r="AA44" s="13">
-        <v>179605</v>
+        <v>303463</v>
       </c>
       <c r="AB44" s="13">
-        <v>233842</v>
+        <v>452623</v>
       </c>
       <c r="AC44" s="13">
-        <v>303463</v>
+        <v>556025</v>
       </c>
       <c r="AD44" s="13">
-        <v>452623</v>
+        <v>806040</v>
       </c>
       <c r="AE44" s="13">
-        <v>556025</v>
+        <v>1035387</v>
       </c>
       <c r="AF44" s="13">
-        <v>806040</v>
+        <v>904527</v>
       </c>
       <c r="AG44" s="13">
-        <v>1035387</v>
+        <v>1172681</v>
       </c>
       <c r="AH44" s="13">
-        <v>904527</v>
+        <v>939959</v>
       </c>
       <c r="AI44" s="13">
-        <v>1172681</v>
+        <v>1179671</v>
       </c>
       <c r="AJ44" s="13">
-        <v>939959</v>
+        <v>834877</v>
       </c>
       <c r="AK44" s="13">
-        <v>1179671</v>
+        <v>910732</v>
       </c>
       <c r="AL44" s="13">
-        <v>834877</v>
+        <v>759722</v>
       </c>
       <c r="AM44" s="13">
-        <v>910732</v>
+        <v>926164</v>
       </c>
       <c r="AN44" s="13">
-        <v>759722</v>
+        <v>1126439</v>
       </c>
       <c r="AO44" s="13">
-        <v>926164</v>
+        <v>1440917</v>
       </c>
       <c r="AP44" s="13">
-        <v>1126439</v>
+        <v>1827042</v>
       </c>
       <c r="AQ44" s="13">
-        <v>1440917</v>
+        <v>1481686</v>
       </c>
       <c r="AR44" s="13">
-        <v>1827042</v>
+        <v>1174513</v>
       </c>
       <c r="AS44" s="13">
-        <v>1481686</v>
+        <v>1086502</v>
       </c>
       <c r="AT44" s="13">
-        <v>1178175</v>
+        <v>654754</v>
       </c>
       <c r="AU44" s="13">
-        <v>1086502</v>
+        <v>1197202</v>
       </c>
       <c r="AV44" s="13">
-        <v>654128</v>
+        <v>1166169</v>
       </c>
       <c r="AW44" s="13">
-        <v>1200800</v>
+        <v>1091360</v>
       </c>
       <c r="AX44" s="13">
-        <v>1166169</v>
+        <v>968331</v>
       </c>
       <c r="AY44" s="13">
-        <v>1091360</v>
+        <v>913537</v>
       </c>
       <c r="AZ44" s="13">
-        <v>969030</v>
+        <v>743377</v>
       </c>
       <c r="BA44" s="13">
-        <v>913537</v>
+        <v>963568</v>
       </c>
       <c r="BB44" s="13">
-        <v>743377</v>
+        <v>1132754</v>
       </c>
     </row>
     <row r="45" spans="2:54" x14ac:dyDescent="0.3">
@@ -5329,94 +5329,94 @@
         <v>0</v>
       </c>
       <c r="Y45" s="15">
-        <v>0</v>
+        <v>242076</v>
       </c>
       <c r="Z45" s="15">
-        <v>0</v>
+        <v>313229</v>
       </c>
       <c r="AA45" s="15">
-        <v>242076</v>
+        <v>379478</v>
       </c>
       <c r="AB45" s="15">
-        <v>313229</v>
+        <v>533311</v>
       </c>
       <c r="AC45" s="15">
-        <v>379478</v>
+        <v>631412</v>
       </c>
       <c r="AD45" s="15">
-        <v>533311</v>
+        <v>869001</v>
       </c>
       <c r="AE45" s="15">
-        <v>631412</v>
+        <v>1072682</v>
       </c>
       <c r="AF45" s="15">
-        <v>869001</v>
+        <v>954522</v>
       </c>
       <c r="AG45" s="15">
-        <v>1072682</v>
+        <v>1237443</v>
       </c>
       <c r="AH45" s="15">
-        <v>954522</v>
+        <v>1031785</v>
       </c>
       <c r="AI45" s="15">
-        <v>1237443</v>
+        <v>1268251</v>
       </c>
       <c r="AJ45" s="15">
-        <v>1031785</v>
+        <v>921120</v>
       </c>
       <c r="AK45" s="15">
-        <v>1268251</v>
+        <v>992447</v>
       </c>
       <c r="AL45" s="15">
-        <v>921120</v>
+        <v>856825</v>
       </c>
       <c r="AM45" s="15">
-        <v>992447</v>
+        <v>977255</v>
       </c>
       <c r="AN45" s="15">
-        <v>856825</v>
+        <v>1184031</v>
       </c>
       <c r="AO45" s="15">
-        <v>977255</v>
+        <v>1472350</v>
       </c>
       <c r="AP45" s="15">
-        <v>1184031</v>
+        <v>1864688</v>
       </c>
       <c r="AQ45" s="15">
-        <v>1472350</v>
+        <v>1521418</v>
       </c>
       <c r="AR45" s="15">
-        <v>1864688</v>
+        <v>1227039</v>
       </c>
       <c r="AS45" s="15">
-        <v>1521418</v>
+        <v>1164762</v>
       </c>
       <c r="AT45" s="15">
-        <v>1231087</v>
+        <v>800211</v>
       </c>
       <c r="AU45" s="15">
-        <v>1164762</v>
+        <v>1362079</v>
       </c>
       <c r="AV45" s="15">
-        <v>720244</v>
+        <v>1409189</v>
       </c>
       <c r="AW45" s="15">
-        <v>1358781</v>
+        <v>1259731</v>
       </c>
       <c r="AX45" s="15">
-        <v>1409189</v>
+        <v>1127321</v>
       </c>
       <c r="AY45" s="15">
-        <v>1259731</v>
+        <v>1030027</v>
       </c>
       <c r="AZ45" s="15">
-        <v>1128020</v>
+        <v>868230</v>
       </c>
       <c r="BA45" s="15">
-        <v>1030027</v>
+        <v>1092675</v>
       </c>
       <c r="BB45" s="15">
-        <v>868230</v>
+        <v>1262381</v>
       </c>
     </row>
     <row r="46" spans="2:54" x14ac:dyDescent="0.3">
@@ -5544,95 +5544,95 @@
       <c r="X47" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y47" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z47" s="11" t="s">
-        <v>58</v>
+      <c r="Y47" s="11">
+        <v>7544580</v>
+      </c>
+      <c r="Z47" s="11">
+        <v>7296095</v>
       </c>
       <c r="AA47" s="11">
-        <v>7544580</v>
+        <v>6958239</v>
       </c>
       <c r="AB47" s="11">
-        <v>7296095</v>
+        <v>16118070</v>
       </c>
       <c r="AC47" s="11">
-        <v>6958239</v>
+        <v>15727367</v>
       </c>
       <c r="AD47" s="11">
-        <v>16118070</v>
+        <v>17251203</v>
       </c>
       <c r="AE47" s="11">
-        <v>15727367</v>
+        <v>10355667</v>
       </c>
       <c r="AF47" s="11">
-        <v>17251203</v>
+        <v>8745341</v>
       </c>
       <c r="AG47" s="11">
-        <v>10355667</v>
+        <v>16964784</v>
       </c>
       <c r="AH47" s="11">
-        <v>8745341</v>
+        <v>20031872</v>
       </c>
       <c r="AI47" s="11">
-        <v>16964784</v>
+        <v>18967445</v>
       </c>
       <c r="AJ47" s="11">
-        <v>20031872</v>
+        <v>13885885</v>
       </c>
       <c r="AK47" s="11">
-        <v>18967445</v>
+        <v>15431535</v>
       </c>
       <c r="AL47" s="11">
-        <v>13885885</v>
+        <v>21294537</v>
       </c>
       <c r="AM47" s="11">
-        <v>15431535</v>
+        <v>13458112</v>
       </c>
       <c r="AN47" s="11">
-        <v>21294537</v>
+        <v>19187801</v>
       </c>
       <c r="AO47" s="11">
-        <v>13458112</v>
+        <v>8434512</v>
       </c>
       <c r="AP47" s="11">
-        <v>19187801</v>
+        <v>11779879</v>
       </c>
       <c r="AQ47" s="11">
-        <v>8434512</v>
+        <v>4397253</v>
       </c>
       <c r="AR47" s="11">
-        <v>11779879</v>
+        <v>6762053</v>
       </c>
       <c r="AS47" s="11">
-        <v>4397253</v>
+        <v>23560882</v>
       </c>
       <c r="AT47" s="11">
-        <v>6744076</v>
+        <v>19144981</v>
       </c>
       <c r="AU47" s="11">
-        <v>23560882</v>
+        <v>21040264</v>
       </c>
       <c r="AV47" s="11">
-        <v>19248509</v>
+        <v>25359589</v>
       </c>
       <c r="AW47" s="11">
-        <v>22551976</v>
+        <v>22665320</v>
       </c>
       <c r="AX47" s="11">
-        <v>25750490</v>
+        <v>10482184</v>
       </c>
       <c r="AY47" s="11">
-        <v>24280487</v>
+        <v>21978555</v>
       </c>
       <c r="AZ47" s="11">
-        <v>10700191</v>
+        <v>16136968</v>
       </c>
       <c r="BA47" s="11">
-        <v>21897107</v>
+        <v>15208895</v>
       </c>
       <c r="BB47" s="11">
-        <v>15497845</v>
+        <v>11706778</v>
       </c>
     </row>
     <row r="48" spans="2:54" x14ac:dyDescent="0.3">
@@ -5702,94 +5702,94 @@
         <v>0</v>
       </c>
       <c r="Y48" s="17">
-        <v>0</v>
+        <v>7544580</v>
       </c>
       <c r="Z48" s="17">
-        <v>0</v>
+        <v>7296095</v>
       </c>
       <c r="AA48" s="17">
-        <v>7544580</v>
+        <v>6958239</v>
       </c>
       <c r="AB48" s="17">
-        <v>7296095</v>
+        <v>16118070</v>
       </c>
       <c r="AC48" s="17">
-        <v>6958239</v>
+        <v>15727367</v>
       </c>
       <c r="AD48" s="17">
-        <v>16118070</v>
+        <v>17251203</v>
       </c>
       <c r="AE48" s="17">
-        <v>15727367</v>
+        <v>10355667</v>
       </c>
       <c r="AF48" s="17">
-        <v>17251203</v>
+        <v>8745341</v>
       </c>
       <c r="AG48" s="17">
-        <v>10355667</v>
+        <v>16964784</v>
       </c>
       <c r="AH48" s="17">
-        <v>8745341</v>
+        <v>20031872</v>
       </c>
       <c r="AI48" s="17">
-        <v>16964784</v>
+        <v>18967445</v>
       </c>
       <c r="AJ48" s="17">
-        <v>20031872</v>
+        <v>13885885</v>
       </c>
       <c r="AK48" s="17">
-        <v>18967445</v>
+        <v>15431535</v>
       </c>
       <c r="AL48" s="17">
-        <v>13885885</v>
+        <v>21294537</v>
       </c>
       <c r="AM48" s="17">
-        <v>15431535</v>
+        <v>13458112</v>
       </c>
       <c r="AN48" s="17">
-        <v>21294537</v>
+        <v>19187801</v>
       </c>
       <c r="AO48" s="17">
-        <v>13458112</v>
+        <v>8434512</v>
       </c>
       <c r="AP48" s="17">
-        <v>19187801</v>
+        <v>11779879</v>
       </c>
       <c r="AQ48" s="17">
-        <v>8434512</v>
+        <v>4397253</v>
       </c>
       <c r="AR48" s="17">
-        <v>11779879</v>
+        <v>6762053</v>
       </c>
       <c r="AS48" s="17">
-        <v>4397253</v>
+        <v>23560882</v>
       </c>
       <c r="AT48" s="17">
-        <v>6744076</v>
+        <v>19144981</v>
       </c>
       <c r="AU48" s="17">
-        <v>23560882</v>
+        <v>21040264</v>
       </c>
       <c r="AV48" s="17">
-        <v>19248509</v>
+        <v>25359589</v>
       </c>
       <c r="AW48" s="17">
-        <v>22551976</v>
+        <v>22665320</v>
       </c>
       <c r="AX48" s="17">
-        <v>25750490</v>
+        <v>10482184</v>
       </c>
       <c r="AY48" s="17">
-        <v>24280487</v>
+        <v>21978555</v>
       </c>
       <c r="AZ48" s="17">
-        <v>10700191</v>
+        <v>16136968</v>
       </c>
       <c r="BA48" s="17">
-        <v>21897107</v>
+        <v>15208895</v>
       </c>
       <c r="BB48" s="17">
-        <v>15497845</v>
+        <v>11706778</v>
       </c>
     </row>
     <row r="49" spans="2:54" x14ac:dyDescent="0.3">
@@ -5917,11 +5917,11 @@
       <c r="X50" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y50" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z50" s="15" t="s">
-        <v>58</v>
+      <c r="Y50" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="15">
+        <v>0</v>
       </c>
       <c r="AA50" s="15">
         <v>0</v>
@@ -6133,11 +6133,11 @@
       <c r="X52" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y52" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z52" s="15" t="s">
-        <v>58</v>
+      <c r="Y52" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="15">
+        <v>0</v>
       </c>
       <c r="AA52" s="15">
         <v>0</v>
@@ -6349,11 +6349,11 @@
       <c r="X54" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y54" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z54" s="11" t="s">
-        <v>58</v>
+      <c r="Y54" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="11">
+        <v>0</v>
       </c>
       <c r="AA54" s="11">
         <v>0</v>
@@ -6507,94 +6507,94 @@
         <v>0</v>
       </c>
       <c r="Y55" s="17">
-        <v>0</v>
+        <v>7786656</v>
       </c>
       <c r="Z55" s="17">
-        <v>0</v>
+        <v>7609324</v>
       </c>
       <c r="AA55" s="17">
-        <v>7786656</v>
+        <v>7337717</v>
       </c>
       <c r="AB55" s="17">
-        <v>7609324</v>
+        <v>16651381</v>
       </c>
       <c r="AC55" s="17">
-        <v>7337717</v>
+        <v>16358779</v>
       </c>
       <c r="AD55" s="17">
-        <v>16651381</v>
+        <v>18120204</v>
       </c>
       <c r="AE55" s="17">
-        <v>16358779</v>
+        <v>11428349</v>
       </c>
       <c r="AF55" s="17">
-        <v>18120204</v>
+        <v>9699863</v>
       </c>
       <c r="AG55" s="17">
-        <v>11428349</v>
+        <v>18202227</v>
       </c>
       <c r="AH55" s="17">
-        <v>9699863</v>
+        <v>21063657</v>
       </c>
       <c r="AI55" s="17">
-        <v>18202227</v>
+        <v>20235696</v>
       </c>
       <c r="AJ55" s="17">
-        <v>21063657</v>
+        <v>14807005</v>
       </c>
       <c r="AK55" s="17">
-        <v>20235696</v>
+        <v>16423982</v>
       </c>
       <c r="AL55" s="17">
-        <v>14807005</v>
+        <v>22151362</v>
       </c>
       <c r="AM55" s="17">
-        <v>16423982</v>
+        <v>14435367</v>
       </c>
       <c r="AN55" s="17">
-        <v>22151362</v>
+        <v>20371832</v>
       </c>
       <c r="AO55" s="17">
-        <v>14435367</v>
+        <v>9906862</v>
       </c>
       <c r="AP55" s="17">
-        <v>20371832</v>
+        <v>13644567</v>
       </c>
       <c r="AQ55" s="17">
-        <v>9906862</v>
+        <v>5918671</v>
       </c>
       <c r="AR55" s="17">
-        <v>13644567</v>
+        <v>7989092</v>
       </c>
       <c r="AS55" s="17">
-        <v>5918671</v>
+        <v>24725644</v>
       </c>
       <c r="AT55" s="17">
-        <v>7975163</v>
+        <v>19945192</v>
       </c>
       <c r="AU55" s="17">
-        <v>24725644</v>
+        <v>22402343</v>
       </c>
       <c r="AV55" s="17">
-        <v>19968753</v>
+        <v>26768778</v>
       </c>
       <c r="AW55" s="17">
-        <v>23910757</v>
+        <v>23925051</v>
       </c>
       <c r="AX55" s="17">
-        <v>27159679</v>
+        <v>11609505</v>
       </c>
       <c r="AY55" s="17">
-        <v>25540218</v>
+        <v>23008582</v>
       </c>
       <c r="AZ55" s="17">
-        <v>11828211</v>
+        <v>17005198</v>
       </c>
       <c r="BA55" s="17">
-        <v>22927134</v>
+        <v>16301570</v>
       </c>
       <c r="BB55" s="17">
-        <v>16366075</v>
+        <v>12969159</v>
       </c>
     </row>
     <row r="56" spans="2:54" x14ac:dyDescent="0.3">
@@ -7099,95 +7099,95 @@
       <c r="X62" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y62" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z62" s="11" t="s">
-        <v>58</v>
+      <c r="Y62" s="11">
+        <v>672129</v>
+      </c>
+      <c r="Z62" s="11">
+        <v>672133</v>
       </c>
       <c r="AA62" s="11">
+        <v>672122</v>
+      </c>
+      <c r="AB62" s="11">
+        <v>672131</v>
+      </c>
+      <c r="AC62" s="11">
+        <v>672132</v>
+      </c>
+      <c r="AD62" s="11">
         <v>672129</v>
-      </c>
-      <c r="AB62" s="11">
-        <v>672133</v>
-      </c>
-      <c r="AC62" s="11">
-        <v>672122</v>
-      </c>
-      <c r="AD62" s="11">
-        <v>672131</v>
       </c>
       <c r="AE62" s="11">
         <v>672132</v>
       </c>
       <c r="AF62" s="11">
-        <v>672129</v>
+        <v>672120</v>
       </c>
       <c r="AG62" s="11">
-        <v>672132</v>
+        <v>672140</v>
       </c>
       <c r="AH62" s="11">
-        <v>672120</v>
+        <v>801218</v>
       </c>
       <c r="AI62" s="11">
-        <v>672140</v>
+        <v>801223</v>
       </c>
       <c r="AJ62" s="11">
-        <v>801218</v>
+        <v>801224</v>
       </c>
       <c r="AK62" s="11">
-        <v>801223</v>
+        <v>801222</v>
       </c>
       <c r="AL62" s="11">
-        <v>801224</v>
+        <v>801226</v>
       </c>
       <c r="AM62" s="11">
-        <v>801222</v>
+        <v>801226</v>
       </c>
       <c r="AN62" s="11">
-        <v>801226</v>
+        <v>801213</v>
       </c>
       <c r="AO62" s="11">
-        <v>801226</v>
+        <v>801229</v>
       </c>
       <c r="AP62" s="11">
-        <v>801213</v>
+        <v>801217</v>
       </c>
       <c r="AQ62" s="11">
-        <v>801229</v>
+        <v>801291</v>
       </c>
       <c r="AR62" s="11">
-        <v>801217</v>
+        <v>801219</v>
       </c>
       <c r="AS62" s="11">
-        <v>801291</v>
+        <v>801220</v>
       </c>
       <c r="AT62" s="11">
-        <v>801224</v>
+        <v>1762688</v>
       </c>
       <c r="AU62" s="11">
-        <v>801220</v>
+        <v>1802748</v>
       </c>
       <c r="AV62" s="11">
-        <v>801212</v>
+        <v>1802752</v>
       </c>
       <c r="AW62" s="11">
-        <v>1762689</v>
+        <v>1802745</v>
       </c>
       <c r="AX62" s="11">
-        <v>1802752</v>
+        <v>1802751</v>
       </c>
       <c r="AY62" s="11">
-        <v>1802745</v>
+        <v>1802748</v>
       </c>
       <c r="AZ62" s="11">
-        <v>1802751</v>
+        <v>1802749</v>
       </c>
       <c r="BA62" s="11">
-        <v>1802748</v>
+        <v>1802742</v>
       </c>
       <c r="BB62" s="11">
-        <v>1802749</v>
+        <v>1802754</v>
       </c>
     </row>
     <row r="63" spans="2:54" x14ac:dyDescent="0.3">
@@ -7258,95 +7258,95 @@
       <c r="X63" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y63" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z63" s="13" t="s">
-        <v>58</v>
+      <c r="Y63" s="13">
+        <v>15688218</v>
+      </c>
+      <c r="Z63" s="13">
+        <v>18368296</v>
       </c>
       <c r="AA63" s="13">
-        <v>15688218</v>
+        <v>21337576</v>
       </c>
       <c r="AB63" s="13">
-        <v>18368296</v>
+        <v>29408291</v>
       </c>
       <c r="AC63" s="13">
-        <v>21337576</v>
+        <v>34705513</v>
       </c>
       <c r="AD63" s="13">
-        <v>29408291</v>
+        <v>45133950</v>
       </c>
       <c r="AE63" s="13">
-        <v>34705513</v>
+        <v>59511840</v>
       </c>
       <c r="AF63" s="13">
-        <v>45133950</v>
+        <v>58635763</v>
       </c>
       <c r="AG63" s="13">
-        <v>59511840</v>
+        <v>58008142</v>
       </c>
       <c r="AH63" s="13">
-        <v>58635763</v>
+        <v>56433048</v>
       </c>
       <c r="AI63" s="13">
-        <v>58008142</v>
+        <v>56121361</v>
       </c>
       <c r="AJ63" s="13">
-        <v>56433048</v>
+        <v>51162949</v>
       </c>
       <c r="AK63" s="13">
-        <v>56121361</v>
+        <v>51535310</v>
       </c>
       <c r="AL63" s="13">
-        <v>51162949</v>
+        <v>56649169</v>
       </c>
       <c r="AM63" s="13">
-        <v>51535310</v>
+        <v>61032224</v>
       </c>
       <c r="AN63" s="13">
-        <v>56649169</v>
+        <v>69439186</v>
       </c>
       <c r="AO63" s="13">
-        <v>61032224</v>
+        <v>85837795</v>
       </c>
       <c r="AP63" s="13">
-        <v>69439186</v>
+        <v>90586643</v>
       </c>
       <c r="AQ63" s="13">
-        <v>85837795</v>
+        <v>79002186</v>
       </c>
       <c r="AR63" s="13">
-        <v>90586643</v>
+        <v>71781201</v>
       </c>
       <c r="AS63" s="13">
-        <v>79002186</v>
+        <v>70071858</v>
       </c>
       <c r="AT63" s="13">
-        <v>71800536</v>
+        <v>71998461</v>
       </c>
       <c r="AU63" s="13">
-        <v>70071858</v>
+        <v>73757960</v>
       </c>
       <c r="AV63" s="13">
-        <v>71929624</v>
+        <v>63085266</v>
       </c>
       <c r="AW63" s="13">
-        <v>73899932</v>
+        <v>60709865</v>
       </c>
       <c r="AX63" s="13">
-        <v>63085266</v>
+        <v>63323860</v>
       </c>
       <c r="AY63" s="13">
-        <v>60709865</v>
+        <v>62515363</v>
       </c>
       <c r="AZ63" s="13">
-        <v>60096114</v>
+        <v>65605595</v>
       </c>
       <c r="BA63" s="13">
-        <v>62515363</v>
+        <v>67742407</v>
       </c>
       <c r="BB63" s="13">
-        <v>65605595</v>
+        <v>65029496</v>
       </c>
     </row>
     <row r="64" spans="2:54" x14ac:dyDescent="0.3">
@@ -7474,95 +7474,95 @@
       <c r="X65" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y65" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z65" s="11" t="s">
-        <v>58</v>
+      <c r="Y65" s="11">
+        <v>27778246</v>
+      </c>
+      <c r="Z65" s="11">
+        <v>30816483</v>
       </c>
       <c r="AA65" s="11">
-        <v>27778246</v>
+        <v>37273939</v>
       </c>
       <c r="AB65" s="11">
-        <v>30816483</v>
+        <v>48071024</v>
       </c>
       <c r="AC65" s="11">
-        <v>37273939</v>
+        <v>57954632</v>
       </c>
       <c r="AD65" s="11">
-        <v>48071024</v>
+        <v>63795112</v>
       </c>
       <c r="AE65" s="11">
-        <v>57954632</v>
+        <v>73304456</v>
       </c>
       <c r="AF65" s="11">
-        <v>63795112</v>
+        <v>72567597</v>
       </c>
       <c r="AG65" s="11">
-        <v>73304456</v>
+        <v>70432983</v>
       </c>
       <c r="AH65" s="11">
-        <v>72567597</v>
+        <v>72104633</v>
       </c>
       <c r="AI65" s="11">
-        <v>70432983</v>
+        <v>66781605</v>
       </c>
       <c r="AJ65" s="11">
-        <v>72104633</v>
+        <v>65831409</v>
       </c>
       <c r="AK65" s="11">
-        <v>66781605</v>
+        <v>72249750</v>
       </c>
       <c r="AL65" s="11">
-        <v>65831409</v>
+        <v>76025309</v>
       </c>
       <c r="AM65" s="11">
-        <v>72249750</v>
+        <v>77660787</v>
       </c>
       <c r="AN65" s="11">
-        <v>76025309</v>
+        <v>94711543</v>
       </c>
       <c r="AO65" s="11">
-        <v>77660787</v>
+        <v>97677062</v>
       </c>
       <c r="AP65" s="11">
-        <v>94711543</v>
+        <v>87900246</v>
       </c>
       <c r="AQ65" s="11">
-        <v>97677062</v>
+        <v>81943517</v>
       </c>
       <c r="AR65" s="11">
-        <v>87900246</v>
+        <v>84802821</v>
       </c>
       <c r="AS65" s="11">
-        <v>81943517</v>
+        <v>95326857</v>
       </c>
       <c r="AT65" s="11">
-        <v>84793814</v>
+        <v>94717584</v>
       </c>
       <c r="AU65" s="11">
-        <v>95326857</v>
+        <v>90238102</v>
       </c>
       <c r="AV65" s="11">
-        <v>95229776</v>
+        <v>86202536</v>
       </c>
       <c r="AW65" s="11">
-        <v>93651041</v>
+        <v>82397569</v>
       </c>
       <c r="AX65" s="11">
-        <v>86730897</v>
+        <v>79790783</v>
       </c>
       <c r="AY65" s="11">
-        <v>83967212</v>
+        <v>79878043</v>
       </c>
       <c r="AZ65" s="11">
-        <v>79978269</v>
+        <v>82640401</v>
       </c>
       <c r="BA65" s="11">
-        <v>79821368</v>
+        <v>86213338</v>
       </c>
       <c r="BB65" s="11">
-        <v>82247227</v>
+        <v>85930691</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/methanol/zagros/product/monthly_seprated.xlsx
+++ b/database/industries/methanol/zagros/product/monthly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\methanol\zagros\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\methanol\zagros\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B3D866-FF2D-47CD-B2CE-3E0207028547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3A61F7-2871-4BF9-A314-7BBA7DD2CADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="85">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>زاگرس-پتروشیمی زاگرس</t>
@@ -37,12 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
-  </si>
-  <si>
     <t>ماه 10 منتهی به 1397/10</t>
   </si>
   <si>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -757,12 +757,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -817,7 +817,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -874,7 +874,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -931,7 +931,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -986,7 +986,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1043,7 +1043,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1100,7 +1100,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1155,7 +1155,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1367,7 +1367,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1424,7 +1424,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
@@ -1486,104 +1486,104 @@
       <c r="V11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X11" s="11" t="s">
-        <v>58</v>
+      <c r="W11" s="11">
+        <v>567528</v>
+      </c>
+      <c r="X11" s="11">
+        <v>550076</v>
       </c>
       <c r="Y11" s="11">
-        <v>567528</v>
+        <v>514391</v>
       </c>
       <c r="Z11" s="11">
-        <v>550076</v>
+        <v>545342</v>
       </c>
       <c r="AA11" s="11">
-        <v>514391</v>
+        <v>546755</v>
       </c>
       <c r="AB11" s="11">
-        <v>545342</v>
+        <v>550227</v>
       </c>
       <c r="AC11" s="11">
-        <v>546755</v>
+        <v>350481</v>
       </c>
       <c r="AD11" s="11">
-        <v>550227</v>
+        <v>486620</v>
       </c>
       <c r="AE11" s="11">
-        <v>350481</v>
+        <v>550730</v>
       </c>
       <c r="AF11" s="11">
-        <v>486620</v>
+        <v>578202</v>
       </c>
       <c r="AG11" s="11">
-        <v>550730</v>
+        <v>563356</v>
       </c>
       <c r="AH11" s="11">
-        <v>578202</v>
+        <v>570158</v>
       </c>
       <c r="AI11" s="11">
-        <v>563356</v>
+        <v>545105</v>
       </c>
       <c r="AJ11" s="11">
-        <v>570158</v>
+        <v>568657</v>
       </c>
       <c r="AK11" s="11">
-        <v>545105</v>
+        <v>366499</v>
       </c>
       <c r="AL11" s="11">
-        <v>568657</v>
+        <v>437716</v>
       </c>
       <c r="AM11" s="11">
-        <v>366499</v>
+        <v>271712</v>
       </c>
       <c r="AN11" s="11">
-        <v>437716</v>
+        <v>332706</v>
       </c>
       <c r="AO11" s="11">
-        <v>271712</v>
+        <v>294402</v>
       </c>
       <c r="AP11" s="11">
-        <v>332706</v>
+        <v>372733</v>
       </c>
       <c r="AQ11" s="11">
-        <v>294402</v>
+        <v>573014</v>
       </c>
       <c r="AR11" s="11">
-        <v>372733</v>
+        <v>482842</v>
       </c>
       <c r="AS11" s="11">
-        <v>573014</v>
+        <v>490496</v>
       </c>
       <c r="AT11" s="11">
-        <v>482842</v>
+        <v>665450</v>
       </c>
       <c r="AU11" s="11">
-        <v>490496</v>
+        <v>532153</v>
       </c>
       <c r="AV11" s="11">
-        <v>665450</v>
+        <v>490972</v>
       </c>
       <c r="AW11" s="11">
-        <v>532153</v>
+        <v>451689</v>
       </c>
       <c r="AX11" s="11">
-        <v>490972</v>
+        <v>510445</v>
       </c>
       <c r="AY11" s="11">
-        <v>451689</v>
+        <v>508885</v>
       </c>
       <c r="AZ11" s="11">
-        <v>510445</v>
+        <v>406829</v>
       </c>
       <c r="BA11" s="11">
-        <v>508885</v>
+        <v>272307</v>
       </c>
       <c r="BB11" s="11">
-        <v>406829</v>
+        <v>254156</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>59</v>
       </c>
@@ -1645,104 +1645,104 @@
       <c r="V12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X12" s="13" t="s">
-        <v>58</v>
+      <c r="W12" s="13">
+        <v>11448</v>
+      </c>
+      <c r="X12" s="13">
+        <v>12731</v>
       </c>
       <c r="Y12" s="13">
-        <v>11448</v>
+        <v>14222</v>
       </c>
       <c r="Z12" s="13">
-        <v>12731</v>
+        <v>15391</v>
       </c>
       <c r="AA12" s="13">
-        <v>14222</v>
+        <v>16021</v>
       </c>
       <c r="AB12" s="13">
-        <v>15391</v>
+        <v>17859</v>
       </c>
       <c r="AC12" s="13">
-        <v>16021</v>
+        <v>17398</v>
       </c>
       <c r="AD12" s="13">
-        <v>17859</v>
+        <v>15426</v>
       </c>
       <c r="AE12" s="13">
-        <v>17398</v>
+        <v>20216</v>
       </c>
       <c r="AF12" s="13">
-        <v>15426</v>
+        <v>16656</v>
       </c>
       <c r="AG12" s="13">
-        <v>20216</v>
+        <v>21020</v>
       </c>
       <c r="AH12" s="13">
-        <v>16656</v>
+        <v>16318</v>
       </c>
       <c r="AI12" s="13">
-        <v>21020</v>
+        <v>17672</v>
       </c>
       <c r="AJ12" s="13">
-        <v>16318</v>
+        <v>13411</v>
       </c>
       <c r="AK12" s="13">
-        <v>17672</v>
+        <v>15175</v>
       </c>
       <c r="AL12" s="13">
-        <v>13411</v>
+        <v>16222</v>
       </c>
       <c r="AM12" s="13">
-        <v>15175</v>
+        <v>17586</v>
       </c>
       <c r="AN12" s="13">
-        <v>16222</v>
+        <v>20169</v>
       </c>
       <c r="AO12" s="13">
-        <v>17586</v>
+        <v>18755</v>
       </c>
       <c r="AP12" s="13">
-        <v>20169</v>
+        <v>16409</v>
       </c>
       <c r="AQ12" s="13">
-        <v>18755</v>
+        <v>15506</v>
       </c>
       <c r="AR12" s="13">
-        <v>16409</v>
+        <v>9094</v>
       </c>
       <c r="AS12" s="13">
-        <v>15506</v>
+        <v>16249</v>
       </c>
       <c r="AT12" s="13">
-        <v>9094</v>
+        <v>18486</v>
       </c>
       <c r="AU12" s="13">
-        <v>16249</v>
+        <v>17977</v>
       </c>
       <c r="AV12" s="13">
-        <v>18486</v>
+        <v>16125</v>
       </c>
       <c r="AW12" s="13">
-        <v>17977</v>
+        <v>14613</v>
       </c>
       <c r="AX12" s="13">
-        <v>12437</v>
+        <v>11331</v>
       </c>
       <c r="AY12" s="13">
-        <v>14613</v>
+        <v>14224</v>
       </c>
       <c r="AZ12" s="13">
-        <v>11331</v>
+        <v>17419</v>
       </c>
       <c r="BA12" s="13">
-        <v>14224</v>
+        <v>20571</v>
       </c>
       <c r="BB12" s="13">
-        <v>17419</v>
+        <v>16958</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
         <v>60</v>
       </c>
@@ -1803,103 +1803,103 @@
         <v>0</v>
       </c>
       <c r="W13" s="15">
-        <v>0</v>
+        <v>578976</v>
       </c>
       <c r="X13" s="15">
-        <v>0</v>
+        <v>562807</v>
       </c>
       <c r="Y13" s="15">
-        <v>578976</v>
+        <v>528613</v>
       </c>
       <c r="Z13" s="15">
-        <v>562807</v>
+        <v>560733</v>
       </c>
       <c r="AA13" s="15">
-        <v>528613</v>
+        <v>562776</v>
       </c>
       <c r="AB13" s="15">
-        <v>560733</v>
+        <v>568086</v>
       </c>
       <c r="AC13" s="15">
-        <v>562776</v>
+        <v>367879</v>
       </c>
       <c r="AD13" s="15">
-        <v>568086</v>
+        <v>502046</v>
       </c>
       <c r="AE13" s="15">
-        <v>367879</v>
+        <v>570946</v>
       </c>
       <c r="AF13" s="15">
-        <v>502046</v>
+        <v>594858</v>
       </c>
       <c r="AG13" s="15">
-        <v>570946</v>
+        <v>584376</v>
       </c>
       <c r="AH13" s="15">
-        <v>594858</v>
+        <v>586476</v>
       </c>
       <c r="AI13" s="15">
-        <v>584376</v>
+        <v>562777</v>
       </c>
       <c r="AJ13" s="15">
-        <v>586476</v>
+        <v>582068</v>
       </c>
       <c r="AK13" s="15">
-        <v>562777</v>
+        <v>381674</v>
       </c>
       <c r="AL13" s="15">
-        <v>582068</v>
+        <v>453938</v>
       </c>
       <c r="AM13" s="15">
-        <v>381674</v>
+        <v>289298</v>
       </c>
       <c r="AN13" s="15">
-        <v>453938</v>
+        <v>352875</v>
       </c>
       <c r="AO13" s="15">
-        <v>289298</v>
+        <v>313157</v>
       </c>
       <c r="AP13" s="15">
-        <v>352875</v>
+        <v>389142</v>
       </c>
       <c r="AQ13" s="15">
-        <v>313157</v>
+        <v>588520</v>
       </c>
       <c r="AR13" s="15">
-        <v>389142</v>
+        <v>491936</v>
       </c>
       <c r="AS13" s="15">
-        <v>588520</v>
+        <v>506745</v>
       </c>
       <c r="AT13" s="15">
-        <v>491936</v>
+        <v>683936</v>
       </c>
       <c r="AU13" s="15">
-        <v>506745</v>
+        <v>550130</v>
       </c>
       <c r="AV13" s="15">
-        <v>683936</v>
+        <v>507097</v>
       </c>
       <c r="AW13" s="15">
-        <v>550130</v>
+        <v>466302</v>
       </c>
       <c r="AX13" s="15">
-        <v>503409</v>
+        <v>521776</v>
       </c>
       <c r="AY13" s="15">
-        <v>466302</v>
+        <v>523109</v>
       </c>
       <c r="AZ13" s="15">
-        <v>521776</v>
+        <v>424248</v>
       </c>
       <c r="BA13" s="15">
-        <v>523109</v>
+        <v>292878</v>
       </c>
       <c r="BB13" s="15">
-        <v>424248</v>
+        <v>271114</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
         <v>61</v>
       </c>
@@ -1956,7 +1956,7 @@
       <c r="BA14" s="9"/>
       <c r="BB14" s="9"/>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>59</v>
       </c>
@@ -2018,104 +2018,104 @@
       <c r="V15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X15" s="11" t="s">
-        <v>58</v>
+      <c r="W15" s="11">
+        <v>219479</v>
+      </c>
+      <c r="X15" s="11">
+        <v>253831</v>
       </c>
       <c r="Y15" s="11">
-        <v>219479</v>
+        <v>234396</v>
       </c>
       <c r="Z15" s="11">
-        <v>253831</v>
+        <v>241552</v>
       </c>
       <c r="AA15" s="11">
-        <v>234396</v>
+        <v>234747</v>
       </c>
       <c r="AB15" s="11">
-        <v>241552</v>
+        <v>239436</v>
       </c>
       <c r="AC15" s="11">
-        <v>234747</v>
+        <v>146875</v>
       </c>
       <c r="AD15" s="11">
-        <v>239436</v>
+        <v>208438</v>
       </c>
       <c r="AE15" s="11">
-        <v>146875</v>
+        <v>239067</v>
       </c>
       <c r="AF15" s="11">
-        <v>208438</v>
+        <v>253409</v>
       </c>
       <c r="AG15" s="11">
-        <v>239067</v>
+        <v>239457</v>
       </c>
       <c r="AH15" s="11">
-        <v>253409</v>
+        <v>240628</v>
       </c>
       <c r="AI15" s="11">
-        <v>239457</v>
+        <v>227517</v>
       </c>
       <c r="AJ15" s="11">
-        <v>240628</v>
+        <v>244909</v>
       </c>
       <c r="AK15" s="11">
-        <v>227517</v>
+        <v>159548</v>
       </c>
       <c r="AL15" s="11">
-        <v>244909</v>
+        <v>188312</v>
       </c>
       <c r="AM15" s="11">
-        <v>159548</v>
+        <v>112181</v>
       </c>
       <c r="AN15" s="11">
-        <v>188312</v>
+        <v>129517</v>
       </c>
       <c r="AO15" s="11">
-        <v>112181</v>
+        <v>108879</v>
       </c>
       <c r="AP15" s="11">
-        <v>129517</v>
+        <v>158038</v>
       </c>
       <c r="AQ15" s="11">
-        <v>108879</v>
+        <v>246795</v>
       </c>
       <c r="AR15" s="11">
-        <v>158038</v>
+        <v>212602</v>
       </c>
       <c r="AS15" s="11">
-        <v>246795</v>
+        <v>209784</v>
       </c>
       <c r="AT15" s="11">
-        <v>212602</v>
+        <v>287922</v>
       </c>
       <c r="AU15" s="11">
-        <v>209784</v>
+        <v>223509</v>
       </c>
       <c r="AV15" s="11">
-        <v>287922</v>
+        <v>210921</v>
       </c>
       <c r="AW15" s="11">
-        <v>223509</v>
+        <v>196897</v>
       </c>
       <c r="AX15" s="11">
-        <v>214609</v>
+        <v>229177</v>
       </c>
       <c r="AY15" s="11">
-        <v>196897</v>
+        <v>226208</v>
       </c>
       <c r="AZ15" s="11">
-        <v>229177</v>
+        <v>174284</v>
       </c>
       <c r="BA15" s="11">
-        <v>226208</v>
+        <v>112465</v>
       </c>
       <c r="BB15" s="11">
-        <v>174284</v>
+        <v>99619</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="16" t="s">
         <v>62</v>
       </c>
@@ -2176,103 +2176,103 @@
         <v>0</v>
       </c>
       <c r="W16" s="17">
-        <v>0</v>
+        <v>219479</v>
       </c>
       <c r="X16" s="17">
-        <v>0</v>
+        <v>253831</v>
       </c>
       <c r="Y16" s="17">
-        <v>219479</v>
+        <v>234396</v>
       </c>
       <c r="Z16" s="17">
-        <v>253831</v>
+        <v>241552</v>
       </c>
       <c r="AA16" s="17">
-        <v>234396</v>
+        <v>234747</v>
       </c>
       <c r="AB16" s="17">
-        <v>241552</v>
+        <v>239436</v>
       </c>
       <c r="AC16" s="17">
-        <v>234747</v>
+        <v>146875</v>
       </c>
       <c r="AD16" s="17">
-        <v>239436</v>
+        <v>208438</v>
       </c>
       <c r="AE16" s="17">
-        <v>146875</v>
+        <v>239067</v>
       </c>
       <c r="AF16" s="17">
-        <v>208438</v>
+        <v>253409</v>
       </c>
       <c r="AG16" s="17">
-        <v>239067</v>
+        <v>239457</v>
       </c>
       <c r="AH16" s="17">
-        <v>253409</v>
+        <v>240628</v>
       </c>
       <c r="AI16" s="17">
-        <v>239457</v>
+        <v>227517</v>
       </c>
       <c r="AJ16" s="17">
-        <v>240628</v>
+        <v>244909</v>
       </c>
       <c r="AK16" s="17">
-        <v>227517</v>
+        <v>159548</v>
       </c>
       <c r="AL16" s="17">
-        <v>244909</v>
+        <v>188312</v>
       </c>
       <c r="AM16" s="17">
-        <v>159548</v>
+        <v>112181</v>
       </c>
       <c r="AN16" s="17">
-        <v>188312</v>
+        <v>129517</v>
       </c>
       <c r="AO16" s="17">
-        <v>112181</v>
+        <v>108879</v>
       </c>
       <c r="AP16" s="17">
-        <v>129517</v>
+        <v>158038</v>
       </c>
       <c r="AQ16" s="17">
-        <v>108879</v>
+        <v>246795</v>
       </c>
       <c r="AR16" s="17">
-        <v>158038</v>
+        <v>212602</v>
       </c>
       <c r="AS16" s="17">
-        <v>246795</v>
+        <v>209784</v>
       </c>
       <c r="AT16" s="17">
-        <v>212602</v>
+        <v>287922</v>
       </c>
       <c r="AU16" s="17">
-        <v>209784</v>
+        <v>223509</v>
       </c>
       <c r="AV16" s="17">
-        <v>287922</v>
+        <v>210921</v>
       </c>
       <c r="AW16" s="17">
-        <v>223509</v>
+        <v>196897</v>
       </c>
       <c r="AX16" s="17">
-        <v>214609</v>
+        <v>229177</v>
       </c>
       <c r="AY16" s="17">
-        <v>196897</v>
+        <v>226208</v>
       </c>
       <c r="AZ16" s="17">
-        <v>229177</v>
+        <v>174284</v>
       </c>
       <c r="BA16" s="17">
-        <v>226208</v>
+        <v>112465</v>
       </c>
       <c r="BB16" s="17">
-        <v>174284</v>
+        <v>99619</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="18" t="s">
         <v>63</v>
       </c>
@@ -2329,7 +2329,7 @@
       <c r="BA17" s="19"/>
       <c r="BB17" s="19"/>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
         <v>64</v>
       </c>
@@ -2389,11 +2389,11 @@
       <c r="V18" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W18" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X18" s="15" t="s">
-        <v>58</v>
+      <c r="W18" s="15">
+        <v>0</v>
+      </c>
+      <c r="X18" s="15">
+        <v>0</v>
       </c>
       <c r="Y18" s="15">
         <v>0</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="16" t="s">
         <v>65</v>
       </c>
@@ -2547,103 +2547,103 @@
         <v>0</v>
       </c>
       <c r="W19" s="17">
-        <v>0</v>
+        <v>798455</v>
       </c>
       <c r="X19" s="17">
-        <v>0</v>
+        <v>816638</v>
       </c>
       <c r="Y19" s="17">
-        <v>798455</v>
+        <v>763009</v>
       </c>
       <c r="Z19" s="17">
-        <v>816638</v>
+        <v>802285</v>
       </c>
       <c r="AA19" s="17">
-        <v>763009</v>
+        <v>797523</v>
       </c>
       <c r="AB19" s="17">
-        <v>802285</v>
+        <v>807522</v>
       </c>
       <c r="AC19" s="17">
-        <v>797523</v>
+        <v>514754</v>
       </c>
       <c r="AD19" s="17">
-        <v>807522</v>
+        <v>710484</v>
       </c>
       <c r="AE19" s="17">
-        <v>514754</v>
+        <v>810013</v>
       </c>
       <c r="AF19" s="17">
-        <v>710484</v>
+        <v>848267</v>
       </c>
       <c r="AG19" s="17">
-        <v>810013</v>
+        <v>823833</v>
       </c>
       <c r="AH19" s="17">
-        <v>848267</v>
+        <v>827104</v>
       </c>
       <c r="AI19" s="17">
-        <v>823833</v>
+        <v>790294</v>
       </c>
       <c r="AJ19" s="17">
-        <v>827104</v>
+        <v>826977</v>
       </c>
       <c r="AK19" s="17">
-        <v>790294</v>
+        <v>541222</v>
       </c>
       <c r="AL19" s="17">
-        <v>826977</v>
+        <v>642250</v>
       </c>
       <c r="AM19" s="17">
-        <v>541222</v>
+        <v>401479</v>
       </c>
       <c r="AN19" s="17">
-        <v>642250</v>
+        <v>482392</v>
       </c>
       <c r="AO19" s="17">
-        <v>401479</v>
+        <v>422036</v>
       </c>
       <c r="AP19" s="17">
-        <v>482392</v>
+        <v>547180</v>
       </c>
       <c r="AQ19" s="17">
-        <v>422036</v>
+        <v>835315</v>
       </c>
       <c r="AR19" s="17">
-        <v>547180</v>
+        <v>704538</v>
       </c>
       <c r="AS19" s="17">
-        <v>835315</v>
+        <v>716529</v>
       </c>
       <c r="AT19" s="17">
-        <v>704538</v>
+        <v>971858</v>
       </c>
       <c r="AU19" s="17">
-        <v>716529</v>
+        <v>773639</v>
       </c>
       <c r="AV19" s="17">
-        <v>971858</v>
+        <v>718018</v>
       </c>
       <c r="AW19" s="17">
-        <v>773639</v>
+        <v>663199</v>
       </c>
       <c r="AX19" s="17">
-        <v>718017</v>
+        <v>750953</v>
       </c>
       <c r="AY19" s="17">
-        <v>663199</v>
+        <v>749317</v>
       </c>
       <c r="AZ19" s="17">
-        <v>750953</v>
+        <v>598532</v>
       </c>
       <c r="BA19" s="17">
-        <v>749317</v>
+        <v>405343</v>
       </c>
       <c r="BB19" s="17">
-        <v>598532</v>
+        <v>370733</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -2698,7 +2698,7 @@
       <c r="BA20" s="1"/>
       <c r="BB20" s="1"/>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -2753,7 +2753,7 @@
       <c r="BA21" s="1"/>
       <c r="BB21" s="1"/>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -2808,7 +2808,7 @@
       <c r="BA22" s="1"/>
       <c r="BB22" s="1"/>
     </row>
-    <row r="23" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
         <v>66</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -3020,7 +3020,7 @@
       <c r="BA24" s="1"/>
       <c r="BB24" s="1"/>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
         <v>67</v>
       </c>
@@ -3077,7 +3077,7 @@
       <c r="BA25" s="9"/>
       <c r="BB25" s="9"/>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
         <v>56</v>
       </c>
@@ -3139,104 +3139,104 @@
       <c r="V26" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W26" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X26" s="11" t="s">
-        <v>58</v>
+      <c r="W26" s="11">
+        <v>92945</v>
+      </c>
+      <c r="X26" s="11">
+        <v>118112</v>
       </c>
       <c r="Y26" s="11">
-        <v>92945</v>
+        <v>113097</v>
       </c>
       <c r="Z26" s="11">
-        <v>118112</v>
+        <v>120048</v>
       </c>
       <c r="AA26" s="11">
-        <v>113097</v>
+        <v>112161</v>
       </c>
       <c r="AB26" s="11">
-        <v>120048</v>
+        <v>93674</v>
       </c>
       <c r="AC26" s="11">
-        <v>112161</v>
+        <v>55487</v>
       </c>
       <c r="AD26" s="11">
-        <v>93674</v>
+        <v>74384</v>
       </c>
       <c r="AE26" s="11">
-        <v>55487</v>
+        <v>96352</v>
       </c>
       <c r="AF26" s="11">
-        <v>74384</v>
+        <v>114608</v>
       </c>
       <c r="AG26" s="11">
-        <v>96352</v>
+        <v>110556</v>
       </c>
       <c r="AH26" s="11">
-        <v>114608</v>
+        <v>107639</v>
       </c>
       <c r="AI26" s="11">
-        <v>110556</v>
+        <v>101988</v>
       </c>
       <c r="AJ26" s="11">
-        <v>107639</v>
+        <v>121193</v>
       </c>
       <c r="AK26" s="11">
-        <v>101988</v>
+        <v>63766</v>
       </c>
       <c r="AL26" s="11">
-        <v>121193</v>
+        <v>71881</v>
       </c>
       <c r="AM26" s="11">
-        <v>63766</v>
+        <v>39231</v>
       </c>
       <c r="AN26" s="11">
-        <v>71881</v>
+        <v>46986</v>
       </c>
       <c r="AO26" s="11">
-        <v>39231</v>
+        <v>49585</v>
       </c>
       <c r="AP26" s="11">
-        <v>46986</v>
+        <v>66039</v>
       </c>
       <c r="AQ26" s="11">
-        <v>49585</v>
+        <v>97676</v>
       </c>
       <c r="AR26" s="11">
-        <v>65562</v>
+        <v>82520</v>
       </c>
       <c r="AS26" s="11">
-        <v>97676</v>
+        <v>89625</v>
       </c>
       <c r="AT26" s="11">
-        <v>82520</v>
+        <v>134805</v>
       </c>
       <c r="AU26" s="11">
-        <v>89625</v>
+        <v>93397</v>
       </c>
       <c r="AV26" s="11">
-        <v>134805</v>
+        <v>88193</v>
       </c>
       <c r="AW26" s="11">
-        <v>93397</v>
+        <v>64618</v>
       </c>
       <c r="AX26" s="11">
-        <v>88193</v>
+        <v>69257</v>
       </c>
       <c r="AY26" s="11">
-        <v>64618</v>
+        <v>71617</v>
       </c>
       <c r="AZ26" s="11">
-        <v>69257</v>
+        <v>71905</v>
       </c>
       <c r="BA26" s="11">
-        <v>71617</v>
+        <v>51603</v>
       </c>
       <c r="BB26" s="11">
-        <v>71905</v>
+        <v>43597</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
         <v>59</v>
       </c>
@@ -3298,104 +3298,104 @@
       <c r="V27" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W27" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X27" s="13" t="s">
-        <v>58</v>
+      <c r="W27" s="13">
+        <v>11448</v>
+      </c>
+      <c r="X27" s="13">
+        <v>12731</v>
       </c>
       <c r="Y27" s="13">
-        <v>11448</v>
+        <v>14222</v>
       </c>
       <c r="Z27" s="13">
-        <v>12731</v>
+        <v>15391</v>
       </c>
       <c r="AA27" s="13">
-        <v>14222</v>
+        <v>16021</v>
       </c>
       <c r="AB27" s="13">
-        <v>15391</v>
+        <v>17859</v>
       </c>
       <c r="AC27" s="13">
-        <v>16021</v>
+        <v>17398</v>
       </c>
       <c r="AD27" s="13">
-        <v>17859</v>
+        <v>15426</v>
       </c>
       <c r="AE27" s="13">
-        <v>17398</v>
+        <v>20216</v>
       </c>
       <c r="AF27" s="13">
-        <v>15426</v>
+        <v>16656</v>
       </c>
       <c r="AG27" s="13">
-        <v>20216</v>
+        <v>21020</v>
       </c>
       <c r="AH27" s="13">
-        <v>16656</v>
+        <v>16318</v>
       </c>
       <c r="AI27" s="13">
-        <v>21020</v>
+        <v>17672</v>
       </c>
       <c r="AJ27" s="13">
-        <v>16318</v>
+        <v>13411</v>
       </c>
       <c r="AK27" s="13">
-        <v>17672</v>
+        <v>15175</v>
       </c>
       <c r="AL27" s="13">
-        <v>13411</v>
+        <v>16222</v>
       </c>
       <c r="AM27" s="13">
-        <v>15175</v>
+        <v>16787</v>
       </c>
       <c r="AN27" s="13">
-        <v>16222</v>
+        <v>20169</v>
       </c>
       <c r="AO27" s="13">
-        <v>16787</v>
+        <v>18755</v>
       </c>
       <c r="AP27" s="13">
-        <v>20169</v>
+        <v>16409</v>
       </c>
       <c r="AQ27" s="13">
-        <v>18755</v>
+        <v>15506</v>
       </c>
       <c r="AR27" s="13">
-        <v>16409</v>
+        <v>9094</v>
       </c>
       <c r="AS27" s="13">
-        <v>15506</v>
+        <v>16249</v>
       </c>
       <c r="AT27" s="13">
-        <v>9094</v>
+        <v>18486</v>
       </c>
       <c r="AU27" s="13">
-        <v>16249</v>
+        <v>17977</v>
       </c>
       <c r="AV27" s="13">
-        <v>18486</v>
+        <v>16125</v>
       </c>
       <c r="AW27" s="13">
-        <v>17977</v>
+        <v>14613</v>
       </c>
       <c r="AX27" s="13">
-        <v>12437</v>
+        <v>11331</v>
       </c>
       <c r="AY27" s="13">
-        <v>14613</v>
+        <v>14224</v>
       </c>
       <c r="AZ27" s="13">
-        <v>11331</v>
+        <v>17419</v>
       </c>
       <c r="BA27" s="13">
-        <v>14224</v>
+        <v>20571</v>
       </c>
       <c r="BB27" s="13">
-        <v>17419</v>
+        <v>16958</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="14" t="s">
         <v>68</v>
       </c>
@@ -3456,103 +3456,103 @@
         <v>0</v>
       </c>
       <c r="W28" s="15">
-        <v>0</v>
+        <v>104393</v>
       </c>
       <c r="X28" s="15">
-        <v>0</v>
+        <v>130843</v>
       </c>
       <c r="Y28" s="15">
-        <v>104393</v>
+        <v>127319</v>
       </c>
       <c r="Z28" s="15">
-        <v>130843</v>
+        <v>135439</v>
       </c>
       <c r="AA28" s="15">
-        <v>127319</v>
+        <v>128182</v>
       </c>
       <c r="AB28" s="15">
-        <v>135439</v>
+        <v>111533</v>
       </c>
       <c r="AC28" s="15">
-        <v>128182</v>
+        <v>72885</v>
       </c>
       <c r="AD28" s="15">
-        <v>111533</v>
+        <v>89810</v>
       </c>
       <c r="AE28" s="15">
-        <v>72885</v>
+        <v>116568</v>
       </c>
       <c r="AF28" s="15">
-        <v>89810</v>
+        <v>131264</v>
       </c>
       <c r="AG28" s="15">
-        <v>116568</v>
+        <v>131576</v>
       </c>
       <c r="AH28" s="15">
-        <v>131264</v>
+        <v>123957</v>
       </c>
       <c r="AI28" s="15">
-        <v>131576</v>
+        <v>119660</v>
       </c>
       <c r="AJ28" s="15">
-        <v>123957</v>
+        <v>134604</v>
       </c>
       <c r="AK28" s="15">
-        <v>119660</v>
+        <v>78941</v>
       </c>
       <c r="AL28" s="15">
-        <v>134604</v>
+        <v>88103</v>
       </c>
       <c r="AM28" s="15">
-        <v>78941</v>
+        <v>56018</v>
       </c>
       <c r="AN28" s="15">
-        <v>88103</v>
+        <v>67155</v>
       </c>
       <c r="AO28" s="15">
-        <v>56018</v>
+        <v>68340</v>
       </c>
       <c r="AP28" s="15">
-        <v>67155</v>
+        <v>82448</v>
       </c>
       <c r="AQ28" s="15">
-        <v>68340</v>
+        <v>113182</v>
       </c>
       <c r="AR28" s="15">
-        <v>81971</v>
+        <v>91614</v>
       </c>
       <c r="AS28" s="15">
-        <v>113182</v>
+        <v>105874</v>
       </c>
       <c r="AT28" s="15">
-        <v>91614</v>
+        <v>153291</v>
       </c>
       <c r="AU28" s="15">
-        <v>105874</v>
+        <v>111374</v>
       </c>
       <c r="AV28" s="15">
-        <v>153291</v>
+        <v>104318</v>
       </c>
       <c r="AW28" s="15">
-        <v>111374</v>
+        <v>79231</v>
       </c>
       <c r="AX28" s="15">
-        <v>100630</v>
+        <v>80588</v>
       </c>
       <c r="AY28" s="15">
-        <v>79231</v>
+        <v>85841</v>
       </c>
       <c r="AZ28" s="15">
-        <v>80588</v>
+        <v>89324</v>
       </c>
       <c r="BA28" s="15">
-        <v>85841</v>
+        <v>72174</v>
       </c>
       <c r="BB28" s="15">
-        <v>89324</v>
+        <v>60555</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
         <v>69</v>
       </c>
@@ -3609,7 +3609,7 @@
       <c r="BA29" s="9"/>
       <c r="BB29" s="9"/>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
         <v>59</v>
       </c>
@@ -3671,104 +3671,104 @@
       <c r="V30" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W30" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X30" s="11" t="s">
-        <v>58</v>
+      <c r="W30" s="11">
+        <v>271600</v>
+      </c>
+      <c r="X30" s="11">
+        <v>236760</v>
       </c>
       <c r="Y30" s="11">
-        <v>271600</v>
+        <v>186678</v>
       </c>
       <c r="Z30" s="11">
-        <v>236760</v>
+        <v>335297</v>
       </c>
       <c r="AA30" s="11">
-        <v>186678</v>
+        <v>271374</v>
       </c>
       <c r="AB30" s="11">
-        <v>335297</v>
+        <v>270416</v>
       </c>
       <c r="AC30" s="11">
-        <v>271374</v>
+        <v>141269</v>
       </c>
       <c r="AD30" s="11">
-        <v>270416</v>
+        <v>120513</v>
       </c>
       <c r="AE30" s="11">
-        <v>141269</v>
+        <v>240864</v>
       </c>
       <c r="AF30" s="11">
-        <v>120513</v>
+        <v>277817</v>
       </c>
       <c r="AG30" s="11">
-        <v>240864</v>
+        <v>284022</v>
       </c>
       <c r="AH30" s="11">
-        <v>277817</v>
+        <v>210931</v>
       </c>
       <c r="AI30" s="11">
-        <v>284022</v>
+        <v>213586</v>
       </c>
       <c r="AJ30" s="11">
-        <v>210931</v>
+        <v>280098</v>
       </c>
       <c r="AK30" s="11">
-        <v>213586</v>
+        <v>173294</v>
       </c>
       <c r="AL30" s="11">
-        <v>280098</v>
+        <v>202592</v>
       </c>
       <c r="AM30" s="11">
-        <v>173294</v>
+        <v>86351</v>
       </c>
       <c r="AN30" s="11">
-        <v>202592</v>
+        <v>134014</v>
       </c>
       <c r="AO30" s="11">
-        <v>86351</v>
+        <v>53662</v>
       </c>
       <c r="AP30" s="11">
-        <v>134014</v>
+        <v>79535</v>
       </c>
       <c r="AQ30" s="11">
-        <v>53662</v>
+        <v>247159</v>
       </c>
       <c r="AR30" s="11">
-        <v>79535</v>
+        <v>202127</v>
       </c>
       <c r="AS30" s="11">
-        <v>247159</v>
+        <v>240809</v>
       </c>
       <c r="AT30" s="11">
-        <v>202127</v>
+        <v>296901</v>
       </c>
       <c r="AU30" s="11">
-        <v>240809</v>
+        <v>289166</v>
       </c>
       <c r="AV30" s="11">
-        <v>296901</v>
+        <v>133789</v>
       </c>
       <c r="AW30" s="11">
-        <v>289166</v>
+        <v>274326</v>
       </c>
       <c r="AX30" s="11">
-        <v>133789</v>
+        <v>188430</v>
       </c>
       <c r="AY30" s="11">
-        <v>274326</v>
+        <v>176410</v>
       </c>
       <c r="AZ30" s="11">
-        <v>188430</v>
+        <v>136235</v>
       </c>
       <c r="BA30" s="11">
-        <v>176410</v>
+        <v>120278</v>
       </c>
       <c r="BB30" s="11">
-        <v>136235</v>
+        <v>120402</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="16" t="s">
         <v>70</v>
       </c>
@@ -3829,103 +3829,103 @@
         <v>0</v>
       </c>
       <c r="W31" s="17">
-        <v>0</v>
+        <v>271600</v>
       </c>
       <c r="X31" s="17">
-        <v>0</v>
+        <v>236760</v>
       </c>
       <c r="Y31" s="17">
-        <v>271600</v>
+        <v>186678</v>
       </c>
       <c r="Z31" s="17">
-        <v>236760</v>
+        <v>335297</v>
       </c>
       <c r="AA31" s="17">
-        <v>186678</v>
+        <v>271374</v>
       </c>
       <c r="AB31" s="17">
-        <v>335297</v>
+        <v>270416</v>
       </c>
       <c r="AC31" s="17">
-        <v>271374</v>
+        <v>141269</v>
       </c>
       <c r="AD31" s="17">
-        <v>270416</v>
+        <v>120513</v>
       </c>
       <c r="AE31" s="17">
-        <v>141269</v>
+        <v>240864</v>
       </c>
       <c r="AF31" s="17">
-        <v>120513</v>
+        <v>277817</v>
       </c>
       <c r="AG31" s="17">
-        <v>240864</v>
+        <v>284022</v>
       </c>
       <c r="AH31" s="17">
-        <v>277817</v>
+        <v>210931</v>
       </c>
       <c r="AI31" s="17">
-        <v>284022</v>
+        <v>213586</v>
       </c>
       <c r="AJ31" s="17">
-        <v>210931</v>
+        <v>280098</v>
       </c>
       <c r="AK31" s="17">
-        <v>213586</v>
+        <v>173294</v>
       </c>
       <c r="AL31" s="17">
-        <v>280098</v>
+        <v>202592</v>
       </c>
       <c r="AM31" s="17">
-        <v>173294</v>
+        <v>86351</v>
       </c>
       <c r="AN31" s="17">
-        <v>202592</v>
+        <v>134014</v>
       </c>
       <c r="AO31" s="17">
-        <v>86351</v>
+        <v>53662</v>
       </c>
       <c r="AP31" s="17">
-        <v>134014</v>
+        <v>79535</v>
       </c>
       <c r="AQ31" s="17">
-        <v>53662</v>
+        <v>247159</v>
       </c>
       <c r="AR31" s="17">
-        <v>79535</v>
+        <v>202127</v>
       </c>
       <c r="AS31" s="17">
-        <v>247159</v>
+        <v>240809</v>
       </c>
       <c r="AT31" s="17">
-        <v>202127</v>
+        <v>296901</v>
       </c>
       <c r="AU31" s="17">
-        <v>240809</v>
+        <v>289166</v>
       </c>
       <c r="AV31" s="17">
-        <v>296901</v>
+        <v>133789</v>
       </c>
       <c r="AW31" s="17">
-        <v>289166</v>
+        <v>274326</v>
       </c>
       <c r="AX31" s="17">
-        <v>133789</v>
+        <v>188430</v>
       </c>
       <c r="AY31" s="17">
-        <v>274326</v>
+        <v>176410</v>
       </c>
       <c r="AZ31" s="17">
-        <v>188430</v>
+        <v>136235</v>
       </c>
       <c r="BA31" s="17">
-        <v>176410</v>
+        <v>120278</v>
       </c>
       <c r="BB31" s="17">
-        <v>136235</v>
+        <v>120402</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="s">
         <v>63</v>
       </c>
@@ -3982,7 +3982,7 @@
       <c r="BA32" s="19"/>
       <c r="BB32" s="19"/>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
         <v>64</v>
       </c>
@@ -4042,11 +4042,11 @@
       <c r="V33" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W33" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X33" s="15" t="s">
-        <v>58</v>
+      <c r="W33" s="15">
+        <v>0</v>
+      </c>
+      <c r="X33" s="15">
+        <v>0</v>
       </c>
       <c r="Y33" s="15">
         <v>0</v>
@@ -4139,7 +4139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="s">
         <v>71</v>
       </c>
@@ -4196,7 +4196,7 @@
       <c r="BA34" s="19"/>
       <c r="BB34" s="19"/>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
         <v>72</v>
       </c>
@@ -4256,11 +4256,11 @@
       <c r="V35" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W35" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X35" s="15" t="s">
-        <v>58</v>
+      <c r="W35" s="15">
+        <v>0</v>
+      </c>
+      <c r="X35" s="15">
+        <v>0</v>
       </c>
       <c r="Y35" s="15">
         <v>0</v>
@@ -4353,7 +4353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="16" t="s">
         <v>65</v>
       </c>
@@ -4414,103 +4414,103 @@
         <v>0</v>
       </c>
       <c r="W36" s="17">
-        <v>0</v>
+        <v>375994</v>
       </c>
       <c r="X36" s="17">
-        <v>0</v>
+        <v>367602</v>
       </c>
       <c r="Y36" s="17">
-        <v>375994</v>
+        <v>313997</v>
       </c>
       <c r="Z36" s="17">
-        <v>367602</v>
+        <v>470736</v>
       </c>
       <c r="AA36" s="17">
-        <v>313997</v>
+        <v>399556</v>
       </c>
       <c r="AB36" s="17">
-        <v>470736</v>
+        <v>381949</v>
       </c>
       <c r="AC36" s="17">
-        <v>399556</v>
+        <v>214154</v>
       </c>
       <c r="AD36" s="17">
-        <v>381949</v>
+        <v>210323</v>
       </c>
       <c r="AE36" s="17">
-        <v>214154</v>
+        <v>357432</v>
       </c>
       <c r="AF36" s="17">
-        <v>210323</v>
+        <v>409081</v>
       </c>
       <c r="AG36" s="17">
-        <v>357432</v>
+        <v>415598</v>
       </c>
       <c r="AH36" s="17">
-        <v>409081</v>
+        <v>334888</v>
       </c>
       <c r="AI36" s="17">
-        <v>415598</v>
+        <v>333246</v>
       </c>
       <c r="AJ36" s="17">
-        <v>334888</v>
+        <v>414702</v>
       </c>
       <c r="AK36" s="17">
-        <v>333246</v>
+        <v>252235</v>
       </c>
       <c r="AL36" s="17">
-        <v>414702</v>
+        <v>290695</v>
       </c>
       <c r="AM36" s="17">
-        <v>252235</v>
+        <v>142369</v>
       </c>
       <c r="AN36" s="17">
-        <v>290695</v>
+        <v>201169</v>
       </c>
       <c r="AO36" s="17">
-        <v>142369</v>
+        <v>122002</v>
       </c>
       <c r="AP36" s="17">
-        <v>201169</v>
+        <v>161983</v>
       </c>
       <c r="AQ36" s="17">
-        <v>122002</v>
+        <v>360340</v>
       </c>
       <c r="AR36" s="17">
-        <v>161506</v>
+        <v>293741</v>
       </c>
       <c r="AS36" s="17">
-        <v>360340</v>
+        <v>346683</v>
       </c>
       <c r="AT36" s="17">
-        <v>293741</v>
+        <v>450192</v>
       </c>
       <c r="AU36" s="17">
-        <v>346683</v>
+        <v>400540</v>
       </c>
       <c r="AV36" s="17">
-        <v>450192</v>
+        <v>238106</v>
       </c>
       <c r="AW36" s="17">
-        <v>400540</v>
+        <v>353557</v>
       </c>
       <c r="AX36" s="17">
-        <v>234418</v>
+        <v>269018</v>
       </c>
       <c r="AY36" s="17">
-        <v>353557</v>
+        <v>262251</v>
       </c>
       <c r="AZ36" s="17">
-        <v>269018</v>
+        <v>225559</v>
       </c>
       <c r="BA36" s="17">
-        <v>262251</v>
+        <v>192452</v>
       </c>
       <c r="BB36" s="17">
-        <v>225559</v>
+        <v>180957</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -4565,7 +4565,7 @@
       <c r="BA37" s="1"/>
       <c r="BB37" s="1"/>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -4620,7 +4620,7 @@
       <c r="BA38" s="1"/>
       <c r="BB38" s="1"/>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -4675,7 +4675,7 @@
       <c r="BA39" s="1"/>
       <c r="BB39" s="1"/>
     </row>
-    <row r="40" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B40" s="7" t="s">
         <v>73</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -4887,7 +4887,7 @@
       <c r="BA41" s="1"/>
       <c r="BB41" s="1"/>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
         <v>74</v>
       </c>
@@ -4944,7 +4944,7 @@
       <c r="BA42" s="9"/>
       <c r="BB42" s="9"/>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
         <v>56</v>
       </c>
@@ -5006,104 +5006,104 @@
       <c r="V43" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W43" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X43" s="11" t="s">
-        <v>58</v>
+      <c r="W43" s="11">
+        <v>62471</v>
+      </c>
+      <c r="X43" s="11">
+        <v>79387</v>
       </c>
       <c r="Y43" s="11">
-        <v>62471</v>
+        <v>76015</v>
       </c>
       <c r="Z43" s="11">
-        <v>79387</v>
+        <v>80688</v>
       </c>
       <c r="AA43" s="11">
-        <v>76015</v>
+        <v>75387</v>
       </c>
       <c r="AB43" s="11">
-        <v>80688</v>
+        <v>62961</v>
       </c>
       <c r="AC43" s="11">
-        <v>75387</v>
+        <v>37295</v>
       </c>
       <c r="AD43" s="11">
-        <v>62961</v>
+        <v>49995</v>
       </c>
       <c r="AE43" s="11">
-        <v>37295</v>
+        <v>64762</v>
       </c>
       <c r="AF43" s="11">
-        <v>49995</v>
+        <v>91826</v>
       </c>
       <c r="AG43" s="11">
-        <v>64762</v>
+        <v>88580</v>
       </c>
       <c r="AH43" s="11">
-        <v>91826</v>
+        <v>86243</v>
       </c>
       <c r="AI43" s="11">
-        <v>88580</v>
+        <v>81715</v>
       </c>
       <c r="AJ43" s="11">
-        <v>86243</v>
+        <v>97103</v>
       </c>
       <c r="AK43" s="11">
-        <v>81715</v>
+        <v>51091</v>
       </c>
       <c r="AL43" s="11">
-        <v>97103</v>
+        <v>57592</v>
       </c>
       <c r="AM43" s="11">
-        <v>51091</v>
+        <v>31433</v>
       </c>
       <c r="AN43" s="11">
-        <v>57592</v>
+        <v>37646</v>
       </c>
       <c r="AO43" s="11">
-        <v>31433</v>
+        <v>39732</v>
       </c>
       <c r="AP43" s="11">
-        <v>37646</v>
+        <v>52912</v>
       </c>
       <c r="AQ43" s="11">
-        <v>39732</v>
+        <v>78260</v>
       </c>
       <c r="AR43" s="11">
-        <v>52526</v>
+        <v>66116</v>
       </c>
       <c r="AS43" s="11">
-        <v>78260</v>
+        <v>157981</v>
       </c>
       <c r="AT43" s="11">
-        <v>145457</v>
+        <v>243020</v>
       </c>
       <c r="AU43" s="11">
-        <v>164877</v>
+        <v>168371</v>
       </c>
       <c r="AV43" s="11">
-        <v>243020</v>
+        <v>158990</v>
       </c>
       <c r="AW43" s="11">
-        <v>168371</v>
+        <v>116490</v>
       </c>
       <c r="AX43" s="11">
-        <v>158990</v>
+        <v>124853</v>
       </c>
       <c r="AY43" s="11">
-        <v>116490</v>
+        <v>129107</v>
       </c>
       <c r="AZ43" s="11">
-        <v>124853</v>
+        <v>129627</v>
       </c>
       <c r="BA43" s="11">
-        <v>129107</v>
+        <v>93027</v>
       </c>
       <c r="BB43" s="11">
-        <v>129627</v>
+        <v>78594</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
         <v>59</v>
       </c>
@@ -5165,104 +5165,104 @@
       <c r="V44" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W44" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X44" s="13" t="s">
-        <v>58</v>
+      <c r="W44" s="13">
+        <v>179605</v>
+      </c>
+      <c r="X44" s="13">
+        <v>233842</v>
       </c>
       <c r="Y44" s="13">
-        <v>179605</v>
+        <v>303463</v>
       </c>
       <c r="Z44" s="13">
-        <v>233842</v>
+        <v>452623</v>
       </c>
       <c r="AA44" s="13">
-        <v>303463</v>
+        <v>556025</v>
       </c>
       <c r="AB44" s="13">
-        <v>452623</v>
+        <v>806040</v>
       </c>
       <c r="AC44" s="13">
-        <v>556025</v>
+        <v>1035387</v>
       </c>
       <c r="AD44" s="13">
-        <v>806040</v>
+        <v>904527</v>
       </c>
       <c r="AE44" s="13">
-        <v>1035387</v>
+        <v>1172681</v>
       </c>
       <c r="AF44" s="13">
-        <v>904527</v>
+        <v>939959</v>
       </c>
       <c r="AG44" s="13">
-        <v>1172681</v>
+        <v>1179671</v>
       </c>
       <c r="AH44" s="13">
-        <v>939959</v>
+        <v>834877</v>
       </c>
       <c r="AI44" s="13">
-        <v>1179671</v>
+        <v>910732</v>
       </c>
       <c r="AJ44" s="13">
-        <v>834877</v>
+        <v>759722</v>
       </c>
       <c r="AK44" s="13">
-        <v>910732</v>
+        <v>926164</v>
       </c>
       <c r="AL44" s="13">
-        <v>759722</v>
+        <v>1126439</v>
       </c>
       <c r="AM44" s="13">
-        <v>926164</v>
+        <v>1440917</v>
       </c>
       <c r="AN44" s="13">
-        <v>1126439</v>
+        <v>1827042</v>
       </c>
       <c r="AO44" s="13">
-        <v>1440917</v>
+        <v>1481686</v>
       </c>
       <c r="AP44" s="13">
-        <v>1827042</v>
+        <v>1178175</v>
       </c>
       <c r="AQ44" s="13">
-        <v>1481686</v>
+        <v>1086502</v>
       </c>
       <c r="AR44" s="13">
-        <v>1174513</v>
+        <v>654128</v>
       </c>
       <c r="AS44" s="13">
-        <v>1086502</v>
+        <v>1200800</v>
       </c>
       <c r="AT44" s="13">
-        <v>654754</v>
+        <v>1166169</v>
       </c>
       <c r="AU44" s="13">
-        <v>1197202</v>
+        <v>1091360</v>
       </c>
       <c r="AV44" s="13">
-        <v>1166169</v>
+        <v>969030</v>
       </c>
       <c r="AW44" s="13">
-        <v>1091360</v>
+        <v>913537</v>
       </c>
       <c r="AX44" s="13">
-        <v>968331</v>
+        <v>743377</v>
       </c>
       <c r="AY44" s="13">
-        <v>913537</v>
+        <v>963568</v>
       </c>
       <c r="AZ44" s="13">
-        <v>743377</v>
+        <v>1132754</v>
       </c>
       <c r="BA44" s="13">
-        <v>963568</v>
+        <v>1737071</v>
       </c>
       <c r="BB44" s="13">
-        <v>1132754</v>
+        <v>1461707</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
         <v>68</v>
       </c>
@@ -5323,103 +5323,103 @@
         <v>0</v>
       </c>
       <c r="W45" s="15">
-        <v>0</v>
+        <v>242076</v>
       </c>
       <c r="X45" s="15">
-        <v>0</v>
+        <v>313229</v>
       </c>
       <c r="Y45" s="15">
-        <v>242076</v>
+        <v>379478</v>
       </c>
       <c r="Z45" s="15">
-        <v>313229</v>
+        <v>533311</v>
       </c>
       <c r="AA45" s="15">
-        <v>379478</v>
+        <v>631412</v>
       </c>
       <c r="AB45" s="15">
-        <v>533311</v>
+        <v>869001</v>
       </c>
       <c r="AC45" s="15">
-        <v>631412</v>
+        <v>1072682</v>
       </c>
       <c r="AD45" s="15">
-        <v>869001</v>
+        <v>954522</v>
       </c>
       <c r="AE45" s="15">
-        <v>1072682</v>
+        <v>1237443</v>
       </c>
       <c r="AF45" s="15">
-        <v>954522</v>
+        <v>1031785</v>
       </c>
       <c r="AG45" s="15">
-        <v>1237443</v>
+        <v>1268251</v>
       </c>
       <c r="AH45" s="15">
-        <v>1031785</v>
+        <v>921120</v>
       </c>
       <c r="AI45" s="15">
-        <v>1268251</v>
+        <v>992447</v>
       </c>
       <c r="AJ45" s="15">
-        <v>921120</v>
+        <v>856825</v>
       </c>
       <c r="AK45" s="15">
-        <v>992447</v>
+        <v>977255</v>
       </c>
       <c r="AL45" s="15">
-        <v>856825</v>
+        <v>1184031</v>
       </c>
       <c r="AM45" s="15">
-        <v>977255</v>
+        <v>1472350</v>
       </c>
       <c r="AN45" s="15">
-        <v>1184031</v>
+        <v>1864688</v>
       </c>
       <c r="AO45" s="15">
-        <v>1472350</v>
+        <v>1521418</v>
       </c>
       <c r="AP45" s="15">
-        <v>1864688</v>
+        <v>1231087</v>
       </c>
       <c r="AQ45" s="15">
-        <v>1521418</v>
+        <v>1164762</v>
       </c>
       <c r="AR45" s="15">
-        <v>1227039</v>
+        <v>720244</v>
       </c>
       <c r="AS45" s="15">
-        <v>1164762</v>
+        <v>1358781</v>
       </c>
       <c r="AT45" s="15">
-        <v>800211</v>
+        <v>1409189</v>
       </c>
       <c r="AU45" s="15">
-        <v>1362079</v>
+        <v>1259731</v>
       </c>
       <c r="AV45" s="15">
-        <v>1409189</v>
+        <v>1128020</v>
       </c>
       <c r="AW45" s="15">
-        <v>1259731</v>
+        <v>1030027</v>
       </c>
       <c r="AX45" s="15">
-        <v>1127321</v>
+        <v>868230</v>
       </c>
       <c r="AY45" s="15">
-        <v>1030027</v>
+        <v>1092675</v>
       </c>
       <c r="AZ45" s="15">
-        <v>868230</v>
+        <v>1262381</v>
       </c>
       <c r="BA45" s="15">
-        <v>1092675</v>
+        <v>1830098</v>
       </c>
       <c r="BB45" s="15">
-        <v>1262381</v>
+        <v>1540301</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
         <v>76</v>
       </c>
@@ -5476,7 +5476,7 @@
       <c r="BA46" s="9"/>
       <c r="BB46" s="9"/>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
         <v>59</v>
       </c>
@@ -5538,104 +5538,104 @@
       <c r="V47" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W47" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X47" s="11" t="s">
-        <v>58</v>
+      <c r="W47" s="11">
+        <v>7544580</v>
+      </c>
+      <c r="X47" s="11">
+        <v>7296095</v>
       </c>
       <c r="Y47" s="11">
-        <v>7544580</v>
+        <v>6958239</v>
       </c>
       <c r="Z47" s="11">
-        <v>7296095</v>
+        <v>16118070</v>
       </c>
       <c r="AA47" s="11">
-        <v>6958239</v>
+        <v>15727367</v>
       </c>
       <c r="AB47" s="11">
-        <v>16118070</v>
+        <v>17251203</v>
       </c>
       <c r="AC47" s="11">
-        <v>15727367</v>
+        <v>10355667</v>
       </c>
       <c r="AD47" s="11">
-        <v>17251203</v>
+        <v>8745341</v>
       </c>
       <c r="AE47" s="11">
-        <v>10355667</v>
+        <v>16964784</v>
       </c>
       <c r="AF47" s="11">
-        <v>8745341</v>
+        <v>20031872</v>
       </c>
       <c r="AG47" s="11">
-        <v>16964784</v>
+        <v>18967445</v>
       </c>
       <c r="AH47" s="11">
-        <v>20031872</v>
+        <v>13885885</v>
       </c>
       <c r="AI47" s="11">
-        <v>18967445</v>
+        <v>15431535</v>
       </c>
       <c r="AJ47" s="11">
-        <v>13885885</v>
+        <v>21294537</v>
       </c>
       <c r="AK47" s="11">
-        <v>15431535</v>
+        <v>13458112</v>
       </c>
       <c r="AL47" s="11">
-        <v>21294537</v>
+        <v>19187801</v>
       </c>
       <c r="AM47" s="11">
-        <v>13458112</v>
+        <v>8434512</v>
       </c>
       <c r="AN47" s="11">
-        <v>19187801</v>
+        <v>11779879</v>
       </c>
       <c r="AO47" s="11">
-        <v>8434512</v>
+        <v>4397253</v>
       </c>
       <c r="AP47" s="11">
-        <v>11779879</v>
+        <v>6744076</v>
       </c>
       <c r="AQ47" s="11">
-        <v>4397253</v>
+        <v>23560882</v>
       </c>
       <c r="AR47" s="11">
-        <v>6762053</v>
+        <v>19248509</v>
       </c>
       <c r="AS47" s="11">
-        <v>23560882</v>
+        <v>22551976</v>
       </c>
       <c r="AT47" s="11">
-        <v>19144981</v>
+        <v>25750490</v>
       </c>
       <c r="AU47" s="11">
-        <v>21040264</v>
+        <v>24280487</v>
       </c>
       <c r="AV47" s="11">
-        <v>25359589</v>
+        <v>10700191</v>
       </c>
       <c r="AW47" s="11">
-        <v>22665320</v>
+        <v>21897107</v>
       </c>
       <c r="AX47" s="11">
-        <v>10482184</v>
+        <v>15497845</v>
       </c>
       <c r="AY47" s="11">
-        <v>21978555</v>
+        <v>14880729</v>
       </c>
       <c r="AZ47" s="11">
-        <v>16136968</v>
+        <v>11706778</v>
       </c>
       <c r="BA47" s="11">
-        <v>15208895</v>
+        <v>10803581</v>
       </c>
       <c r="BB47" s="11">
-        <v>11706778</v>
+        <v>10915122</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="16" t="s">
         <v>70</v>
       </c>
@@ -5696,103 +5696,103 @@
         <v>0</v>
       </c>
       <c r="W48" s="17">
-        <v>0</v>
+        <v>7544580</v>
       </c>
       <c r="X48" s="17">
-        <v>0</v>
+        <v>7296095</v>
       </c>
       <c r="Y48" s="17">
-        <v>7544580</v>
+        <v>6958239</v>
       </c>
       <c r="Z48" s="17">
-        <v>7296095</v>
+        <v>16118070</v>
       </c>
       <c r="AA48" s="17">
-        <v>6958239</v>
+        <v>15727367</v>
       </c>
       <c r="AB48" s="17">
-        <v>16118070</v>
+        <v>17251203</v>
       </c>
       <c r="AC48" s="17">
-        <v>15727367</v>
+        <v>10355667</v>
       </c>
       <c r="AD48" s="17">
-        <v>17251203</v>
+        <v>8745341</v>
       </c>
       <c r="AE48" s="17">
-        <v>10355667</v>
+        <v>16964784</v>
       </c>
       <c r="AF48" s="17">
-        <v>8745341</v>
+        <v>20031872</v>
       </c>
       <c r="AG48" s="17">
-        <v>16964784</v>
+        <v>18967445</v>
       </c>
       <c r="AH48" s="17">
-        <v>20031872</v>
+        <v>13885885</v>
       </c>
       <c r="AI48" s="17">
-        <v>18967445</v>
+        <v>15431535</v>
       </c>
       <c r="AJ48" s="17">
-        <v>13885885</v>
+        <v>21294537</v>
       </c>
       <c r="AK48" s="17">
-        <v>15431535</v>
+        <v>13458112</v>
       </c>
       <c r="AL48" s="17">
-        <v>21294537</v>
+        <v>19187801</v>
       </c>
       <c r="AM48" s="17">
-        <v>13458112</v>
+        <v>8434512</v>
       </c>
       <c r="AN48" s="17">
-        <v>19187801</v>
+        <v>11779879</v>
       </c>
       <c r="AO48" s="17">
-        <v>8434512</v>
+        <v>4397253</v>
       </c>
       <c r="AP48" s="17">
-        <v>11779879</v>
+        <v>6744076</v>
       </c>
       <c r="AQ48" s="17">
-        <v>4397253</v>
+        <v>23560882</v>
       </c>
       <c r="AR48" s="17">
-        <v>6762053</v>
+        <v>19248509</v>
       </c>
       <c r="AS48" s="17">
-        <v>23560882</v>
+        <v>22551976</v>
       </c>
       <c r="AT48" s="17">
-        <v>19144981</v>
+        <v>25750490</v>
       </c>
       <c r="AU48" s="17">
-        <v>21040264</v>
+        <v>24280487</v>
       </c>
       <c r="AV48" s="17">
-        <v>25359589</v>
+        <v>10700191</v>
       </c>
       <c r="AW48" s="17">
-        <v>22665320</v>
+        <v>21897107</v>
       </c>
       <c r="AX48" s="17">
-        <v>10482184</v>
+        <v>15497845</v>
       </c>
       <c r="AY48" s="17">
-        <v>21978555</v>
+        <v>14880729</v>
       </c>
       <c r="AZ48" s="17">
-        <v>16136968</v>
+        <v>11706778</v>
       </c>
       <c r="BA48" s="17">
-        <v>15208895</v>
+        <v>10803581</v>
       </c>
       <c r="BB48" s="17">
-        <v>11706778</v>
+        <v>10915122</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="18" t="s">
         <v>77</v>
       </c>
@@ -5849,7 +5849,7 @@
       <c r="BA49" s="19"/>
       <c r="BB49" s="19"/>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="14" t="s">
         <v>64</v>
       </c>
@@ -5911,11 +5911,11 @@
       <c r="V50" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W50" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X50" s="15" t="s">
-        <v>58</v>
+      <c r="W50" s="15">
+        <v>0</v>
+      </c>
+      <c r="X50" s="15">
+        <v>0</v>
       </c>
       <c r="Y50" s="15">
         <v>0</v>
@@ -6008,7 +6008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="18" t="s">
         <v>78</v>
       </c>
@@ -6065,7 +6065,7 @@
       <c r="BA51" s="19"/>
       <c r="BB51" s="19"/>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="14" t="s">
         <v>72</v>
       </c>
@@ -6127,11 +6127,11 @@
       <c r="V52" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W52" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X52" s="15" t="s">
-        <v>58</v>
+      <c r="W52" s="15">
+        <v>0</v>
+      </c>
+      <c r="X52" s="15">
+        <v>0</v>
       </c>
       <c r="Y52" s="15">
         <v>0</v>
@@ -6224,7 +6224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
         <v>79</v>
       </c>
@@ -6281,7 +6281,7 @@
       <c r="BA53" s="9"/>
       <c r="BB53" s="9"/>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
         <v>80</v>
       </c>
@@ -6343,11 +6343,11 @@
       <c r="V54" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W54" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X54" s="11" t="s">
-        <v>58</v>
+      <c r="W54" s="11">
+        <v>0</v>
+      </c>
+      <c r="X54" s="11">
+        <v>0</v>
       </c>
       <c r="Y54" s="11">
         <v>0</v>
@@ -6440,7 +6440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="16" t="s">
         <v>65</v>
       </c>
@@ -6501,103 +6501,103 @@
         <v>0</v>
       </c>
       <c r="W55" s="17">
-        <v>0</v>
+        <v>7786656</v>
       </c>
       <c r="X55" s="17">
-        <v>0</v>
+        <v>7609324</v>
       </c>
       <c r="Y55" s="17">
-        <v>7786656</v>
+        <v>7337717</v>
       </c>
       <c r="Z55" s="17">
-        <v>7609324</v>
+        <v>16651381</v>
       </c>
       <c r="AA55" s="17">
-        <v>7337717</v>
+        <v>16358779</v>
       </c>
       <c r="AB55" s="17">
-        <v>16651381</v>
+        <v>18120204</v>
       </c>
       <c r="AC55" s="17">
-        <v>16358779</v>
+        <v>11428349</v>
       </c>
       <c r="AD55" s="17">
-        <v>18120204</v>
+        <v>9699863</v>
       </c>
       <c r="AE55" s="17">
-        <v>11428349</v>
+        <v>18202227</v>
       </c>
       <c r="AF55" s="17">
-        <v>9699863</v>
+        <v>21063657</v>
       </c>
       <c r="AG55" s="17">
-        <v>18202227</v>
+        <v>20235696</v>
       </c>
       <c r="AH55" s="17">
-        <v>21063657</v>
+        <v>14807005</v>
       </c>
       <c r="AI55" s="17">
-        <v>20235696</v>
+        <v>16423982</v>
       </c>
       <c r="AJ55" s="17">
-        <v>14807005</v>
+        <v>22151362</v>
       </c>
       <c r="AK55" s="17">
-        <v>16423982</v>
+        <v>14435367</v>
       </c>
       <c r="AL55" s="17">
-        <v>22151362</v>
+        <v>20371832</v>
       </c>
       <c r="AM55" s="17">
-        <v>14435367</v>
+        <v>9906862</v>
       </c>
       <c r="AN55" s="17">
-        <v>20371832</v>
+        <v>13644567</v>
       </c>
       <c r="AO55" s="17">
-        <v>9906862</v>
+        <v>5918671</v>
       </c>
       <c r="AP55" s="17">
-        <v>13644567</v>
+        <v>7975163</v>
       </c>
       <c r="AQ55" s="17">
-        <v>5918671</v>
+        <v>24725644</v>
       </c>
       <c r="AR55" s="17">
-        <v>7989092</v>
+        <v>19968753</v>
       </c>
       <c r="AS55" s="17">
-        <v>24725644</v>
+        <v>23910757</v>
       </c>
       <c r="AT55" s="17">
-        <v>19945192</v>
+        <v>27159679</v>
       </c>
       <c r="AU55" s="17">
-        <v>22402343</v>
+        <v>25540218</v>
       </c>
       <c r="AV55" s="17">
-        <v>26768778</v>
+        <v>11828211</v>
       </c>
       <c r="AW55" s="17">
-        <v>23925051</v>
+        <v>22927134</v>
       </c>
       <c r="AX55" s="17">
-        <v>11609505</v>
+        <v>16366075</v>
       </c>
       <c r="AY55" s="17">
-        <v>23008582</v>
+        <v>15973404</v>
       </c>
       <c r="AZ55" s="17">
-        <v>17005198</v>
+        <v>12969159</v>
       </c>
       <c r="BA55" s="17">
-        <v>16301570</v>
+        <v>12633679</v>
       </c>
       <c r="BB55" s="17">
-        <v>12969159</v>
+        <v>12455423</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -6652,7 +6652,7 @@
       <c r="BA56" s="1"/>
       <c r="BB56" s="1"/>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -6707,7 +6707,7 @@
       <c r="BA57" s="1"/>
       <c r="BB57" s="1"/>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -6762,7 +6762,7 @@
       <c r="BA58" s="1"/>
       <c r="BB58" s="1"/>
     </row>
-    <row r="59" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B59" s="7" t="s">
         <v>81</v>
       </c>
@@ -6919,7 +6919,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -6974,7 +6974,7 @@
       <c r="BA60" s="1"/>
       <c r="BB60" s="1"/>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="8" t="s">
         <v>82</v>
       </c>
@@ -7031,7 +7031,7 @@
       <c r="BA61" s="9"/>
       <c r="BB61" s="9"/>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="10" t="s">
         <v>56</v>
       </c>
@@ -7093,104 +7093,104 @@
       <c r="V62" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W62" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X62" s="11" t="s">
-        <v>58</v>
+      <c r="W62" s="11">
+        <v>672129</v>
+      </c>
+      <c r="X62" s="11">
+        <v>672133</v>
       </c>
       <c r="Y62" s="11">
+        <v>672122</v>
+      </c>
+      <c r="Z62" s="11">
+        <v>672131</v>
+      </c>
+      <c r="AA62" s="11">
+        <v>672132</v>
+      </c>
+      <c r="AB62" s="11">
         <v>672129</v>
-      </c>
-      <c r="Z62" s="11">
-        <v>672133</v>
-      </c>
-      <c r="AA62" s="11">
-        <v>672122</v>
-      </c>
-      <c r="AB62" s="11">
-        <v>672131</v>
       </c>
       <c r="AC62" s="11">
         <v>672132</v>
       </c>
       <c r="AD62" s="11">
-        <v>672129</v>
+        <v>672120</v>
       </c>
       <c r="AE62" s="11">
-        <v>672132</v>
+        <v>672140</v>
       </c>
       <c r="AF62" s="11">
-        <v>672120</v>
+        <v>801218</v>
       </c>
       <c r="AG62" s="11">
-        <v>672140</v>
+        <v>801223</v>
       </c>
       <c r="AH62" s="11">
-        <v>801218</v>
+        <v>801224</v>
       </c>
       <c r="AI62" s="11">
-        <v>801223</v>
+        <v>801222</v>
       </c>
       <c r="AJ62" s="11">
+        <v>801226</v>
+      </c>
+      <c r="AK62" s="11">
+        <v>801226</v>
+      </c>
+      <c r="AL62" s="11">
+        <v>801213</v>
+      </c>
+      <c r="AM62" s="11">
+        <v>801229</v>
+      </c>
+      <c r="AN62" s="11">
+        <v>801217</v>
+      </c>
+      <c r="AO62" s="11">
+        <v>801291</v>
+      </c>
+      <c r="AP62" s="11">
         <v>801224</v>
       </c>
-      <c r="AK62" s="11">
-        <v>801222</v>
-      </c>
-      <c r="AL62" s="11">
-        <v>801226</v>
-      </c>
-      <c r="AM62" s="11">
-        <v>801226</v>
-      </c>
-      <c r="AN62" s="11">
-        <v>801213</v>
-      </c>
-      <c r="AO62" s="11">
-        <v>801229</v>
-      </c>
-      <c r="AP62" s="11">
-        <v>801217</v>
-      </c>
       <c r="AQ62" s="11">
-        <v>801291</v>
+        <v>801220</v>
       </c>
       <c r="AR62" s="11">
-        <v>801219</v>
+        <v>801212</v>
       </c>
       <c r="AS62" s="11">
-        <v>801220</v>
+        <v>1762689</v>
       </c>
       <c r="AT62" s="11">
-        <v>1762688</v>
+        <v>1802752</v>
       </c>
       <c r="AU62" s="11">
+        <v>1802745</v>
+      </c>
+      <c r="AV62" s="11">
+        <v>1802751</v>
+      </c>
+      <c r="AW62" s="11">
         <v>1802748</v>
       </c>
-      <c r="AV62" s="11">
-        <v>1802752</v>
-      </c>
-      <c r="AW62" s="11">
-        <v>1802745</v>
-      </c>
       <c r="AX62" s="11">
-        <v>1802751</v>
+        <v>1802749</v>
       </c>
       <c r="AY62" s="11">
-        <v>1802748</v>
+        <v>1802742</v>
       </c>
       <c r="AZ62" s="11">
-        <v>1802749</v>
+        <v>1802754</v>
       </c>
       <c r="BA62" s="11">
-        <v>1802742</v>
+        <v>1802744</v>
       </c>
       <c r="BB62" s="11">
-        <v>1802754</v>
+        <v>1802739</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="12" t="s">
         <v>59</v>
       </c>
@@ -7252,104 +7252,104 @@
       <c r="V63" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W63" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X63" s="13" t="s">
-        <v>58</v>
+      <c r="W63" s="13">
+        <v>15688218</v>
+      </c>
+      <c r="X63" s="13">
+        <v>18368296</v>
       </c>
       <c r="Y63" s="13">
-        <v>15688218</v>
+        <v>21337576</v>
       </c>
       <c r="Z63" s="13">
-        <v>18368296</v>
+        <v>29408291</v>
       </c>
       <c r="AA63" s="13">
-        <v>21337576</v>
+        <v>34705513</v>
       </c>
       <c r="AB63" s="13">
-        <v>29408291</v>
+        <v>45133950</v>
       </c>
       <c r="AC63" s="13">
-        <v>34705513</v>
+        <v>59511840</v>
       </c>
       <c r="AD63" s="13">
-        <v>45133950</v>
+        <v>58635763</v>
       </c>
       <c r="AE63" s="13">
-        <v>59511840</v>
+        <v>58008142</v>
       </c>
       <c r="AF63" s="13">
-        <v>58635763</v>
+        <v>56433048</v>
       </c>
       <c r="AG63" s="13">
-        <v>58008142</v>
+        <v>56121361</v>
       </c>
       <c r="AH63" s="13">
-        <v>56433048</v>
+        <v>51162949</v>
       </c>
       <c r="AI63" s="13">
-        <v>56121361</v>
+        <v>51535310</v>
       </c>
       <c r="AJ63" s="13">
-        <v>51162949</v>
+        <v>56649169</v>
       </c>
       <c r="AK63" s="13">
-        <v>51535310</v>
+        <v>61032224</v>
       </c>
       <c r="AL63" s="13">
-        <v>56649169</v>
+        <v>69439186</v>
       </c>
       <c r="AM63" s="13">
-        <v>61032224</v>
+        <v>85837795</v>
       </c>
       <c r="AN63" s="13">
-        <v>69439186</v>
+        <v>90586643</v>
       </c>
       <c r="AO63" s="13">
-        <v>85837795</v>
+        <v>79002186</v>
       </c>
       <c r="AP63" s="13">
-        <v>90586643</v>
+        <v>71800536</v>
       </c>
       <c r="AQ63" s="13">
-        <v>79002186</v>
+        <v>70071858</v>
       </c>
       <c r="AR63" s="13">
-        <v>71781201</v>
+        <v>71929624</v>
       </c>
       <c r="AS63" s="13">
-        <v>70071858</v>
+        <v>73899932</v>
       </c>
       <c r="AT63" s="13">
-        <v>71998461</v>
+        <v>63085266</v>
       </c>
       <c r="AU63" s="13">
-        <v>73757960</v>
+        <v>60709865</v>
       </c>
       <c r="AV63" s="13">
-        <v>63085266</v>
+        <v>60096114</v>
       </c>
       <c r="AW63" s="13">
-        <v>60709865</v>
+        <v>62515363</v>
       </c>
       <c r="AX63" s="13">
-        <v>63323860</v>
+        <v>65605595</v>
       </c>
       <c r="AY63" s="13">
-        <v>62515363</v>
+        <v>67742407</v>
       </c>
       <c r="AZ63" s="13">
-        <v>65605595</v>
+        <v>65029496</v>
       </c>
       <c r="BA63" s="13">
-        <v>67742407</v>
+        <v>84441356</v>
       </c>
       <c r="BB63" s="13">
-        <v>65029496</v>
+        <v>86195719</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="8" t="s">
         <v>84</v>
       </c>
@@ -7406,7 +7406,7 @@
       <c r="BA64" s="9"/>
       <c r="BB64" s="9"/>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
         <v>59</v>
       </c>
@@ -7468,101 +7468,101 @@
       <c r="V65" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W65" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X65" s="11" t="s">
-        <v>58</v>
+      <c r="W65" s="11">
+        <v>27778246</v>
+      </c>
+      <c r="X65" s="11">
+        <v>30816483</v>
       </c>
       <c r="Y65" s="11">
-        <v>27778246</v>
+        <v>37273939</v>
       </c>
       <c r="Z65" s="11">
-        <v>30816483</v>
+        <v>48071024</v>
       </c>
       <c r="AA65" s="11">
-        <v>37273939</v>
+        <v>57954632</v>
       </c>
       <c r="AB65" s="11">
-        <v>48071024</v>
+        <v>63795112</v>
       </c>
       <c r="AC65" s="11">
-        <v>57954632</v>
+        <v>73304456</v>
       </c>
       <c r="AD65" s="11">
-        <v>63795112</v>
+        <v>72567597</v>
       </c>
       <c r="AE65" s="11">
-        <v>73304456</v>
+        <v>70432983</v>
       </c>
       <c r="AF65" s="11">
-        <v>72567597</v>
+        <v>72104633</v>
       </c>
       <c r="AG65" s="11">
-        <v>70432983</v>
+        <v>66781605</v>
       </c>
       <c r="AH65" s="11">
-        <v>72104633</v>
+        <v>65831409</v>
       </c>
       <c r="AI65" s="11">
-        <v>66781605</v>
+        <v>72249750</v>
       </c>
       <c r="AJ65" s="11">
-        <v>65831409</v>
+        <v>76025309</v>
       </c>
       <c r="AK65" s="11">
-        <v>72249750</v>
+        <v>77660787</v>
       </c>
       <c r="AL65" s="11">
-        <v>76025309</v>
+        <v>94711543</v>
       </c>
       <c r="AM65" s="11">
-        <v>77660787</v>
+        <v>97677062</v>
       </c>
       <c r="AN65" s="11">
-        <v>94711543</v>
+        <v>87900246</v>
       </c>
       <c r="AO65" s="11">
-        <v>97677062</v>
+        <v>81943517</v>
       </c>
       <c r="AP65" s="11">
-        <v>87900246</v>
+        <v>84793814</v>
       </c>
       <c r="AQ65" s="11">
-        <v>81943517</v>
+        <v>95326857</v>
       </c>
       <c r="AR65" s="11">
-        <v>84802821</v>
+        <v>95229776</v>
       </c>
       <c r="AS65" s="11">
-        <v>95326857</v>
+        <v>93651041</v>
       </c>
       <c r="AT65" s="11">
-        <v>94717584</v>
+        <v>86730897</v>
       </c>
       <c r="AU65" s="11">
-        <v>90238102</v>
+        <v>83967212</v>
       </c>
       <c r="AV65" s="11">
-        <v>86202536</v>
+        <v>79978269</v>
       </c>
       <c r="AW65" s="11">
-        <v>82397569</v>
+        <v>79821368</v>
       </c>
       <c r="AX65" s="11">
-        <v>79790783</v>
+        <v>82247227</v>
       </c>
       <c r="AY65" s="11">
-        <v>79878043</v>
+        <v>84353092</v>
       </c>
       <c r="AZ65" s="11">
-        <v>82640401</v>
+        <v>85930691</v>
       </c>
       <c r="BA65" s="11">
-        <v>86213338</v>
+        <v>89821680</v>
       </c>
       <c r="BB65" s="11">
-        <v>85930691</v>
+        <v>90655887</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/methanol/zagros/product/monthly_seprated.xlsx
+++ b/database/industries/methanol/zagros/product/monthly_seprated.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="85">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3287,107 +3287,107 @@
       <c r="T11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U11" s="13" t="s">
-        <v>58</v>
+      <c r="U11" s="13" t="n">
+        <v>567528</v>
       </c>
       <c r="V11" s="13" t="n">
-        <v>567528</v>
+        <v>550076</v>
       </c>
       <c r="W11" s="13" t="n">
-        <v>550076</v>
+        <v>514391</v>
       </c>
       <c r="X11" s="13" t="n">
-        <v>514391</v>
+        <v>545342</v>
       </c>
       <c r="Y11" s="13" t="n">
-        <v>545342</v>
+        <v>546755</v>
       </c>
       <c r="Z11" s="13" t="n">
-        <v>546755</v>
+        <v>550227</v>
       </c>
       <c r="AA11" s="13" t="n">
-        <v>550227</v>
+        <v>350481</v>
       </c>
       <c r="AB11" s="13" t="n">
-        <v>350481</v>
+        <v>486620</v>
       </c>
       <c r="AC11" s="13" t="n">
-        <v>486620</v>
+        <v>550730</v>
       </c>
       <c r="AD11" s="13" t="n">
-        <v>550730</v>
+        <v>578202</v>
       </c>
       <c r="AE11" s="13" t="n">
-        <v>578202</v>
+        <v>563356</v>
       </c>
       <c r="AF11" s="13" t="n">
-        <v>563356</v>
+        <v>570158</v>
       </c>
       <c r="AG11" s="13" t="n">
-        <v>570158</v>
+        <v>545105</v>
       </c>
       <c r="AH11" s="13" t="n">
-        <v>545105</v>
+        <v>568657</v>
       </c>
       <c r="AI11" s="13" t="n">
-        <v>568657</v>
+        <v>366499</v>
       </c>
       <c r="AJ11" s="13" t="n">
-        <v>366499</v>
+        <v>437716</v>
       </c>
       <c r="AK11" s="13" t="n">
-        <v>437716</v>
+        <v>271712</v>
       </c>
       <c r="AL11" s="13" t="n">
-        <v>271712</v>
+        <v>332706</v>
       </c>
       <c r="AM11" s="13" t="n">
-        <v>332706</v>
+        <v>294402</v>
       </c>
       <c r="AN11" s="13" t="n">
-        <v>294402</v>
+        <v>372733</v>
       </c>
       <c r="AO11" s="13" t="n">
-        <v>372733</v>
+        <v>573014</v>
       </c>
       <c r="AP11" s="13" t="n">
-        <v>573014</v>
+        <v>482842</v>
       </c>
       <c r="AQ11" s="13" t="n">
-        <v>482842</v>
+        <v>490496</v>
       </c>
       <c r="AR11" s="13" t="n">
-        <v>490496</v>
+        <v>665450</v>
       </c>
       <c r="AS11" s="13" t="n">
-        <v>665450</v>
+        <v>532153</v>
       </c>
       <c r="AT11" s="13" t="n">
-        <v>532153</v>
+        <v>490972</v>
       </c>
       <c r="AU11" s="13" t="n">
-        <v>490972</v>
+        <v>451689</v>
       </c>
       <c r="AV11" s="13" t="n">
-        <v>451689</v>
+        <v>510445</v>
       </c>
       <c r="AW11" s="13" t="n">
-        <v>510445</v>
+        <v>508885</v>
       </c>
       <c r="AX11" s="13" t="n">
-        <v>508885</v>
+        <v>406829</v>
       </c>
       <c r="AY11" s="13" t="n">
-        <v>406829</v>
+        <v>272307</v>
       </c>
       <c r="AZ11" s="13" t="n">
-        <v>272307</v>
+        <v>254156</v>
       </c>
       <c r="BA11" s="13" t="n">
-        <v>254156</v>
+        <v>290062</v>
       </c>
       <c r="BB11" s="13" t="n">
-        <v>290062</v>
+        <v>656190</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3446,107 +3446,107 @@
       <c r="T12" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U12" s="16" t="s">
-        <v>58</v>
+      <c r="U12" s="16" t="n">
+        <v>11448</v>
       </c>
       <c r="V12" s="16" t="n">
-        <v>11448</v>
+        <v>12731</v>
       </c>
       <c r="W12" s="16" t="n">
-        <v>12731</v>
+        <v>14222</v>
       </c>
       <c r="X12" s="16" t="n">
-        <v>14222</v>
+        <v>15391</v>
       </c>
       <c r="Y12" s="16" t="n">
-        <v>15391</v>
+        <v>16021</v>
       </c>
       <c r="Z12" s="16" t="n">
-        <v>16021</v>
+        <v>17859</v>
       </c>
       <c r="AA12" s="16" t="n">
-        <v>17859</v>
+        <v>17398</v>
       </c>
       <c r="AB12" s="16" t="n">
-        <v>17398</v>
+        <v>15426</v>
       </c>
       <c r="AC12" s="16" t="n">
-        <v>15426</v>
+        <v>20216</v>
       </c>
       <c r="AD12" s="16" t="n">
-        <v>20216</v>
+        <v>16656</v>
       </c>
       <c r="AE12" s="16" t="n">
-        <v>16656</v>
+        <v>21020</v>
       </c>
       <c r="AF12" s="16" t="n">
-        <v>21020</v>
+        <v>16318</v>
       </c>
       <c r="AG12" s="16" t="n">
-        <v>16318</v>
+        <v>17672</v>
       </c>
       <c r="AH12" s="16" t="n">
-        <v>17672</v>
+        <v>13411</v>
       </c>
       <c r="AI12" s="16" t="n">
-        <v>13411</v>
+        <v>15175</v>
       </c>
       <c r="AJ12" s="16" t="n">
-        <v>15175</v>
+        <v>16222</v>
       </c>
       <c r="AK12" s="16" t="n">
-        <v>16222</v>
+        <v>17586</v>
       </c>
       <c r="AL12" s="16" t="n">
-        <v>17586</v>
+        <v>20169</v>
       </c>
       <c r="AM12" s="16" t="n">
-        <v>20169</v>
+        <v>18755</v>
       </c>
       <c r="AN12" s="16" t="n">
-        <v>18755</v>
+        <v>16409</v>
       </c>
       <c r="AO12" s="16" t="n">
-        <v>16409</v>
+        <v>15506</v>
       </c>
       <c r="AP12" s="16" t="n">
-        <v>15506</v>
+        <v>9094</v>
       </c>
       <c r="AQ12" s="16" t="n">
-        <v>9094</v>
+        <v>16249</v>
       </c>
       <c r="AR12" s="16" t="n">
-        <v>16249</v>
+        <v>18486</v>
       </c>
       <c r="AS12" s="16" t="n">
-        <v>18486</v>
+        <v>17977</v>
       </c>
       <c r="AT12" s="16" t="n">
-        <v>17977</v>
+        <v>16125</v>
       </c>
       <c r="AU12" s="16" t="n">
-        <v>16125</v>
+        <v>14613</v>
       </c>
       <c r="AV12" s="16" t="n">
-        <v>14613</v>
+        <v>11331</v>
       </c>
       <c r="AW12" s="16" t="n">
-        <v>11331</v>
+        <v>14224</v>
       </c>
       <c r="AX12" s="16" t="n">
-        <v>14224</v>
+        <v>17419</v>
       </c>
       <c r="AY12" s="16" t="n">
-        <v>17419</v>
+        <v>20571</v>
       </c>
       <c r="AZ12" s="16" t="n">
-        <v>20571</v>
+        <v>16958</v>
       </c>
       <c r="BA12" s="16" t="n">
-        <v>16958</v>
+        <v>16847</v>
       </c>
       <c r="BB12" s="16" t="n">
-        <v>16847</v>
+        <v>14039</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3604,106 +3604,106 @@
         <v>0</v>
       </c>
       <c r="U13" s="18" t="n">
-        <v>0</v>
+        <v>578976</v>
       </c>
       <c r="V13" s="18" t="n">
-        <v>578976</v>
+        <v>562807</v>
       </c>
       <c r="W13" s="18" t="n">
-        <v>562807</v>
+        <v>528613</v>
       </c>
       <c r="X13" s="18" t="n">
-        <v>528613</v>
+        <v>560733</v>
       </c>
       <c r="Y13" s="18" t="n">
-        <v>560733</v>
+        <v>562776</v>
       </c>
       <c r="Z13" s="18" t="n">
-        <v>562776</v>
+        <v>568086</v>
       </c>
       <c r="AA13" s="18" t="n">
-        <v>568086</v>
+        <v>367879</v>
       </c>
       <c r="AB13" s="18" t="n">
-        <v>367879</v>
+        <v>502046</v>
       </c>
       <c r="AC13" s="18" t="n">
-        <v>502046</v>
+        <v>570946</v>
       </c>
       <c r="AD13" s="18" t="n">
-        <v>570946</v>
+        <v>594858</v>
       </c>
       <c r="AE13" s="18" t="n">
-        <v>594858</v>
+        <v>584376</v>
       </c>
       <c r="AF13" s="18" t="n">
-        <v>584376</v>
+        <v>586476</v>
       </c>
       <c r="AG13" s="18" t="n">
-        <v>586476</v>
+        <v>562777</v>
       </c>
       <c r="AH13" s="18" t="n">
-        <v>562777</v>
+        <v>582068</v>
       </c>
       <c r="AI13" s="18" t="n">
-        <v>582068</v>
+        <v>381674</v>
       </c>
       <c r="AJ13" s="18" t="n">
-        <v>381674</v>
+        <v>453938</v>
       </c>
       <c r="AK13" s="18" t="n">
-        <v>453938</v>
+        <v>289298</v>
       </c>
       <c r="AL13" s="18" t="n">
-        <v>289298</v>
+        <v>352875</v>
       </c>
       <c r="AM13" s="18" t="n">
-        <v>352875</v>
+        <v>313157</v>
       </c>
       <c r="AN13" s="18" t="n">
-        <v>313157</v>
+        <v>389142</v>
       </c>
       <c r="AO13" s="18" t="n">
-        <v>389142</v>
+        <v>588520</v>
       </c>
       <c r="AP13" s="18" t="n">
-        <v>588520</v>
+        <v>491936</v>
       </c>
       <c r="AQ13" s="18" t="n">
-        <v>491936</v>
+        <v>506745</v>
       </c>
       <c r="AR13" s="18" t="n">
-        <v>506745</v>
+        <v>683936</v>
       </c>
       <c r="AS13" s="18" t="n">
-        <v>683936</v>
+        <v>550130</v>
       </c>
       <c r="AT13" s="18" t="n">
-        <v>550130</v>
+        <v>507097</v>
       </c>
       <c r="AU13" s="18" t="n">
-        <v>507097</v>
+        <v>466302</v>
       </c>
       <c r="AV13" s="18" t="n">
-        <v>466302</v>
+        <v>521776</v>
       </c>
       <c r="AW13" s="18" t="n">
-        <v>521776</v>
+        <v>523109</v>
       </c>
       <c r="AX13" s="18" t="n">
-        <v>523109</v>
+        <v>424248</v>
       </c>
       <c r="AY13" s="18" t="n">
-        <v>424248</v>
+        <v>292878</v>
       </c>
       <c r="AZ13" s="18" t="n">
-        <v>292878</v>
+        <v>271114</v>
       </c>
       <c r="BA13" s="18" t="n">
-        <v>271114</v>
+        <v>306909</v>
       </c>
       <c r="BB13" s="18" t="n">
-        <v>306909</v>
+        <v>670229</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3819,107 +3819,107 @@
       <c r="T15" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U15" s="13" t="s">
-        <v>58</v>
+      <c r="U15" s="13" t="n">
+        <v>219479</v>
       </c>
       <c r="V15" s="13" t="n">
-        <v>219479</v>
+        <v>253831</v>
       </c>
       <c r="W15" s="13" t="n">
-        <v>253831</v>
+        <v>234396</v>
       </c>
       <c r="X15" s="13" t="n">
-        <v>234396</v>
+        <v>241552</v>
       </c>
       <c r="Y15" s="13" t="n">
-        <v>241552</v>
+        <v>234747</v>
       </c>
       <c r="Z15" s="13" t="n">
-        <v>234747</v>
+        <v>239436</v>
       </c>
       <c r="AA15" s="13" t="n">
-        <v>239436</v>
+        <v>146875</v>
       </c>
       <c r="AB15" s="13" t="n">
-        <v>146875</v>
+        <v>208438</v>
       </c>
       <c r="AC15" s="13" t="n">
-        <v>208438</v>
+        <v>239067</v>
       </c>
       <c r="AD15" s="13" t="n">
-        <v>239067</v>
+        <v>253409</v>
       </c>
       <c r="AE15" s="13" t="n">
-        <v>253409</v>
+        <v>239457</v>
       </c>
       <c r="AF15" s="13" t="n">
-        <v>239457</v>
+        <v>240628</v>
       </c>
       <c r="AG15" s="13" t="n">
-        <v>240628</v>
+        <v>227517</v>
       </c>
       <c r="AH15" s="13" t="n">
-        <v>227517</v>
+        <v>244909</v>
       </c>
       <c r="AI15" s="13" t="n">
-        <v>244909</v>
+        <v>159548</v>
       </c>
       <c r="AJ15" s="13" t="n">
-        <v>159548</v>
+        <v>188312</v>
       </c>
       <c r="AK15" s="13" t="n">
-        <v>188312</v>
+        <v>112181</v>
       </c>
       <c r="AL15" s="13" t="n">
-        <v>112181</v>
+        <v>129517</v>
       </c>
       <c r="AM15" s="13" t="n">
-        <v>129517</v>
+        <v>108879</v>
       </c>
       <c r="AN15" s="13" t="n">
-        <v>108879</v>
+        <v>158038</v>
       </c>
       <c r="AO15" s="13" t="n">
-        <v>158038</v>
+        <v>246795</v>
       </c>
       <c r="AP15" s="13" t="n">
-        <v>246795</v>
+        <v>212602</v>
       </c>
       <c r="AQ15" s="13" t="n">
-        <v>212602</v>
+        <v>209784</v>
       </c>
       <c r="AR15" s="13" t="n">
-        <v>209784</v>
+        <v>287922</v>
       </c>
       <c r="AS15" s="13" t="n">
-        <v>287922</v>
+        <v>223509</v>
       </c>
       <c r="AT15" s="13" t="n">
-        <v>223509</v>
+        <v>210921</v>
       </c>
       <c r="AU15" s="13" t="n">
-        <v>210921</v>
+        <v>196897</v>
       </c>
       <c r="AV15" s="13" t="n">
-        <v>196897</v>
+        <v>229177</v>
       </c>
       <c r="AW15" s="13" t="n">
-        <v>229177</v>
+        <v>226208</v>
       </c>
       <c r="AX15" s="13" t="n">
-        <v>226208</v>
+        <v>174284</v>
       </c>
       <c r="AY15" s="13" t="n">
-        <v>174284</v>
+        <v>112465</v>
       </c>
       <c r="AZ15" s="13" t="n">
-        <v>112465</v>
+        <v>99619</v>
       </c>
       <c r="BA15" s="13" t="n">
-        <v>99619</v>
+        <v>114771</v>
       </c>
       <c r="BB15" s="13" t="n">
-        <v>114771</v>
+        <v>288148</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3977,106 +3977,106 @@
         <v>0</v>
       </c>
       <c r="U16" s="20" t="n">
-        <v>0</v>
+        <v>219479</v>
       </c>
       <c r="V16" s="20" t="n">
-        <v>219479</v>
+        <v>253831</v>
       </c>
       <c r="W16" s="20" t="n">
-        <v>253831</v>
+        <v>234396</v>
       </c>
       <c r="X16" s="20" t="n">
-        <v>234396</v>
+        <v>241552</v>
       </c>
       <c r="Y16" s="20" t="n">
-        <v>241552</v>
+        <v>234747</v>
       </c>
       <c r="Z16" s="20" t="n">
-        <v>234747</v>
+        <v>239436</v>
       </c>
       <c r="AA16" s="20" t="n">
-        <v>239436</v>
+        <v>146875</v>
       </c>
       <c r="AB16" s="20" t="n">
-        <v>146875</v>
+        <v>208438</v>
       </c>
       <c r="AC16" s="20" t="n">
-        <v>208438</v>
+        <v>239067</v>
       </c>
       <c r="AD16" s="20" t="n">
-        <v>239067</v>
+        <v>253409</v>
       </c>
       <c r="AE16" s="20" t="n">
-        <v>253409</v>
+        <v>239457</v>
       </c>
       <c r="AF16" s="20" t="n">
-        <v>239457</v>
+        <v>240628</v>
       </c>
       <c r="AG16" s="20" t="n">
-        <v>240628</v>
+        <v>227517</v>
       </c>
       <c r="AH16" s="20" t="n">
-        <v>227517</v>
+        <v>244909</v>
       </c>
       <c r="AI16" s="20" t="n">
-        <v>244909</v>
+        <v>159548</v>
       </c>
       <c r="AJ16" s="20" t="n">
-        <v>159548</v>
+        <v>188312</v>
       </c>
       <c r="AK16" s="20" t="n">
-        <v>188312</v>
+        <v>112181</v>
       </c>
       <c r="AL16" s="20" t="n">
-        <v>112181</v>
+        <v>129517</v>
       </c>
       <c r="AM16" s="20" t="n">
-        <v>129517</v>
+        <v>108879</v>
       </c>
       <c r="AN16" s="20" t="n">
-        <v>108879</v>
+        <v>158038</v>
       </c>
       <c r="AO16" s="20" t="n">
-        <v>158038</v>
+        <v>246795</v>
       </c>
       <c r="AP16" s="20" t="n">
-        <v>246795</v>
+        <v>212602</v>
       </c>
       <c r="AQ16" s="20" t="n">
-        <v>212602</v>
+        <v>209784</v>
       </c>
       <c r="AR16" s="20" t="n">
-        <v>209784</v>
+        <v>287922</v>
       </c>
       <c r="AS16" s="20" t="n">
-        <v>287922</v>
+        <v>223509</v>
       </c>
       <c r="AT16" s="20" t="n">
-        <v>223509</v>
+        <v>210921</v>
       </c>
       <c r="AU16" s="20" t="n">
-        <v>210921</v>
+        <v>196897</v>
       </c>
       <c r="AV16" s="20" t="n">
-        <v>196897</v>
+        <v>229177</v>
       </c>
       <c r="AW16" s="20" t="n">
-        <v>229177</v>
+        <v>226208</v>
       </c>
       <c r="AX16" s="20" t="n">
-        <v>226208</v>
+        <v>174284</v>
       </c>
       <c r="AY16" s="20" t="n">
-        <v>174284</v>
+        <v>112465</v>
       </c>
       <c r="AZ16" s="20" t="n">
-        <v>112465</v>
+        <v>99619</v>
       </c>
       <c r="BA16" s="20" t="n">
-        <v>99619</v>
+        <v>114771</v>
       </c>
       <c r="BB16" s="20" t="n">
-        <v>114771</v>
+        <v>288148</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4190,8 +4190,8 @@
       <c r="T18" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="U18" s="18" t="s">
-        <v>58</v>
+      <c r="U18" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="V18" s="18" t="n">
         <v>0</v>
@@ -4348,106 +4348,106 @@
         <v>0</v>
       </c>
       <c r="U19" s="20" t="n">
-        <v>0</v>
+        <v>798455</v>
       </c>
       <c r="V19" s="20" t="n">
-        <v>798455</v>
+        <v>816638</v>
       </c>
       <c r="W19" s="20" t="n">
-        <v>816638</v>
+        <v>763009</v>
       </c>
       <c r="X19" s="20" t="n">
-        <v>763009</v>
+        <v>802285</v>
       </c>
       <c r="Y19" s="20" t="n">
-        <v>802285</v>
+        <v>797523</v>
       </c>
       <c r="Z19" s="20" t="n">
-        <v>797523</v>
+        <v>807522</v>
       </c>
       <c r="AA19" s="20" t="n">
-        <v>807522</v>
+        <v>514754</v>
       </c>
       <c r="AB19" s="20" t="n">
-        <v>514754</v>
+        <v>710484</v>
       </c>
       <c r="AC19" s="20" t="n">
-        <v>710484</v>
+        <v>810013</v>
       </c>
       <c r="AD19" s="20" t="n">
-        <v>810013</v>
+        <v>848267</v>
       </c>
       <c r="AE19" s="20" t="n">
-        <v>848267</v>
+        <v>823833</v>
       </c>
       <c r="AF19" s="20" t="n">
-        <v>823833</v>
+        <v>827104</v>
       </c>
       <c r="AG19" s="20" t="n">
-        <v>827104</v>
+        <v>790294</v>
       </c>
       <c r="AH19" s="20" t="n">
-        <v>790294</v>
+        <v>826977</v>
       </c>
       <c r="AI19" s="20" t="n">
-        <v>826977</v>
+        <v>541222</v>
       </c>
       <c r="AJ19" s="20" t="n">
-        <v>541222</v>
+        <v>642250</v>
       </c>
       <c r="AK19" s="20" t="n">
-        <v>642250</v>
+        <v>401479</v>
       </c>
       <c r="AL19" s="20" t="n">
-        <v>401479</v>
+        <v>482392</v>
       </c>
       <c r="AM19" s="20" t="n">
-        <v>482392</v>
+        <v>422036</v>
       </c>
       <c r="AN19" s="20" t="n">
-        <v>422036</v>
+        <v>547180</v>
       </c>
       <c r="AO19" s="20" t="n">
-        <v>547180</v>
+        <v>835315</v>
       </c>
       <c r="AP19" s="20" t="n">
-        <v>835315</v>
+        <v>704538</v>
       </c>
       <c r="AQ19" s="20" t="n">
-        <v>704538</v>
+        <v>716529</v>
       </c>
       <c r="AR19" s="20" t="n">
-        <v>716529</v>
+        <v>971858</v>
       </c>
       <c r="AS19" s="20" t="n">
-        <v>971858</v>
+        <v>773639</v>
       </c>
       <c r="AT19" s="20" t="n">
-        <v>773639</v>
+        <v>718018</v>
       </c>
       <c r="AU19" s="20" t="n">
-        <v>718018</v>
+        <v>663199</v>
       </c>
       <c r="AV19" s="20" t="n">
-        <v>663199</v>
+        <v>750953</v>
       </c>
       <c r="AW19" s="20" t="n">
-        <v>750953</v>
+        <v>749317</v>
       </c>
       <c r="AX19" s="20" t="n">
-        <v>749317</v>
+        <v>598532</v>
       </c>
       <c r="AY19" s="20" t="n">
-        <v>598532</v>
+        <v>405343</v>
       </c>
       <c r="AZ19" s="20" t="n">
-        <v>405343</v>
+        <v>370733</v>
       </c>
       <c r="BA19" s="20" t="n">
-        <v>370733</v>
+        <v>421680</v>
       </c>
       <c r="BB19" s="20" t="n">
-        <v>421680</v>
+        <v>958377</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4940,107 +4940,107 @@
       <c r="T26" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U26" s="13" t="s">
-        <v>58</v>
+      <c r="U26" s="13" t="n">
+        <v>92945</v>
       </c>
       <c r="V26" s="13" t="n">
-        <v>92945</v>
+        <v>118112</v>
       </c>
       <c r="W26" s="13" t="n">
-        <v>118112</v>
+        <v>113097</v>
       </c>
       <c r="X26" s="13" t="n">
-        <v>113097</v>
+        <v>120048</v>
       </c>
       <c r="Y26" s="13" t="n">
-        <v>120048</v>
+        <v>112161</v>
       </c>
       <c r="Z26" s="13" t="n">
-        <v>112161</v>
+        <v>93674</v>
       </c>
       <c r="AA26" s="13" t="n">
-        <v>93674</v>
+        <v>55487</v>
       </c>
       <c r="AB26" s="13" t="n">
-        <v>55487</v>
+        <v>74384</v>
       </c>
       <c r="AC26" s="13" t="n">
-        <v>74384</v>
+        <v>96352</v>
       </c>
       <c r="AD26" s="13" t="n">
-        <v>96352</v>
+        <v>114608</v>
       </c>
       <c r="AE26" s="13" t="n">
-        <v>114608</v>
+        <v>110556</v>
       </c>
       <c r="AF26" s="13" t="n">
-        <v>110556</v>
+        <v>107639</v>
       </c>
       <c r="AG26" s="13" t="n">
-        <v>107639</v>
+        <v>101988</v>
       </c>
       <c r="AH26" s="13" t="n">
-        <v>101988</v>
+        <v>121193</v>
       </c>
       <c r="AI26" s="13" t="n">
-        <v>121193</v>
+        <v>63766</v>
       </c>
       <c r="AJ26" s="13" t="n">
-        <v>63766</v>
+        <v>71881</v>
       </c>
       <c r="AK26" s="13" t="n">
-        <v>71881</v>
+        <v>39231</v>
       </c>
       <c r="AL26" s="13" t="n">
-        <v>39231</v>
+        <v>46986</v>
       </c>
       <c r="AM26" s="13" t="n">
-        <v>46986</v>
+        <v>49585</v>
       </c>
       <c r="AN26" s="13" t="n">
-        <v>49585</v>
+        <v>66039</v>
       </c>
       <c r="AO26" s="13" t="n">
-        <v>66039</v>
+        <v>97676</v>
       </c>
       <c r="AP26" s="13" t="n">
-        <v>97676</v>
+        <v>82520</v>
       </c>
       <c r="AQ26" s="13" t="n">
-        <v>82520</v>
+        <v>89625</v>
       </c>
       <c r="AR26" s="13" t="n">
-        <v>89625</v>
+        <v>134805</v>
       </c>
       <c r="AS26" s="13" t="n">
-        <v>134805</v>
+        <v>93397</v>
       </c>
       <c r="AT26" s="13" t="n">
-        <v>93397</v>
+        <v>88193</v>
       </c>
       <c r="AU26" s="13" t="n">
-        <v>88193</v>
+        <v>64618</v>
       </c>
       <c r="AV26" s="13" t="n">
-        <v>64618</v>
+        <v>69257</v>
       </c>
       <c r="AW26" s="13" t="n">
-        <v>69257</v>
+        <v>71617</v>
       </c>
       <c r="AX26" s="13" t="n">
-        <v>71617</v>
+        <v>71905</v>
       </c>
       <c r="AY26" s="13" t="n">
-        <v>71905</v>
+        <v>51603</v>
       </c>
       <c r="AZ26" s="13" t="n">
-        <v>51603</v>
+        <v>43597</v>
       </c>
       <c r="BA26" s="13" t="n">
-        <v>43597</v>
+        <v>46946</v>
       </c>
       <c r="BB26" s="13" t="n">
-        <v>46946</v>
+        <v>110278</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5099,107 +5099,107 @@
       <c r="T27" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U27" s="16" t="s">
-        <v>58</v>
+      <c r="U27" s="16" t="n">
+        <v>11448</v>
       </c>
       <c r="V27" s="16" t="n">
-        <v>11448</v>
+        <v>12731</v>
       </c>
       <c r="W27" s="16" t="n">
-        <v>12731</v>
+        <v>14222</v>
       </c>
       <c r="X27" s="16" t="n">
-        <v>14222</v>
+        <v>15391</v>
       </c>
       <c r="Y27" s="16" t="n">
-        <v>15391</v>
+        <v>16021</v>
       </c>
       <c r="Z27" s="16" t="n">
-        <v>16021</v>
+        <v>17859</v>
       </c>
       <c r="AA27" s="16" t="n">
-        <v>17859</v>
+        <v>17398</v>
       </c>
       <c r="AB27" s="16" t="n">
-        <v>17398</v>
+        <v>15426</v>
       </c>
       <c r="AC27" s="16" t="n">
-        <v>15426</v>
+        <v>20216</v>
       </c>
       <c r="AD27" s="16" t="n">
-        <v>20216</v>
+        <v>16656</v>
       </c>
       <c r="AE27" s="16" t="n">
-        <v>16656</v>
+        <v>21020</v>
       </c>
       <c r="AF27" s="16" t="n">
-        <v>21020</v>
+        <v>16318</v>
       </c>
       <c r="AG27" s="16" t="n">
-        <v>16318</v>
+        <v>17672</v>
       </c>
       <c r="AH27" s="16" t="n">
-        <v>17672</v>
+        <v>13411</v>
       </c>
       <c r="AI27" s="16" t="n">
-        <v>13411</v>
+        <v>15175</v>
       </c>
       <c r="AJ27" s="16" t="n">
-        <v>15175</v>
+        <v>16222</v>
       </c>
       <c r="AK27" s="16" t="n">
-        <v>16222</v>
+        <v>16787</v>
       </c>
       <c r="AL27" s="16" t="n">
-        <v>16787</v>
+        <v>20169</v>
       </c>
       <c r="AM27" s="16" t="n">
-        <v>20169</v>
+        <v>18755</v>
       </c>
       <c r="AN27" s="16" t="n">
-        <v>18755</v>
+        <v>16409</v>
       </c>
       <c r="AO27" s="16" t="n">
-        <v>16409</v>
+        <v>15506</v>
       </c>
       <c r="AP27" s="16" t="n">
-        <v>15506</v>
+        <v>9094</v>
       </c>
       <c r="AQ27" s="16" t="n">
-        <v>9094</v>
+        <v>16249</v>
       </c>
       <c r="AR27" s="16" t="n">
-        <v>16249</v>
+        <v>18486</v>
       </c>
       <c r="AS27" s="16" t="n">
-        <v>18486</v>
+        <v>17977</v>
       </c>
       <c r="AT27" s="16" t="n">
-        <v>17977</v>
+        <v>16125</v>
       </c>
       <c r="AU27" s="16" t="n">
-        <v>16125</v>
+        <v>14613</v>
       </c>
       <c r="AV27" s="16" t="n">
-        <v>14613</v>
+        <v>11331</v>
       </c>
       <c r="AW27" s="16" t="n">
-        <v>11331</v>
+        <v>14224</v>
       </c>
       <c r="AX27" s="16" t="n">
-        <v>14224</v>
+        <v>17419</v>
       </c>
       <c r="AY27" s="16" t="n">
-        <v>17419</v>
+        <v>20571</v>
       </c>
       <c r="AZ27" s="16" t="n">
-        <v>20571</v>
+        <v>16958</v>
       </c>
       <c r="BA27" s="16" t="n">
-        <v>16958</v>
+        <v>16847</v>
       </c>
       <c r="BB27" s="16" t="n">
-        <v>16847</v>
+        <v>14039</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5257,106 +5257,106 @@
         <v>0</v>
       </c>
       <c r="U28" s="18" t="n">
-        <v>0</v>
+        <v>104393</v>
       </c>
       <c r="V28" s="18" t="n">
-        <v>104393</v>
+        <v>130843</v>
       </c>
       <c r="W28" s="18" t="n">
-        <v>130843</v>
+        <v>127319</v>
       </c>
       <c r="X28" s="18" t="n">
-        <v>127319</v>
+        <v>135439</v>
       </c>
       <c r="Y28" s="18" t="n">
-        <v>135439</v>
+        <v>128182</v>
       </c>
       <c r="Z28" s="18" t="n">
-        <v>128182</v>
+        <v>111533</v>
       </c>
       <c r="AA28" s="18" t="n">
-        <v>111533</v>
+        <v>72885</v>
       </c>
       <c r="AB28" s="18" t="n">
-        <v>72885</v>
+        <v>89810</v>
       </c>
       <c r="AC28" s="18" t="n">
-        <v>89810</v>
+        <v>116568</v>
       </c>
       <c r="AD28" s="18" t="n">
-        <v>116568</v>
+        <v>131264</v>
       </c>
       <c r="AE28" s="18" t="n">
-        <v>131264</v>
+        <v>131576</v>
       </c>
       <c r="AF28" s="18" t="n">
-        <v>131576</v>
+        <v>123957</v>
       </c>
       <c r="AG28" s="18" t="n">
-        <v>123957</v>
+        <v>119660</v>
       </c>
       <c r="AH28" s="18" t="n">
-        <v>119660</v>
+        <v>134604</v>
       </c>
       <c r="AI28" s="18" t="n">
-        <v>134604</v>
+        <v>78941</v>
       </c>
       <c r="AJ28" s="18" t="n">
-        <v>78941</v>
+        <v>88103</v>
       </c>
       <c r="AK28" s="18" t="n">
-        <v>88103</v>
+        <v>56018</v>
       </c>
       <c r="AL28" s="18" t="n">
-        <v>56018</v>
+        <v>67155</v>
       </c>
       <c r="AM28" s="18" t="n">
-        <v>67155</v>
+        <v>68340</v>
       </c>
       <c r="AN28" s="18" t="n">
-        <v>68340</v>
+        <v>82448</v>
       </c>
       <c r="AO28" s="18" t="n">
-        <v>82448</v>
+        <v>113182</v>
       </c>
       <c r="AP28" s="18" t="n">
-        <v>113182</v>
+        <v>91614</v>
       </c>
       <c r="AQ28" s="18" t="n">
-        <v>91614</v>
+        <v>105874</v>
       </c>
       <c r="AR28" s="18" t="n">
-        <v>105874</v>
+        <v>153291</v>
       </c>
       <c r="AS28" s="18" t="n">
-        <v>153291</v>
+        <v>111374</v>
       </c>
       <c r="AT28" s="18" t="n">
-        <v>111374</v>
+        <v>104318</v>
       </c>
       <c r="AU28" s="18" t="n">
-        <v>104318</v>
+        <v>79231</v>
       </c>
       <c r="AV28" s="18" t="n">
-        <v>79231</v>
+        <v>80588</v>
       </c>
       <c r="AW28" s="18" t="n">
-        <v>80588</v>
+        <v>85841</v>
       </c>
       <c r="AX28" s="18" t="n">
-        <v>85841</v>
+        <v>89324</v>
       </c>
       <c r="AY28" s="18" t="n">
-        <v>89324</v>
+        <v>72174</v>
       </c>
       <c r="AZ28" s="18" t="n">
-        <v>72174</v>
+        <v>60555</v>
       </c>
       <c r="BA28" s="18" t="n">
-        <v>60555</v>
+        <v>63793</v>
       </c>
       <c r="BB28" s="18" t="n">
-        <v>63793</v>
+        <v>124317</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5472,107 +5472,107 @@
       <c r="T30" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U30" s="13" t="s">
-        <v>58</v>
+      <c r="U30" s="13" t="n">
+        <v>271600</v>
       </c>
       <c r="V30" s="13" t="n">
-        <v>271600</v>
+        <v>236760</v>
       </c>
       <c r="W30" s="13" t="n">
-        <v>236760</v>
+        <v>186678</v>
       </c>
       <c r="X30" s="13" t="n">
-        <v>186678</v>
+        <v>335297</v>
       </c>
       <c r="Y30" s="13" t="n">
-        <v>335297</v>
+        <v>271374</v>
       </c>
       <c r="Z30" s="13" t="n">
-        <v>271374</v>
+        <v>270416</v>
       </c>
       <c r="AA30" s="13" t="n">
-        <v>270416</v>
+        <v>141269</v>
       </c>
       <c r="AB30" s="13" t="n">
-        <v>141269</v>
+        <v>120513</v>
       </c>
       <c r="AC30" s="13" t="n">
-        <v>120513</v>
+        <v>240864</v>
       </c>
       <c r="AD30" s="13" t="n">
-        <v>240864</v>
+        <v>277817</v>
       </c>
       <c r="AE30" s="13" t="n">
-        <v>277817</v>
+        <v>284022</v>
       </c>
       <c r="AF30" s="13" t="n">
-        <v>284022</v>
+        <v>210931</v>
       </c>
       <c r="AG30" s="13" t="n">
-        <v>210931</v>
+        <v>213586</v>
       </c>
       <c r="AH30" s="13" t="n">
-        <v>213586</v>
+        <v>280098</v>
       </c>
       <c r="AI30" s="13" t="n">
-        <v>280098</v>
+        <v>173294</v>
       </c>
       <c r="AJ30" s="13" t="n">
-        <v>173294</v>
+        <v>202592</v>
       </c>
       <c r="AK30" s="13" t="n">
-        <v>202592</v>
+        <v>86351</v>
       </c>
       <c r="AL30" s="13" t="n">
-        <v>86351</v>
+        <v>134014</v>
       </c>
       <c r="AM30" s="13" t="n">
-        <v>134014</v>
+        <v>53662</v>
       </c>
       <c r="AN30" s="13" t="n">
-        <v>53662</v>
+        <v>79535</v>
       </c>
       <c r="AO30" s="13" t="n">
-        <v>79535</v>
+        <v>247159</v>
       </c>
       <c r="AP30" s="13" t="n">
-        <v>247159</v>
+        <v>202127</v>
       </c>
       <c r="AQ30" s="13" t="n">
-        <v>202127</v>
+        <v>240809</v>
       </c>
       <c r="AR30" s="13" t="n">
-        <v>240809</v>
+        <v>296901</v>
       </c>
       <c r="AS30" s="13" t="n">
-        <v>296901</v>
+        <v>289166</v>
       </c>
       <c r="AT30" s="13" t="n">
-        <v>289166</v>
+        <v>133789</v>
       </c>
       <c r="AU30" s="13" t="n">
-        <v>133789</v>
+        <v>274326</v>
       </c>
       <c r="AV30" s="13" t="n">
-        <v>274326</v>
+        <v>188430</v>
       </c>
       <c r="AW30" s="13" t="n">
-        <v>188430</v>
+        <v>176410</v>
       </c>
       <c r="AX30" s="13" t="n">
-        <v>176410</v>
+        <v>136235</v>
       </c>
       <c r="AY30" s="13" t="n">
-        <v>136235</v>
+        <v>120278</v>
       </c>
       <c r="AZ30" s="13" t="n">
-        <v>120278</v>
+        <v>120402</v>
       </c>
       <c r="BA30" s="13" t="n">
-        <v>120402</v>
+        <v>94577</v>
       </c>
       <c r="BB30" s="13" t="n">
-        <v>94577</v>
+        <v>194455</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5630,106 +5630,106 @@
         <v>0</v>
       </c>
       <c r="U31" s="20" t="n">
-        <v>0</v>
+        <v>271600</v>
       </c>
       <c r="V31" s="20" t="n">
-        <v>271600</v>
+        <v>236760</v>
       </c>
       <c r="W31" s="20" t="n">
-        <v>236760</v>
+        <v>186678</v>
       </c>
       <c r="X31" s="20" t="n">
-        <v>186678</v>
+        <v>335297</v>
       </c>
       <c r="Y31" s="20" t="n">
-        <v>335297</v>
+        <v>271374</v>
       </c>
       <c r="Z31" s="20" t="n">
-        <v>271374</v>
+        <v>270416</v>
       </c>
       <c r="AA31" s="20" t="n">
-        <v>270416</v>
+        <v>141269</v>
       </c>
       <c r="AB31" s="20" t="n">
-        <v>141269</v>
+        <v>120513</v>
       </c>
       <c r="AC31" s="20" t="n">
-        <v>120513</v>
+        <v>240864</v>
       </c>
       <c r="AD31" s="20" t="n">
-        <v>240864</v>
+        <v>277817</v>
       </c>
       <c r="AE31" s="20" t="n">
-        <v>277817</v>
+        <v>284022</v>
       </c>
       <c r="AF31" s="20" t="n">
-        <v>284022</v>
+        <v>210931</v>
       </c>
       <c r="AG31" s="20" t="n">
-        <v>210931</v>
+        <v>213586</v>
       </c>
       <c r="AH31" s="20" t="n">
-        <v>213586</v>
+        <v>280098</v>
       </c>
       <c r="AI31" s="20" t="n">
-        <v>280098</v>
+        <v>173294</v>
       </c>
       <c r="AJ31" s="20" t="n">
-        <v>173294</v>
+        <v>202592</v>
       </c>
       <c r="AK31" s="20" t="n">
-        <v>202592</v>
+        <v>86351</v>
       </c>
       <c r="AL31" s="20" t="n">
-        <v>86351</v>
+        <v>134014</v>
       </c>
       <c r="AM31" s="20" t="n">
-        <v>134014</v>
+        <v>53662</v>
       </c>
       <c r="AN31" s="20" t="n">
-        <v>53662</v>
+        <v>79535</v>
       </c>
       <c r="AO31" s="20" t="n">
-        <v>79535</v>
+        <v>247159</v>
       </c>
       <c r="AP31" s="20" t="n">
-        <v>247159</v>
+        <v>202127</v>
       </c>
       <c r="AQ31" s="20" t="n">
-        <v>202127</v>
+        <v>240809</v>
       </c>
       <c r="AR31" s="20" t="n">
-        <v>240809</v>
+        <v>296901</v>
       </c>
       <c r="AS31" s="20" t="n">
-        <v>296901</v>
+        <v>289166</v>
       </c>
       <c r="AT31" s="20" t="n">
-        <v>289166</v>
+        <v>133789</v>
       </c>
       <c r="AU31" s="20" t="n">
-        <v>133789</v>
+        <v>274326</v>
       </c>
       <c r="AV31" s="20" t="n">
-        <v>274326</v>
+        <v>188430</v>
       </c>
       <c r="AW31" s="20" t="n">
-        <v>188430</v>
+        <v>176410</v>
       </c>
       <c r="AX31" s="20" t="n">
-        <v>176410</v>
+        <v>136235</v>
       </c>
       <c r="AY31" s="20" t="n">
-        <v>136235</v>
+        <v>120278</v>
       </c>
       <c r="AZ31" s="20" t="n">
-        <v>120278</v>
+        <v>120402</v>
       </c>
       <c r="BA31" s="20" t="n">
-        <v>120402</v>
+        <v>94577</v>
       </c>
       <c r="BB31" s="20" t="n">
-        <v>94577</v>
+        <v>194455</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5843,8 +5843,8 @@
       <c r="T33" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="U33" s="18" t="s">
-        <v>58</v>
+      <c r="U33" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="V33" s="18" t="n">
         <v>0</v>
@@ -6057,8 +6057,8 @@
       <c r="T35" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="U35" s="18" t="s">
-        <v>58</v>
+      <c r="U35" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="V35" s="18" t="n">
         <v>0</v>
@@ -6215,106 +6215,106 @@
         <v>0</v>
       </c>
       <c r="U36" s="20" t="n">
-        <v>0</v>
+        <v>375994</v>
       </c>
       <c r="V36" s="20" t="n">
-        <v>375994</v>
+        <v>367602</v>
       </c>
       <c r="W36" s="20" t="n">
-        <v>367602</v>
+        <v>313997</v>
       </c>
       <c r="X36" s="20" t="n">
-        <v>313997</v>
+        <v>470736</v>
       </c>
       <c r="Y36" s="20" t="n">
-        <v>470736</v>
+        <v>399556</v>
       </c>
       <c r="Z36" s="20" t="n">
-        <v>399556</v>
+        <v>381949</v>
       </c>
       <c r="AA36" s="20" t="n">
-        <v>381949</v>
+        <v>214154</v>
       </c>
       <c r="AB36" s="20" t="n">
-        <v>214154</v>
+        <v>210323</v>
       </c>
       <c r="AC36" s="20" t="n">
-        <v>210323</v>
+        <v>357432</v>
       </c>
       <c r="AD36" s="20" t="n">
-        <v>357432</v>
+        <v>409081</v>
       </c>
       <c r="AE36" s="20" t="n">
-        <v>409081</v>
+        <v>415598</v>
       </c>
       <c r="AF36" s="20" t="n">
-        <v>415598</v>
+        <v>334888</v>
       </c>
       <c r="AG36" s="20" t="n">
-        <v>334888</v>
+        <v>333246</v>
       </c>
       <c r="AH36" s="20" t="n">
-        <v>333246</v>
+        <v>414702</v>
       </c>
       <c r="AI36" s="20" t="n">
-        <v>414702</v>
+        <v>252235</v>
       </c>
       <c r="AJ36" s="20" t="n">
-        <v>252235</v>
+        <v>290695</v>
       </c>
       <c r="AK36" s="20" t="n">
-        <v>290695</v>
+        <v>142369</v>
       </c>
       <c r="AL36" s="20" t="n">
-        <v>142369</v>
+        <v>201169</v>
       </c>
       <c r="AM36" s="20" t="n">
-        <v>201169</v>
+        <v>122002</v>
       </c>
       <c r="AN36" s="20" t="n">
-        <v>122002</v>
+        <v>161983</v>
       </c>
       <c r="AO36" s="20" t="n">
-        <v>161983</v>
+        <v>360340</v>
       </c>
       <c r="AP36" s="20" t="n">
-        <v>360340</v>
+        <v>293741</v>
       </c>
       <c r="AQ36" s="20" t="n">
-        <v>293741</v>
+        <v>346683</v>
       </c>
       <c r="AR36" s="20" t="n">
-        <v>346683</v>
+        <v>450192</v>
       </c>
       <c r="AS36" s="20" t="n">
-        <v>450192</v>
+        <v>400540</v>
       </c>
       <c r="AT36" s="20" t="n">
-        <v>400540</v>
+        <v>238106</v>
       </c>
       <c r="AU36" s="20" t="n">
-        <v>238106</v>
+        <v>353557</v>
       </c>
       <c r="AV36" s="20" t="n">
-        <v>353557</v>
+        <v>269018</v>
       </c>
       <c r="AW36" s="20" t="n">
-        <v>269018</v>
+        <v>262251</v>
       </c>
       <c r="AX36" s="20" t="n">
-        <v>262251</v>
+        <v>225559</v>
       </c>
       <c r="AY36" s="20" t="n">
-        <v>225559</v>
+        <v>192452</v>
       </c>
       <c r="AZ36" s="20" t="n">
-        <v>192452</v>
+        <v>180957</v>
       </c>
       <c r="BA36" s="20" t="n">
-        <v>180957</v>
+        <v>158370</v>
       </c>
       <c r="BB36" s="20" t="n">
-        <v>158370</v>
+        <v>318772</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6807,107 +6807,107 @@
       <c r="T43" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U43" s="13" t="s">
-        <v>58</v>
+      <c r="U43" s="13" t="n">
+        <v>62471</v>
       </c>
       <c r="V43" s="13" t="n">
-        <v>62471</v>
+        <v>79387</v>
       </c>
       <c r="W43" s="13" t="n">
-        <v>79387</v>
+        <v>76015</v>
       </c>
       <c r="X43" s="13" t="n">
-        <v>76015</v>
+        <v>80688</v>
       </c>
       <c r="Y43" s="13" t="n">
-        <v>80688</v>
+        <v>75387</v>
       </c>
       <c r="Z43" s="13" t="n">
-        <v>75387</v>
+        <v>62961</v>
       </c>
       <c r="AA43" s="13" t="n">
-        <v>62961</v>
+        <v>37295</v>
       </c>
       <c r="AB43" s="13" t="n">
-        <v>37295</v>
+        <v>49995</v>
       </c>
       <c r="AC43" s="13" t="n">
-        <v>49995</v>
+        <v>64762</v>
       </c>
       <c r="AD43" s="13" t="n">
-        <v>64762</v>
+        <v>91826</v>
       </c>
       <c r="AE43" s="13" t="n">
-        <v>91826</v>
+        <v>88580</v>
       </c>
       <c r="AF43" s="13" t="n">
-        <v>88580</v>
+        <v>86243</v>
       </c>
       <c r="AG43" s="13" t="n">
-        <v>86243</v>
+        <v>81715</v>
       </c>
       <c r="AH43" s="13" t="n">
-        <v>81715</v>
+        <v>97103</v>
       </c>
       <c r="AI43" s="13" t="n">
-        <v>97103</v>
+        <v>51091</v>
       </c>
       <c r="AJ43" s="13" t="n">
-        <v>51091</v>
+        <v>57592</v>
       </c>
       <c r="AK43" s="13" t="n">
-        <v>57592</v>
+        <v>31433</v>
       </c>
       <c r="AL43" s="13" t="n">
-        <v>31433</v>
+        <v>37646</v>
       </c>
       <c r="AM43" s="13" t="n">
-        <v>37646</v>
+        <v>39732</v>
       </c>
       <c r="AN43" s="13" t="n">
-        <v>39732</v>
+        <v>52912</v>
       </c>
       <c r="AO43" s="13" t="n">
-        <v>52912</v>
+        <v>78260</v>
       </c>
       <c r="AP43" s="13" t="n">
-        <v>78260</v>
+        <v>66116</v>
       </c>
       <c r="AQ43" s="13" t="n">
-        <v>66116</v>
+        <v>157981</v>
       </c>
       <c r="AR43" s="13" t="n">
-        <v>157981</v>
+        <v>243020</v>
       </c>
       <c r="AS43" s="13" t="n">
-        <v>243020</v>
+        <v>168371</v>
       </c>
       <c r="AT43" s="13" t="n">
-        <v>168371</v>
+        <v>158990</v>
       </c>
       <c r="AU43" s="13" t="n">
-        <v>158990</v>
+        <v>116490</v>
       </c>
       <c r="AV43" s="13" t="n">
-        <v>116490</v>
+        <v>124853</v>
       </c>
       <c r="AW43" s="13" t="n">
-        <v>124853</v>
+        <v>129107</v>
       </c>
       <c r="AX43" s="13" t="n">
-        <v>129107</v>
+        <v>129627</v>
       </c>
       <c r="AY43" s="13" t="n">
-        <v>129627</v>
+        <v>93027</v>
       </c>
       <c r="AZ43" s="13" t="n">
-        <v>93027</v>
+        <v>78594</v>
       </c>
       <c r="BA43" s="13" t="n">
-        <v>78594</v>
+        <v>84632</v>
       </c>
       <c r="BB43" s="13" t="n">
-        <v>84632</v>
+        <v>220893</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6966,107 +6966,107 @@
       <c r="T44" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U44" s="16" t="s">
-        <v>58</v>
+      <c r="U44" s="16" t="n">
+        <v>179605</v>
       </c>
       <c r="V44" s="16" t="n">
-        <v>179605</v>
+        <v>233842</v>
       </c>
       <c r="W44" s="16" t="n">
-        <v>233842</v>
+        <v>303463</v>
       </c>
       <c r="X44" s="16" t="n">
-        <v>303463</v>
+        <v>452623</v>
       </c>
       <c r="Y44" s="16" t="n">
-        <v>452623</v>
+        <v>556025</v>
       </c>
       <c r="Z44" s="16" t="n">
-        <v>556025</v>
+        <v>806040</v>
       </c>
       <c r="AA44" s="16" t="n">
-        <v>806040</v>
+        <v>1035387</v>
       </c>
       <c r="AB44" s="16" t="n">
-        <v>1035387</v>
+        <v>904527</v>
       </c>
       <c r="AC44" s="16" t="n">
-        <v>904527</v>
+        <v>1172681</v>
       </c>
       <c r="AD44" s="16" t="n">
-        <v>1172681</v>
+        <v>939959</v>
       </c>
       <c r="AE44" s="16" t="n">
-        <v>939959</v>
+        <v>1179671</v>
       </c>
       <c r="AF44" s="16" t="n">
-        <v>1179671</v>
+        <v>834877</v>
       </c>
       <c r="AG44" s="16" t="n">
-        <v>834877</v>
+        <v>910732</v>
       </c>
       <c r="AH44" s="16" t="n">
-        <v>910732</v>
+        <v>759722</v>
       </c>
       <c r="AI44" s="16" t="n">
-        <v>759722</v>
+        <v>926164</v>
       </c>
       <c r="AJ44" s="16" t="n">
-        <v>926164</v>
+        <v>1126439</v>
       </c>
       <c r="AK44" s="16" t="n">
-        <v>1126439</v>
+        <v>1440917</v>
       </c>
       <c r="AL44" s="16" t="n">
-        <v>1440917</v>
+        <v>1827042</v>
       </c>
       <c r="AM44" s="16" t="n">
-        <v>1827042</v>
+        <v>1481686</v>
       </c>
       <c r="AN44" s="16" t="n">
-        <v>1481686</v>
+        <v>1178175</v>
       </c>
       <c r="AO44" s="16" t="n">
-        <v>1178175</v>
+        <v>1086502</v>
       </c>
       <c r="AP44" s="16" t="n">
-        <v>1086502</v>
+        <v>654128</v>
       </c>
       <c r="AQ44" s="16" t="n">
-        <v>654128</v>
+        <v>1200800</v>
       </c>
       <c r="AR44" s="16" t="n">
-        <v>1200800</v>
+        <v>1166169</v>
       </c>
       <c r="AS44" s="16" t="n">
-        <v>1166169</v>
+        <v>1091360</v>
       </c>
       <c r="AT44" s="16" t="n">
-        <v>1091360</v>
+        <v>969030</v>
       </c>
       <c r="AU44" s="16" t="n">
-        <v>969030</v>
+        <v>913537</v>
       </c>
       <c r="AV44" s="16" t="n">
-        <v>913537</v>
+        <v>743377</v>
       </c>
       <c r="AW44" s="16" t="n">
-        <v>743377</v>
+        <v>963568</v>
       </c>
       <c r="AX44" s="16" t="n">
-        <v>963568</v>
+        <v>1132754</v>
       </c>
       <c r="AY44" s="16" t="n">
-        <v>1132754</v>
+        <v>1737071</v>
       </c>
       <c r="AZ44" s="16" t="n">
-        <v>1737071</v>
+        <v>1461707</v>
       </c>
       <c r="BA44" s="16" t="n">
-        <v>1461707</v>
+        <v>1338772</v>
       </c>
       <c r="BB44" s="16" t="n">
-        <v>1338772</v>
+        <v>1072811</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7124,106 +7124,106 @@
         <v>0</v>
       </c>
       <c r="U45" s="18" t="n">
-        <v>0</v>
+        <v>242076</v>
       </c>
       <c r="V45" s="18" t="n">
-        <v>242076</v>
+        <v>313229</v>
       </c>
       <c r="W45" s="18" t="n">
-        <v>313229</v>
+        <v>379478</v>
       </c>
       <c r="X45" s="18" t="n">
-        <v>379478</v>
+        <v>533311</v>
       </c>
       <c r="Y45" s="18" t="n">
-        <v>533311</v>
+        <v>631412</v>
       </c>
       <c r="Z45" s="18" t="n">
-        <v>631412</v>
+        <v>869001</v>
       </c>
       <c r="AA45" s="18" t="n">
-        <v>869001</v>
+        <v>1072682</v>
       </c>
       <c r="AB45" s="18" t="n">
-        <v>1072682</v>
+        <v>954522</v>
       </c>
       <c r="AC45" s="18" t="n">
-        <v>954522</v>
+        <v>1237443</v>
       </c>
       <c r="AD45" s="18" t="n">
-        <v>1237443</v>
+        <v>1031785</v>
       </c>
       <c r="AE45" s="18" t="n">
-        <v>1031785</v>
+        <v>1268251</v>
       </c>
       <c r="AF45" s="18" t="n">
-        <v>1268251</v>
+        <v>921120</v>
       </c>
       <c r="AG45" s="18" t="n">
-        <v>921120</v>
+        <v>992447</v>
       </c>
       <c r="AH45" s="18" t="n">
-        <v>992447</v>
+        <v>856825</v>
       </c>
       <c r="AI45" s="18" t="n">
-        <v>856825</v>
+        <v>977255</v>
       </c>
       <c r="AJ45" s="18" t="n">
-        <v>977255</v>
+        <v>1184031</v>
       </c>
       <c r="AK45" s="18" t="n">
-        <v>1184031</v>
+        <v>1472350</v>
       </c>
       <c r="AL45" s="18" t="n">
-        <v>1472350</v>
+        <v>1864688</v>
       </c>
       <c r="AM45" s="18" t="n">
-        <v>1864688</v>
+        <v>1521418</v>
       </c>
       <c r="AN45" s="18" t="n">
-        <v>1521418</v>
+        <v>1231087</v>
       </c>
       <c r="AO45" s="18" t="n">
-        <v>1231087</v>
+        <v>1164762</v>
       </c>
       <c r="AP45" s="18" t="n">
-        <v>1164762</v>
+        <v>720244</v>
       </c>
       <c r="AQ45" s="18" t="n">
-        <v>720244</v>
+        <v>1358781</v>
       </c>
       <c r="AR45" s="18" t="n">
-        <v>1358781</v>
+        <v>1409189</v>
       </c>
       <c r="AS45" s="18" t="n">
-        <v>1409189</v>
+        <v>1259731</v>
       </c>
       <c r="AT45" s="18" t="n">
-        <v>1259731</v>
+        <v>1128020</v>
       </c>
       <c r="AU45" s="18" t="n">
-        <v>1128020</v>
+        <v>1030027</v>
       </c>
       <c r="AV45" s="18" t="n">
-        <v>1030027</v>
+        <v>868230</v>
       </c>
       <c r="AW45" s="18" t="n">
-        <v>868230</v>
+        <v>1092675</v>
       </c>
       <c r="AX45" s="18" t="n">
-        <v>1092675</v>
+        <v>1262381</v>
       </c>
       <c r="AY45" s="18" t="n">
-        <v>1262381</v>
+        <v>1830098</v>
       </c>
       <c r="AZ45" s="18" t="n">
-        <v>1830098</v>
+        <v>1540301</v>
       </c>
       <c r="BA45" s="18" t="n">
-        <v>1540301</v>
+        <v>1423404</v>
       </c>
       <c r="BB45" s="18" t="n">
-        <v>1423404</v>
+        <v>1293704</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7339,107 +7339,107 @@
       <c r="T47" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U47" s="13" t="s">
-        <v>58</v>
+      <c r="U47" s="13" t="n">
+        <v>7544580</v>
       </c>
       <c r="V47" s="13" t="n">
-        <v>7544580</v>
+        <v>7296095</v>
       </c>
       <c r="W47" s="13" t="n">
-        <v>7296095</v>
+        <v>6958239</v>
       </c>
       <c r="X47" s="13" t="n">
-        <v>6958239</v>
+        <v>16118070</v>
       </c>
       <c r="Y47" s="13" t="n">
-        <v>16118070</v>
+        <v>15727367</v>
       </c>
       <c r="Z47" s="13" t="n">
-        <v>15727367</v>
+        <v>17251203</v>
       </c>
       <c r="AA47" s="13" t="n">
-        <v>17251203</v>
+        <v>10355667</v>
       </c>
       <c r="AB47" s="13" t="n">
-        <v>10355667</v>
+        <v>8745341</v>
       </c>
       <c r="AC47" s="13" t="n">
-        <v>8745341</v>
+        <v>16964784</v>
       </c>
       <c r="AD47" s="13" t="n">
-        <v>16964784</v>
+        <v>20031872</v>
       </c>
       <c r="AE47" s="13" t="n">
-        <v>20031872</v>
+        <v>18967445</v>
       </c>
       <c r="AF47" s="13" t="n">
-        <v>18967445</v>
+        <v>13885885</v>
       </c>
       <c r="AG47" s="13" t="n">
-        <v>13885885</v>
+        <v>15431535</v>
       </c>
       <c r="AH47" s="13" t="n">
-        <v>15431535</v>
+        <v>21294537</v>
       </c>
       <c r="AI47" s="13" t="n">
-        <v>21294537</v>
+        <v>13458112</v>
       </c>
       <c r="AJ47" s="13" t="n">
-        <v>13458112</v>
+        <v>19187801</v>
       </c>
       <c r="AK47" s="13" t="n">
-        <v>19187801</v>
+        <v>8434512</v>
       </c>
       <c r="AL47" s="13" t="n">
-        <v>8434512</v>
+        <v>11779879</v>
       </c>
       <c r="AM47" s="13" t="n">
-        <v>11779879</v>
+        <v>4397253</v>
       </c>
       <c r="AN47" s="13" t="n">
-        <v>4397253</v>
+        <v>6744076</v>
       </c>
       <c r="AO47" s="13" t="n">
-        <v>6744076</v>
+        <v>23560882</v>
       </c>
       <c r="AP47" s="13" t="n">
-        <v>23560882</v>
+        <v>19248509</v>
       </c>
       <c r="AQ47" s="13" t="n">
-        <v>19248509</v>
+        <v>22551976</v>
       </c>
       <c r="AR47" s="13" t="n">
-        <v>22551976</v>
+        <v>25750490</v>
       </c>
       <c r="AS47" s="13" t="n">
-        <v>25750490</v>
+        <v>24280487</v>
       </c>
       <c r="AT47" s="13" t="n">
-        <v>24280487</v>
+        <v>10700191</v>
       </c>
       <c r="AU47" s="13" t="n">
-        <v>10700191</v>
+        <v>21897107</v>
       </c>
       <c r="AV47" s="13" t="n">
-        <v>21897107</v>
+        <v>15497845</v>
       </c>
       <c r="AW47" s="13" t="n">
-        <v>15497845</v>
+        <v>14880729</v>
       </c>
       <c r="AX47" s="13" t="n">
-        <v>14880729</v>
+        <v>11706778</v>
       </c>
       <c r="AY47" s="13" t="n">
-        <v>11706778</v>
+        <v>10803581</v>
       </c>
       <c r="AZ47" s="13" t="n">
-        <v>10803581</v>
+        <v>10915122</v>
       </c>
       <c r="BA47" s="13" t="n">
-        <v>10915122</v>
+        <v>10870213</v>
       </c>
       <c r="BB47" s="13" t="n">
-        <v>10870213</v>
+        <v>22246368</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7497,106 +7497,106 @@
         <v>0</v>
       </c>
       <c r="U48" s="20" t="n">
-        <v>0</v>
+        <v>7544580</v>
       </c>
       <c r="V48" s="20" t="n">
-        <v>7544580</v>
+        <v>7296095</v>
       </c>
       <c r="W48" s="20" t="n">
-        <v>7296095</v>
+        <v>6958239</v>
       </c>
       <c r="X48" s="20" t="n">
-        <v>6958239</v>
+        <v>16118070</v>
       </c>
       <c r="Y48" s="20" t="n">
-        <v>16118070</v>
+        <v>15727367</v>
       </c>
       <c r="Z48" s="20" t="n">
-        <v>15727367</v>
+        <v>17251203</v>
       </c>
       <c r="AA48" s="20" t="n">
-        <v>17251203</v>
+        <v>10355667</v>
       </c>
       <c r="AB48" s="20" t="n">
-        <v>10355667</v>
+        <v>8745341</v>
       </c>
       <c r="AC48" s="20" t="n">
-        <v>8745341</v>
+        <v>16964784</v>
       </c>
       <c r="AD48" s="20" t="n">
-        <v>16964784</v>
+        <v>20031872</v>
       </c>
       <c r="AE48" s="20" t="n">
-        <v>20031872</v>
+        <v>18967445</v>
       </c>
       <c r="AF48" s="20" t="n">
-        <v>18967445</v>
+        <v>13885885</v>
       </c>
       <c r="AG48" s="20" t="n">
-        <v>13885885</v>
+        <v>15431535</v>
       </c>
       <c r="AH48" s="20" t="n">
-        <v>15431535</v>
+        <v>21294537</v>
       </c>
       <c r="AI48" s="20" t="n">
-        <v>21294537</v>
+        <v>13458112</v>
       </c>
       <c r="AJ48" s="20" t="n">
-        <v>13458112</v>
+        <v>19187801</v>
       </c>
       <c r="AK48" s="20" t="n">
-        <v>19187801</v>
+        <v>8434512</v>
       </c>
       <c r="AL48" s="20" t="n">
-        <v>8434512</v>
+        <v>11779879</v>
       </c>
       <c r="AM48" s="20" t="n">
-        <v>11779879</v>
+        <v>4397253</v>
       </c>
       <c r="AN48" s="20" t="n">
-        <v>4397253</v>
+        <v>6744076</v>
       </c>
       <c r="AO48" s="20" t="n">
-        <v>6744076</v>
+        <v>23560882</v>
       </c>
       <c r="AP48" s="20" t="n">
-        <v>23560882</v>
+        <v>19248509</v>
       </c>
       <c r="AQ48" s="20" t="n">
-        <v>19248509</v>
+        <v>22551976</v>
       </c>
       <c r="AR48" s="20" t="n">
-        <v>22551976</v>
+        <v>25750490</v>
       </c>
       <c r="AS48" s="20" t="n">
-        <v>25750490</v>
+        <v>24280487</v>
       </c>
       <c r="AT48" s="20" t="n">
-        <v>24280487</v>
+        <v>10700191</v>
       </c>
       <c r="AU48" s="20" t="n">
-        <v>10700191</v>
+        <v>21897107</v>
       </c>
       <c r="AV48" s="20" t="n">
-        <v>21897107</v>
+        <v>15497845</v>
       </c>
       <c r="AW48" s="20" t="n">
-        <v>15497845</v>
+        <v>14880729</v>
       </c>
       <c r="AX48" s="20" t="n">
-        <v>14880729</v>
+        <v>11706778</v>
       </c>
       <c r="AY48" s="20" t="n">
-        <v>11706778</v>
+        <v>10803581</v>
       </c>
       <c r="AZ48" s="20" t="n">
-        <v>10803581</v>
+        <v>10915122</v>
       </c>
       <c r="BA48" s="20" t="n">
-        <v>10915122</v>
+        <v>10870213</v>
       </c>
       <c r="BB48" s="20" t="n">
-        <v>10870213</v>
+        <v>22246368</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7712,8 +7712,8 @@
       <c r="T50" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="U50" s="18" t="s">
-        <v>58</v>
+      <c r="U50" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V50" s="23" t="n">
         <v>0</v>
@@ -7928,8 +7928,8 @@
       <c r="T52" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="U52" s="18" t="s">
-        <v>58</v>
+      <c r="U52" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V52" s="23" t="n">
         <v>0</v>
@@ -8144,8 +8144,8 @@
       <c r="T54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U54" s="13" t="s">
-        <v>58</v>
+      <c r="U54" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V54" s="13" t="n">
         <v>0</v>
@@ -8302,106 +8302,106 @@
         <v>0</v>
       </c>
       <c r="U55" s="20" t="n">
-        <v>0</v>
+        <v>7786656</v>
       </c>
       <c r="V55" s="20" t="n">
-        <v>7786656</v>
+        <v>7609324</v>
       </c>
       <c r="W55" s="20" t="n">
-        <v>7609324</v>
+        <v>7337717</v>
       </c>
       <c r="X55" s="20" t="n">
-        <v>7337717</v>
+        <v>16651381</v>
       </c>
       <c r="Y55" s="20" t="n">
-        <v>16651381</v>
+        <v>16358779</v>
       </c>
       <c r="Z55" s="20" t="n">
-        <v>16358779</v>
+        <v>18120204</v>
       </c>
       <c r="AA55" s="20" t="n">
-        <v>18120204</v>
+        <v>11428349</v>
       </c>
       <c r="AB55" s="20" t="n">
-        <v>11428349</v>
+        <v>9699863</v>
       </c>
       <c r="AC55" s="20" t="n">
-        <v>9699863</v>
+        <v>18202227</v>
       </c>
       <c r="AD55" s="20" t="n">
-        <v>18202227</v>
+        <v>21063657</v>
       </c>
       <c r="AE55" s="20" t="n">
-        <v>21063657</v>
+        <v>20235696</v>
       </c>
       <c r="AF55" s="20" t="n">
-        <v>20235696</v>
+        <v>14807005</v>
       </c>
       <c r="AG55" s="20" t="n">
-        <v>14807005</v>
+        <v>16423982</v>
       </c>
       <c r="AH55" s="20" t="n">
-        <v>16423982</v>
+        <v>22151362</v>
       </c>
       <c r="AI55" s="20" t="n">
-        <v>22151362</v>
+        <v>14435367</v>
       </c>
       <c r="AJ55" s="20" t="n">
-        <v>14435367</v>
+        <v>20371832</v>
       </c>
       <c r="AK55" s="20" t="n">
-        <v>20371832</v>
+        <v>9906862</v>
       </c>
       <c r="AL55" s="20" t="n">
-        <v>9906862</v>
+        <v>13644567</v>
       </c>
       <c r="AM55" s="20" t="n">
-        <v>13644567</v>
+        <v>5918671</v>
       </c>
       <c r="AN55" s="20" t="n">
-        <v>5918671</v>
+        <v>7975163</v>
       </c>
       <c r="AO55" s="20" t="n">
-        <v>7975163</v>
+        <v>24725644</v>
       </c>
       <c r="AP55" s="20" t="n">
-        <v>24725644</v>
+        <v>19968753</v>
       </c>
       <c r="AQ55" s="20" t="n">
-        <v>19968753</v>
+        <v>23910757</v>
       </c>
       <c r="AR55" s="20" t="n">
-        <v>23910757</v>
+        <v>27159679</v>
       </c>
       <c r="AS55" s="20" t="n">
-        <v>27159679</v>
+        <v>25540218</v>
       </c>
       <c r="AT55" s="20" t="n">
-        <v>25540218</v>
+        <v>11828211</v>
       </c>
       <c r="AU55" s="20" t="n">
-        <v>11828211</v>
+        <v>22927134</v>
       </c>
       <c r="AV55" s="20" t="n">
-        <v>22927134</v>
+        <v>16366075</v>
       </c>
       <c r="AW55" s="20" t="n">
-        <v>16366075</v>
+        <v>15973404</v>
       </c>
       <c r="AX55" s="20" t="n">
-        <v>15973404</v>
+        <v>12969159</v>
       </c>
       <c r="AY55" s="20" t="n">
-        <v>12969159</v>
+        <v>12633679</v>
       </c>
       <c r="AZ55" s="20" t="n">
-        <v>12633679</v>
+        <v>12455423</v>
       </c>
       <c r="BA55" s="20" t="n">
-        <v>12455423</v>
+        <v>12293617</v>
       </c>
       <c r="BB55" s="20" t="n">
-        <v>12293617</v>
+        <v>23540072</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8894,107 +8894,107 @@
       <c r="T62" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U62" s="13" t="s">
-        <v>58</v>
+      <c r="U62" s="13" t="n">
+        <v>672129</v>
       </c>
       <c r="V62" s="13" t="n">
+        <v>672133</v>
+      </c>
+      <c r="W62" s="13" t="n">
+        <v>672122</v>
+      </c>
+      <c r="X62" s="13" t="n">
+        <v>672131</v>
+      </c>
+      <c r="Y62" s="13" t="n">
+        <v>672132</v>
+      </c>
+      <c r="Z62" s="13" t="n">
         <v>672129</v>
       </c>
-      <c r="W62" s="13" t="n">
-        <v>672133</v>
-      </c>
-      <c r="X62" s="13" t="n">
-        <v>672122</v>
-      </c>
-      <c r="Y62" s="13" t="n">
-        <v>672131</v>
-      </c>
-      <c r="Z62" s="13" t="n">
+      <c r="AA62" s="13" t="n">
         <v>672132</v>
       </c>
-      <c r="AA62" s="13" t="n">
-        <v>672129</v>
-      </c>
       <c r="AB62" s="13" t="n">
-        <v>672132</v>
+        <v>672120</v>
       </c>
       <c r="AC62" s="13" t="n">
-        <v>672120</v>
+        <v>672140</v>
       </c>
       <c r="AD62" s="13" t="n">
-        <v>672140</v>
+        <v>801218</v>
       </c>
       <c r="AE62" s="13" t="n">
-        <v>801218</v>
+        <v>801223</v>
       </c>
       <c r="AF62" s="13" t="n">
-        <v>801223</v>
+        <v>801224</v>
       </c>
       <c r="AG62" s="13" t="n">
-        <v>801224</v>
+        <v>801222</v>
       </c>
       <c r="AH62" s="13" t="n">
-        <v>801222</v>
+        <v>801226</v>
       </c>
       <c r="AI62" s="13" t="n">
         <v>801226</v>
       </c>
       <c r="AJ62" s="13" t="n">
-        <v>801226</v>
+        <v>801213</v>
       </c>
       <c r="AK62" s="13" t="n">
-        <v>801213</v>
+        <v>801229</v>
       </c>
       <c r="AL62" s="13" t="n">
-        <v>801229</v>
+        <v>801217</v>
       </c>
       <c r="AM62" s="13" t="n">
-        <v>801217</v>
+        <v>801291</v>
       </c>
       <c r="AN62" s="13" t="n">
-        <v>801291</v>
+        <v>801224</v>
       </c>
       <c r="AO62" s="13" t="n">
-        <v>801224</v>
+        <v>801220</v>
       </c>
       <c r="AP62" s="13" t="n">
-        <v>801220</v>
+        <v>801212</v>
       </c>
       <c r="AQ62" s="13" t="n">
-        <v>801212</v>
+        <v>1762689</v>
       </c>
       <c r="AR62" s="13" t="n">
-        <v>1762689</v>
+        <v>1802752</v>
       </c>
       <c r="AS62" s="13" t="n">
+        <v>1802745</v>
+      </c>
+      <c r="AT62" s="13" t="n">
+        <v>1802751</v>
+      </c>
+      <c r="AU62" s="13" t="n">
+        <v>1802748</v>
+      </c>
+      <c r="AV62" s="13" t="n">
+        <v>1802749</v>
+      </c>
+      <c r="AW62" s="13" t="n">
+        <v>1802742</v>
+      </c>
+      <c r="AX62" s="13" t="n">
+        <v>1802754</v>
+      </c>
+      <c r="AY62" s="13" t="n">
+        <v>1802744</v>
+      </c>
+      <c r="AZ62" s="13" t="n">
+        <v>1802739</v>
+      </c>
+      <c r="BA62" s="13" t="n">
         <v>1802752</v>
       </c>
-      <c r="AT62" s="13" t="n">
-        <v>1802745</v>
-      </c>
-      <c r="AU62" s="13" t="n">
-        <v>1802751</v>
-      </c>
-      <c r="AV62" s="13" t="n">
-        <v>1802748</v>
-      </c>
-      <c r="AW62" s="13" t="n">
-        <v>1802749</v>
-      </c>
-      <c r="AX62" s="13" t="n">
-        <v>1802742</v>
-      </c>
-      <c r="AY62" s="13" t="n">
-        <v>1802754</v>
-      </c>
-      <c r="AZ62" s="13" t="n">
-        <v>1802744</v>
-      </c>
-      <c r="BA62" s="13" t="n">
-        <v>1802739</v>
-      </c>
       <c r="BB62" s="13" t="n">
-        <v>1802752</v>
+        <v>2003056</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9053,107 +9053,107 @@
       <c r="T63" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U63" s="16" t="s">
-        <v>58</v>
+      <c r="U63" s="16" t="n">
+        <v>15688218</v>
       </c>
       <c r="V63" s="16" t="n">
-        <v>15688218</v>
+        <v>18368296</v>
       </c>
       <c r="W63" s="16" t="n">
-        <v>18368296</v>
+        <v>21337576</v>
       </c>
       <c r="X63" s="16" t="n">
-        <v>21337576</v>
+        <v>29408291</v>
       </c>
       <c r="Y63" s="16" t="n">
-        <v>29408291</v>
+        <v>34705513</v>
       </c>
       <c r="Z63" s="16" t="n">
-        <v>34705513</v>
+        <v>45133950</v>
       </c>
       <c r="AA63" s="16" t="n">
-        <v>45133950</v>
+        <v>59511840</v>
       </c>
       <c r="AB63" s="16" t="n">
-        <v>59511840</v>
+        <v>58635763</v>
       </c>
       <c r="AC63" s="16" t="n">
-        <v>58635763</v>
+        <v>58008142</v>
       </c>
       <c r="AD63" s="16" t="n">
-        <v>58008142</v>
+        <v>56433048</v>
       </c>
       <c r="AE63" s="16" t="n">
-        <v>56433048</v>
+        <v>56121361</v>
       </c>
       <c r="AF63" s="16" t="n">
-        <v>56121361</v>
+        <v>51162949</v>
       </c>
       <c r="AG63" s="16" t="n">
-        <v>51162949</v>
+        <v>51535310</v>
       </c>
       <c r="AH63" s="16" t="n">
-        <v>51535310</v>
+        <v>56649169</v>
       </c>
       <c r="AI63" s="16" t="n">
-        <v>56649169</v>
+        <v>61032224</v>
       </c>
       <c r="AJ63" s="16" t="n">
-        <v>61032224</v>
+        <v>69439186</v>
       </c>
       <c r="AK63" s="16" t="n">
-        <v>69439186</v>
+        <v>85837795</v>
       </c>
       <c r="AL63" s="16" t="n">
-        <v>85837795</v>
+        <v>90586643</v>
       </c>
       <c r="AM63" s="16" t="n">
-        <v>90586643</v>
+        <v>79002186</v>
       </c>
       <c r="AN63" s="16" t="n">
-        <v>79002186</v>
+        <v>71800536</v>
       </c>
       <c r="AO63" s="16" t="n">
-        <v>71800536</v>
+        <v>70071858</v>
       </c>
       <c r="AP63" s="16" t="n">
-        <v>70071858</v>
+        <v>71929624</v>
       </c>
       <c r="AQ63" s="16" t="n">
-        <v>71929624</v>
+        <v>73899932</v>
       </c>
       <c r="AR63" s="16" t="n">
-        <v>73899932</v>
+        <v>63085266</v>
       </c>
       <c r="AS63" s="16" t="n">
-        <v>63085266</v>
+        <v>60709865</v>
       </c>
       <c r="AT63" s="16" t="n">
-        <v>60709865</v>
+        <v>60096114</v>
       </c>
       <c r="AU63" s="16" t="n">
-        <v>60096114</v>
+        <v>62515363</v>
       </c>
       <c r="AV63" s="16" t="n">
-        <v>62515363</v>
+        <v>65605595</v>
       </c>
       <c r="AW63" s="16" t="n">
-        <v>65605595</v>
+        <v>67742407</v>
       </c>
       <c r="AX63" s="16" t="n">
-        <v>67742407</v>
+        <v>65029496</v>
       </c>
       <c r="AY63" s="16" t="n">
-        <v>65029496</v>
+        <v>84441356</v>
       </c>
       <c r="AZ63" s="16" t="n">
-        <v>84441356</v>
+        <v>86195719</v>
       </c>
       <c r="BA63" s="16" t="n">
-        <v>86195719</v>
+        <v>79466728</v>
       </c>
       <c r="BB63" s="16" t="n">
-        <v>79466728</v>
+        <v>76416483</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9269,107 +9269,107 @@
       <c r="T65" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U65" s="13" t="s">
-        <v>58</v>
+      <c r="U65" s="13" t="n">
+        <v>27778246</v>
       </c>
       <c r="V65" s="13" t="n">
-        <v>27778246</v>
+        <v>30816483</v>
       </c>
       <c r="W65" s="13" t="n">
-        <v>30816483</v>
+        <v>37273939</v>
       </c>
       <c r="X65" s="13" t="n">
-        <v>37273939</v>
+        <v>48071024</v>
       </c>
       <c r="Y65" s="13" t="n">
-        <v>48071024</v>
+        <v>57954632</v>
       </c>
       <c r="Z65" s="13" t="n">
-        <v>57954632</v>
+        <v>63795112</v>
       </c>
       <c r="AA65" s="13" t="n">
-        <v>63795112</v>
+        <v>73304456</v>
       </c>
       <c r="AB65" s="13" t="n">
-        <v>73304456</v>
+        <v>72567597</v>
       </c>
       <c r="AC65" s="13" t="n">
-        <v>72567597</v>
+        <v>70432983</v>
       </c>
       <c r="AD65" s="13" t="n">
-        <v>70432983</v>
+        <v>72104633</v>
       </c>
       <c r="AE65" s="13" t="n">
-        <v>72104633</v>
+        <v>66781605</v>
       </c>
       <c r="AF65" s="13" t="n">
-        <v>66781605</v>
+        <v>65831409</v>
       </c>
       <c r="AG65" s="13" t="n">
-        <v>65831409</v>
+        <v>72249750</v>
       </c>
       <c r="AH65" s="13" t="n">
-        <v>72249750</v>
+        <v>76025309</v>
       </c>
       <c r="AI65" s="13" t="n">
-        <v>76025309</v>
+        <v>77660787</v>
       </c>
       <c r="AJ65" s="13" t="n">
-        <v>77660787</v>
+        <v>94711543</v>
       </c>
       <c r="AK65" s="13" t="n">
-        <v>94711543</v>
+        <v>97677062</v>
       </c>
       <c r="AL65" s="13" t="n">
-        <v>97677062</v>
+        <v>87900246</v>
       </c>
       <c r="AM65" s="13" t="n">
-        <v>87900246</v>
+        <v>81943517</v>
       </c>
       <c r="AN65" s="13" t="n">
-        <v>81943517</v>
+        <v>84793814</v>
       </c>
       <c r="AO65" s="13" t="n">
-        <v>84793814</v>
+        <v>95326857</v>
       </c>
       <c r="AP65" s="13" t="n">
-        <v>95326857</v>
+        <v>95229776</v>
       </c>
       <c r="AQ65" s="13" t="n">
-        <v>95229776</v>
+        <v>93651041</v>
       </c>
       <c r="AR65" s="13" t="n">
-        <v>93651041</v>
+        <v>86730897</v>
       </c>
       <c r="AS65" s="13" t="n">
-        <v>86730897</v>
+        <v>83967212</v>
       </c>
       <c r="AT65" s="13" t="n">
-        <v>83967212</v>
+        <v>79978269</v>
       </c>
       <c r="AU65" s="13" t="n">
-        <v>79978269</v>
+        <v>79821368</v>
       </c>
       <c r="AV65" s="13" t="n">
-        <v>79821368</v>
+        <v>82247227</v>
       </c>
       <c r="AW65" s="13" t="n">
-        <v>82247227</v>
+        <v>84353092</v>
       </c>
       <c r="AX65" s="13" t="n">
-        <v>84353092</v>
+        <v>85930691</v>
       </c>
       <c r="AY65" s="13" t="n">
-        <v>85930691</v>
+        <v>89821680</v>
       </c>
       <c r="AZ65" s="13" t="n">
-        <v>89821680</v>
+        <v>90655887</v>
       </c>
       <c r="BA65" s="13" t="n">
-        <v>90655887</v>
+        <v>114934742</v>
       </c>
       <c r="BB65" s="13" t="n">
-        <v>114934742</v>
+        <v>114403682</v>
       </c>
     </row>
   </sheetData>
